--- a/outputs/tables/Clustering.xlsx
+++ b/outputs/tables/Clustering.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Carreira Acadêmica/Doutorado/Tese - João Paulo Alencar/Analises/Elementos Bióticos/Resultados/BE_Cerrado/outputs/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C89282-2152-354B-A25F-73B9672BB2ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B94D644-32EC-C740-8F00-D3AA75DE6401}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14360" activeTab="3" xr2:uid="{8BE1F850-643F-754B-B438-8BDD7E09D5AB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14360" activeTab="4" xr2:uid="{8BE1F850-643F-754B-B438-8BDD7E09D5AB}"/>
   </bookViews>
   <sheets>
     <sheet name="cdn" sheetId="2" r:id="rId1"/>
@@ -1636,7 +1636,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1850,6 +1850,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1871,9 +1874,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2205,7 +2206,7 @@
   <dimension ref="A2:K23"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:E13"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2244,7 +2245,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="118" t="s">
         <v>331</v>
       </c>
       <c r="B3" t="s">
@@ -2279,7 +2280,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="117"/>
+      <c r="A4" s="118"/>
       <c r="B4" t="s">
         <v>360</v>
       </c>
@@ -2312,7 +2313,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="117"/>
+      <c r="A5" s="118"/>
       <c r="B5" t="s">
         <v>359</v>
       </c>
@@ -2345,7 +2346,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="117" t="s">
+      <c r="A7" s="118" t="s">
         <v>332</v>
       </c>
       <c r="B7" t="s">
@@ -2354,7 +2355,7 @@
       <c r="C7" s="15">
         <v>233</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="125">
         <v>158</v>
       </c>
       <c r="E7">
@@ -2380,14 +2381,14 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="117"/>
+      <c r="A8" s="118"/>
       <c r="B8" t="s">
         <v>360</v>
       </c>
       <c r="C8" s="15">
         <v>21</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="125">
         <v>29</v>
       </c>
       <c r="E8">
@@ -2413,14 +2414,14 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="117"/>
+      <c r="A9" s="118"/>
       <c r="B9" t="s">
         <v>359</v>
       </c>
       <c r="C9" s="15">
         <v>11.1</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="125">
         <v>5.45</v>
       </c>
       <c r="E9">
@@ -2446,7 +2447,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="117" t="s">
+      <c r="A11" s="118" t="s">
         <v>333</v>
       </c>
       <c r="B11" t="s">
@@ -2481,7 +2482,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="117"/>
+      <c r="A12" s="118"/>
       <c r="B12" t="s">
         <v>360</v>
       </c>
@@ -2514,7 +2515,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="117"/>
+      <c r="A13" s="118"/>
       <c r="B13" t="s">
         <v>359</v>
       </c>
@@ -2547,7 +2548,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="117" t="s">
+      <c r="A15" s="118" t="s">
         <v>334</v>
       </c>
       <c r="B15" t="s">
@@ -2582,7 +2583,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="117"/>
+      <c r="A16" s="118"/>
       <c r="B16" t="s">
         <v>360</v>
       </c>
@@ -2615,7 +2616,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="117"/>
+      <c r="A17" s="118"/>
       <c r="B17" t="s">
         <v>359</v>
       </c>
@@ -2648,7 +2649,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="118" t="s">
+      <c r="A19" s="119" t="s">
         <v>335</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -2683,7 +2684,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="118"/>
+      <c r="A20" s="119"/>
       <c r="B20" s="7" t="s">
         <v>360</v>
       </c>
@@ -2716,7 +2717,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="119"/>
+      <c r="A21" s="120"/>
       <c r="B21" s="8" t="s">
         <v>359</v>
       </c>
@@ -2788,15 +2789,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="120"/>
+      <c r="B1" s="121"/>
       <c r="C1" s="25"/>
-      <c r="D1" s="120" t="s">
+      <c r="D1" s="121" t="s">
         <v>305</v>
       </c>
-      <c r="E1" s="120"/>
+      <c r="E1" s="121"/>
       <c r="G1" s="26" t="s">
         <v>393</v>
       </c>
@@ -10038,8 +10039,8 @@
   <dimension ref="A1:D341"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A125" sqref="A125:A159"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C159" sqref="C2:C159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14839,9 +14840,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48956B19-CF25-1042-B320-1547212FD114}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N24" sqref="N24"/>
+      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14850,7 +14851,7 @@
     <col min="2" max="2" width="14" style="9" customWidth="1"/>
     <col min="3" max="7" width="10.83203125" style="9"/>
     <col min="8" max="8" width="10.83203125" style="3"/>
-    <col min="9" max="9" width="12.1640625" style="124" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" style="117" customWidth="1"/>
     <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
     <col min="11" max="12" width="10.83203125" style="12"/>
     <col min="15" max="15" width="11.33203125" customWidth="1"/>
@@ -14928,7 +14929,7 @@
       <c r="H2" s="16">
         <v>5</v>
       </c>
-      <c r="I2" s="124">
+      <c r="I2" s="117">
         <v>280627</v>
       </c>
       <c r="J2" s="12">
@@ -14972,7 +14973,7 @@
       <c r="H3" s="16">
         <v>4</v>
       </c>
-      <c r="I3" s="124">
+      <c r="I3" s="117">
         <v>2706500</v>
       </c>
       <c r="J3" s="12">
@@ -15016,7 +15017,7 @@
       <c r="H4" s="16">
         <v>3</v>
       </c>
-      <c r="I4" s="124">
+      <c r="I4" s="117">
         <v>165633</v>
       </c>
       <c r="J4" s="12">
@@ -15060,7 +15061,7 @@
       <c r="H5" s="16">
         <v>4</v>
       </c>
-      <c r="I5" s="124">
+      <c r="I5" s="117">
         <v>1492437</v>
       </c>
       <c r="J5" s="12">
@@ -15104,7 +15105,7 @@
       <c r="H6" s="16">
         <v>2</v>
       </c>
-      <c r="I6" s="124">
+      <c r="I6" s="117">
         <v>59753</v>
       </c>
       <c r="J6" s="12">
@@ -15148,7 +15149,7 @@
       <c r="H7" s="16">
         <v>4</v>
       </c>
-      <c r="I7" s="124">
+      <c r="I7" s="117">
         <v>35692</v>
       </c>
       <c r="J7" s="12">
@@ -15194,7 +15195,7 @@
       <c r="H8" s="16">
         <v>3</v>
       </c>
-      <c r="I8" s="124">
+      <c r="I8" s="117">
         <v>35850</v>
       </c>
       <c r="J8" s="12">
@@ -15238,7 +15239,7 @@
       <c r="H9" s="16">
         <v>2</v>
       </c>
-      <c r="I9" s="124">
+      <c r="I9" s="117">
         <v>69341</v>
       </c>
       <c r="J9" s="12">
@@ -15282,7 +15283,7 @@
       <c r="H10" s="16">
         <v>3</v>
       </c>
-      <c r="I10" s="124">
+      <c r="I10" s="117">
         <v>201503</v>
       </c>
       <c r="J10" s="12">
@@ -15326,7 +15327,7 @@
       <c r="H11" s="16">
         <v>3</v>
       </c>
-      <c r="I11" s="124">
+      <c r="I11" s="117">
         <v>59325</v>
       </c>
       <c r="J11" s="12">
@@ -15370,7 +15371,7 @@
       <c r="H12" s="16">
         <v>3</v>
       </c>
-      <c r="I12" s="124">
+      <c r="I12" s="117">
         <v>47647</v>
       </c>
       <c r="J12" s="12">
@@ -15414,7 +15415,7 @@
       <c r="H13" s="16">
         <v>2</v>
       </c>
-      <c r="I13" s="124">
+      <c r="I13" s="117">
         <v>70753</v>
       </c>
       <c r="J13" s="12">
@@ -15458,7 +15459,7 @@
       <c r="H14" s="16">
         <v>2</v>
       </c>
-      <c r="I14" s="124">
+      <c r="I14" s="117">
         <v>829390</v>
       </c>
       <c r="J14" s="12">
@@ -15502,7 +15503,7 @@
       <c r="H15" s="16">
         <v>1</v>
       </c>
-      <c r="I15" s="124">
+      <c r="I15" s="117">
         <v>518105</v>
       </c>
       <c r="J15" s="12">
@@ -15546,7 +15547,7 @@
       <c r="H16" s="16">
         <v>3</v>
       </c>
-      <c r="I16" s="124">
+      <c r="I16" s="117">
         <v>216523</v>
       </c>
       <c r="J16" s="12">
@@ -15590,7 +15591,7 @@
       <c r="H17" s="16">
         <v>2</v>
       </c>
-      <c r="I17" s="124">
+      <c r="I17" s="117">
         <v>131575</v>
       </c>
       <c r="J17" s="12">
@@ -15634,7 +15635,7 @@
       <c r="H18" s="16">
         <v>1</v>
       </c>
-      <c r="I18" s="124">
+      <c r="I18" s="117">
         <v>36374</v>
       </c>
       <c r="J18" s="12">
@@ -15678,7 +15679,7 @@
       <c r="H19" s="16">
         <v>2</v>
       </c>
-      <c r="I19" s="124">
+      <c r="I19" s="117">
         <v>24175</v>
       </c>
       <c r="J19" s="12">
@@ -15722,7 +15723,7 @@
       <c r="H20" s="16">
         <v>2</v>
       </c>
-      <c r="I20" s="124">
+      <c r="I20" s="117">
         <v>114447</v>
       </c>
       <c r="J20" s="12">
@@ -15766,7 +15767,7 @@
       <c r="H21" s="16">
         <v>3</v>
       </c>
-      <c r="I21" s="124">
+      <c r="I21" s="117">
         <v>73125</v>
       </c>
       <c r="J21" s="12">
@@ -15810,7 +15811,7 @@
       <c r="H22" s="16">
         <v>2</v>
       </c>
-      <c r="I22" s="124">
+      <c r="I22" s="117">
         <v>128339</v>
       </c>
       <c r="J22" s="12">
@@ -15854,7 +15855,7 @@
       <c r="H23" s="16">
         <v>2</v>
       </c>
-      <c r="I23" s="124">
+      <c r="I23" s="117">
         <v>535739</v>
       </c>
       <c r="J23" s="12">
@@ -15898,7 +15899,7 @@
       <c r="H24" s="16">
         <v>2</v>
       </c>
-      <c r="I24" s="124">
+      <c r="I24" s="117">
         <v>244318</v>
       </c>
       <c r="J24" s="12">
@@ -15942,7 +15943,7 @@
       <c r="H25" s="16">
         <v>2</v>
       </c>
-      <c r="I25" s="124">
+      <c r="I25" s="117">
         <v>22447</v>
       </c>
       <c r="J25" s="12">
@@ -15986,7 +15987,7 @@
       <c r="H26" s="16">
         <v>2</v>
       </c>
-      <c r="I26" s="124">
+      <c r="I26" s="117">
         <v>35952</v>
       </c>
       <c r="J26" s="12">
@@ -16030,7 +16031,7 @@
       <c r="H27" s="16">
         <v>2</v>
       </c>
-      <c r="I27" s="124">
+      <c r="I27" s="117">
         <v>589620</v>
       </c>
       <c r="J27" s="12">
@@ -16074,7 +16075,7 @@
       <c r="H28" s="16">
         <v>2</v>
       </c>
-      <c r="I28" s="124">
+      <c r="I28" s="117">
         <v>119501</v>
       </c>
       <c r="J28" s="12">
@@ -16118,7 +16119,7 @@
       <c r="H29" s="16">
         <v>1</v>
       </c>
-      <c r="I29" s="124">
+      <c r="I29" s="117">
         <v>433721</v>
       </c>
       <c r="J29" s="12">
@@ -16162,7 +16163,7 @@
       <c r="H30" s="16">
         <v>2</v>
       </c>
-      <c r="I30" s="124">
+      <c r="I30" s="117">
         <v>940438</v>
       </c>
       <c r="J30" s="12">
@@ -16216,7 +16217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19A69BF1-CCFD-6443-93E0-6139599E6807}">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
@@ -16227,14 +16228,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="122" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
       <c r="G1" s="74"/>
       <c r="H1" s="74"/>
       <c r="I1" s="75"/>
@@ -16556,25 +16557,25 @@
       <c r="P11" s="65"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="122" t="s">
+      <c r="A12" s="123" t="s">
         <v>324</v>
       </c>
-      <c r="B12" s="122"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="122"/>
+      <c r="B12" s="123"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="123"/>
       <c r="H12" s="79"/>
       <c r="I12" s="113"/>
-      <c r="J12" s="123" t="s">
+      <c r="J12" s="124" t="s">
         <v>407</v>
       </c>
-      <c r="K12" s="123"/>
-      <c r="L12" s="123"/>
-      <c r="M12" s="123"/>
-      <c r="N12" s="123"/>
-      <c r="O12" s="123"/>
+      <c r="K12" s="124"/>
+      <c r="L12" s="124"/>
+      <c r="M12" s="124"/>
+      <c r="N12" s="124"/>
+      <c r="O12" s="124"/>
       <c r="P12" s="65"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">

--- a/outputs/tables/Clustering.xlsx
+++ b/outputs/tables/Clustering.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Carreira Acadêmica/Doutorado/Tese - João Paulo Alencar/Analises/Elementos Bióticos/Resultados/BE_Cerrado/outputs/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952707DA-A186-0D48-82C6-E12A68400BA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82E5245-7B64-7542-AFD1-537C20BFB293}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14800" yWindow="-21100" windowWidth="17040" windowHeight="21100" activeTab="3" xr2:uid="{8BE1F850-643F-754B-B438-8BDD7E09D5AB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24160" windowHeight="14380" activeTab="4" xr2:uid="{8BE1F850-643F-754B-B438-8BDD7E09D5AB}"/>
   </bookViews>
   <sheets>
     <sheet name="cdn" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2979" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3013" uniqueCount="453">
   <si>
     <t>Cutdist</t>
   </si>
@@ -1331,6 +1331,69 @@
   </si>
   <si>
     <t>TABLE 1</t>
+  </si>
+  <si>
+    <t>93 (10)</t>
+  </si>
+  <si>
+    <t>29 (7)</t>
+  </si>
+  <si>
+    <t>56 (10)</t>
+  </si>
+  <si>
+    <t>7 (4)</t>
+  </si>
+  <si>
+    <t>11 (6)</t>
+  </si>
+  <si>
+    <t>16 (6)</t>
+  </si>
+  <si>
+    <t>5 (4)</t>
+  </si>
+  <si>
+    <t>5 (3)</t>
+  </si>
+  <si>
+    <t>1 (1)</t>
+  </si>
+  <si>
+    <t>6 (2)</t>
+  </si>
+  <si>
+    <t>0.889 (1)</t>
+  </si>
+  <si>
+    <t>0.111 (0.57)</t>
+  </si>
+  <si>
+    <t>0.592 (0.6)</t>
+  </si>
+  <si>
+    <t>0.407 (0.857)</t>
+  </si>
+  <si>
+    <t>0.583 (0.4)</t>
+  </si>
+  <si>
+    <t>0.416 (0.428)</t>
+  </si>
+  <si>
+    <t>0.857 (0.2)</t>
+  </si>
+  <si>
+    <t>0.142 (0.142)</t>
+  </si>
+  <si>
+    <t>0.615 (0.4)</t>
+  </si>
+  <si>
+    <t>0.384 (0.571)</t>
+  </si>
+  <si>
+    <t>Elevation OLD</t>
   </si>
 </sst>
 </file>
@@ -1340,7 +1403,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1393,6 +1456,13 @@
     <font>
       <sz val="12"/>
       <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1677,7 +1747,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1882,6 +1952,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1900,16 +1985,30 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2282,7 +2381,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="115" t="s">
         <v>329</v>
       </c>
       <c r="B3" t="s">
@@ -2317,7 +2416,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="110"/>
+      <c r="A4" s="115"/>
       <c r="B4" t="s">
         <v>358</v>
       </c>
@@ -2350,7 +2449,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="110"/>
+      <c r="A5" s="115"/>
       <c r="B5" t="s">
         <v>357</v>
       </c>
@@ -2383,7 +2482,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="115" t="s">
         <v>330</v>
       </c>
       <c r="B7" t="s">
@@ -2418,7 +2517,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="110"/>
+      <c r="A8" s="115"/>
       <c r="B8" t="s">
         <v>358</v>
       </c>
@@ -2451,7 +2550,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="110"/>
+      <c r="A9" s="115"/>
       <c r="B9" t="s">
         <v>357</v>
       </c>
@@ -2484,7 +2583,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="110" t="s">
+      <c r="A11" s="115" t="s">
         <v>331</v>
       </c>
       <c r="B11" t="s">
@@ -2519,7 +2618,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="110"/>
+      <c r="A12" s="115"/>
       <c r="B12" t="s">
         <v>358</v>
       </c>
@@ -2552,7 +2651,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="110"/>
+      <c r="A13" s="115"/>
       <c r="B13" t="s">
         <v>357</v>
       </c>
@@ -2585,7 +2684,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="110" t="s">
+      <c r="A15" s="115" t="s">
         <v>332</v>
       </c>
       <c r="B15" t="s">
@@ -2620,7 +2719,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="110"/>
+      <c r="A16" s="115"/>
       <c r="B16" t="s">
         <v>358</v>
       </c>
@@ -2653,7 +2752,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="110"/>
+      <c r="A17" s="115"/>
       <c r="B17" t="s">
         <v>357</v>
       </c>
@@ -2686,7 +2785,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="111" t="s">
+      <c r="A19" s="116" t="s">
         <v>333</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -2721,7 +2820,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="111"/>
+      <c r="A20" s="116"/>
       <c r="B20" s="7" t="s">
         <v>358</v>
       </c>
@@ -2754,7 +2853,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="112"/>
+      <c r="A21" s="117"/>
       <c r="B21" s="8" t="s">
         <v>357</v>
       </c>
@@ -2826,15 +2925,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="113"/>
+      <c r="B1" s="118"/>
       <c r="C1" s="25"/>
-      <c r="D1" s="113" t="s">
+      <c r="D1" s="118" t="s">
         <v>305</v>
       </c>
-      <c r="E1" s="113"/>
+      <c r="E1" s="118"/>
       <c r="G1" s="26" t="s">
         <v>391</v>
       </c>
@@ -14877,9 +14976,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48956B19-CF25-1042-B320-1547212FD114}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N36" sqref="N36"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14943,34 +15042,34 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
+        <v>15</v>
+      </c>
+      <c r="B2" s="12">
+        <v>4</v>
+      </c>
+      <c r="C2" s="21">
         <v>1</v>
       </c>
-      <c r="B2" s="12">
-        <v>39</v>
-      </c>
-      <c r="C2" s="18">
-        <v>21</v>
-      </c>
-      <c r="D2" s="18">
-        <v>6</v>
-      </c>
-      <c r="E2" s="18">
+      <c r="D2" s="21">
+        <v>0</v>
+      </c>
+      <c r="E2" s="21">
+        <v>0</v>
+      </c>
+      <c r="F2" s="21">
+        <v>2</v>
+      </c>
+      <c r="G2" s="21">
+        <v>1</v>
+      </c>
+      <c r="H2" s="16">
         <v>3</v>
       </c>
-      <c r="F2" s="18">
-        <v>5</v>
-      </c>
-      <c r="G2" s="18">
-        <v>4</v>
-      </c>
-      <c r="H2" s="16">
-        <v>5</v>
-      </c>
       <c r="I2" s="93">
-        <v>280627</v>
+        <v>216523</v>
       </c>
       <c r="J2" s="12">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="K2" s="12">
         <v>0</v>
@@ -14979,48 +15078,48 @@
         <v>3</v>
       </c>
       <c r="M2" s="12">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>318</v>
+        <v>386</v>
       </c>
       <c r="O2" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
+        <v>23</v>
+      </c>
+      <c r="B3" s="12">
+        <v>3</v>
+      </c>
+      <c r="C3" s="64">
+        <v>1</v>
+      </c>
+      <c r="D3" s="64">
+        <v>0</v>
+      </c>
+      <c r="E3" s="64">
         <v>2</v>
       </c>
-      <c r="B3" s="12">
-        <v>17</v>
-      </c>
-      <c r="C3" s="67">
-        <v>3</v>
-      </c>
-      <c r="D3" s="67">
-        <v>0</v>
-      </c>
-      <c r="E3" s="67">
+      <c r="F3" s="20">
+        <v>0</v>
+      </c>
+      <c r="G3" s="64">
+        <v>0</v>
+      </c>
+      <c r="H3" s="16">
         <v>2</v>
       </c>
-      <c r="F3" s="67">
-        <v>11</v>
-      </c>
-      <c r="G3" s="67">
-        <v>1</v>
-      </c>
-      <c r="H3" s="16">
-        <v>4</v>
-      </c>
       <c r="I3" s="93">
-        <v>2706500</v>
+        <v>244318</v>
       </c>
       <c r="J3" s="12">
-        <v>229</v>
+        <v>21</v>
       </c>
       <c r="K3" s="12">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L3" s="12">
         <v>3</v>
@@ -15029,243 +15128,243 @@
         <v>0</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>317</v>
+        <v>386</v>
       </c>
       <c r="O3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
+        <v>26</v>
+      </c>
+      <c r="B4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="12">
-        <v>13</v>
-      </c>
-      <c r="C4" s="21">
-        <v>10</v>
-      </c>
-      <c r="D4" s="21">
+      <c r="C4" s="64">
+        <v>2</v>
+      </c>
+      <c r="D4" s="64">
+        <v>0</v>
+      </c>
+      <c r="E4" s="64">
+        <v>0</v>
+      </c>
+      <c r="F4" s="64">
         <v>1</v>
       </c>
-      <c r="E4" s="21">
-        <v>0</v>
-      </c>
-      <c r="F4" s="21">
-        <v>0</v>
-      </c>
-      <c r="G4" s="21">
+      <c r="G4" s="64">
+        <v>0</v>
+      </c>
+      <c r="H4" s="16">
         <v>2</v>
       </c>
-      <c r="H4" s="16">
-        <v>3</v>
-      </c>
       <c r="I4" s="93">
-        <v>165633</v>
+        <v>589620</v>
       </c>
       <c r="J4" s="12">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="K4" s="12">
         <v>0</v>
       </c>
       <c r="L4" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M4" s="12">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>318</v>
+        <v>386</v>
       </c>
       <c r="O4" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B5" s="12">
-        <v>10</v>
-      </c>
-      <c r="C5" s="67">
+        <v>3</v>
+      </c>
+      <c r="C5" s="68">
+        <v>3</v>
+      </c>
+      <c r="D5" s="68">
+        <v>0</v>
+      </c>
+      <c r="E5" s="68">
+        <v>0</v>
+      </c>
+      <c r="F5" s="68">
+        <v>0</v>
+      </c>
+      <c r="G5" s="68">
+        <v>0</v>
+      </c>
+      <c r="H5" s="16">
         <v>1</v>
       </c>
-      <c r="D5" s="67">
+      <c r="I5" s="93">
+        <v>433721</v>
+      </c>
+      <c r="J5" s="12">
+        <v>36</v>
+      </c>
+      <c r="K5" s="12">
+        <v>0</v>
+      </c>
+      <c r="L5" s="12">
+        <v>2</v>
+      </c>
+      <c r="M5" s="12">
         <v>1</v>
-      </c>
-      <c r="E5" s="67">
-        <v>4</v>
-      </c>
-      <c r="F5" s="67">
-        <v>4</v>
-      </c>
-      <c r="G5" s="67">
-        <v>0</v>
-      </c>
-      <c r="H5" s="16">
-        <v>4</v>
-      </c>
-      <c r="I5" s="93">
-        <v>1492437</v>
-      </c>
-      <c r="J5" s="12">
-        <v>128</v>
-      </c>
-      <c r="K5" s="12">
-        <v>0</v>
-      </c>
-      <c r="L5" s="12">
-        <v>10</v>
-      </c>
-      <c r="M5" s="12">
-        <v>0</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>386</v>
       </c>
       <c r="O5" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B6" s="12">
-        <v>8</v>
-      </c>
-      <c r="C6" s="20">
-        <v>6</v>
-      </c>
-      <c r="D6" s="20">
-        <v>0</v>
-      </c>
-      <c r="E6" s="20">
+        <v>3</v>
+      </c>
+      <c r="C6" s="64">
+        <v>1</v>
+      </c>
+      <c r="D6" s="64">
         <v>2</v>
       </c>
-      <c r="F6" s="20">
-        <v>0</v>
-      </c>
-      <c r="G6" s="20">
+      <c r="E6" s="64">
+        <v>0</v>
+      </c>
+      <c r="F6" s="64">
+        <v>0</v>
+      </c>
+      <c r="G6" s="64">
         <v>0</v>
       </c>
       <c r="H6" s="16">
         <v>2</v>
       </c>
       <c r="I6" s="93">
-        <v>59753</v>
+        <v>940438</v>
       </c>
       <c r="J6" s="12">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="K6" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M6" s="12">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>318</v>
+        <v>386</v>
       </c>
       <c r="O6" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B7" s="12">
-        <v>7</v>
-      </c>
-      <c r="C7" s="67">
         <v>3</v>
       </c>
-      <c r="D7" s="67">
+      <c r="C7" s="20">
+        <v>1</v>
+      </c>
+      <c r="D7" s="20">
+        <v>0</v>
+      </c>
+      <c r="E7" s="20">
         <v>2</v>
       </c>
-      <c r="E7" s="67">
-        <v>1</v>
-      </c>
-      <c r="F7" s="67">
-        <v>0</v>
-      </c>
-      <c r="G7" s="67">
-        <v>1</v>
+      <c r="F7" s="20">
+        <v>0</v>
+      </c>
+      <c r="G7" s="20">
+        <v>0</v>
       </c>
       <c r="H7" s="16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I7" s="93">
-        <v>35692</v>
+        <v>535739</v>
       </c>
       <c r="J7" s="12">
+        <v>45</v>
+      </c>
+      <c r="K7" s="12">
+        <v>0</v>
+      </c>
+      <c r="L7" s="12">
         <v>3</v>
       </c>
-      <c r="K7" s="12">
-        <v>0</v>
-      </c>
-      <c r="L7" s="12">
-        <v>0</v>
-      </c>
       <c r="M7" s="12">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>318</v>
+        <v>386</v>
       </c>
       <c r="O7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="Q7" s="9"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B8" s="12">
-        <v>7</v>
-      </c>
-      <c r="C8" s="21">
-        <v>2</v>
-      </c>
-      <c r="D8" s="21">
+        <v>10</v>
+      </c>
+      <c r="C8" s="67">
+        <v>1</v>
+      </c>
+      <c r="D8" s="67">
+        <v>1</v>
+      </c>
+      <c r="E8" s="67">
         <v>4</v>
       </c>
-      <c r="E8" s="21">
-        <v>1</v>
-      </c>
-      <c r="F8" s="21">
-        <v>0</v>
-      </c>
-      <c r="G8" s="21">
+      <c r="F8" s="67">
+        <v>4</v>
+      </c>
+      <c r="G8" s="67">
         <v>0</v>
       </c>
       <c r="H8" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I8" s="93">
-        <v>35850</v>
+        <v>1492437</v>
       </c>
       <c r="J8" s="12">
-        <v>3</v>
+        <v>128</v>
       </c>
       <c r="K8" s="12">
         <v>0</v>
       </c>
       <c r="L8" s="12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M8" s="12">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>318</v>
+        <v>386</v>
       </c>
       <c r="O8" t="s">
         <v>428</v>
@@ -15273,22 +15372,22 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B9" s="12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C9" s="20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="20">
         <v>0</v>
       </c>
       <c r="F9" s="20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9" s="20">
         <v>0</v>
@@ -15297,22 +15396,22 @@
         <v>2</v>
       </c>
       <c r="I9" s="93">
-        <v>69341</v>
+        <v>829390</v>
       </c>
       <c r="J9" s="12">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="K9" s="12">
         <v>0</v>
       </c>
       <c r="L9" s="12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M9" s="12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>318</v>
+        <v>386</v>
       </c>
       <c r="O9" t="s">
         <v>428</v>
@@ -15320,46 +15419,46 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B10" s="12">
-        <v>6</v>
-      </c>
-      <c r="C10" s="21">
         <v>4</v>
       </c>
-      <c r="D10" s="21">
-        <v>0</v>
-      </c>
-      <c r="E10" s="21">
+      <c r="C10" s="19">
+        <v>0</v>
+      </c>
+      <c r="D10" s="19">
+        <v>0</v>
+      </c>
+      <c r="E10" s="19">
+        <v>4</v>
+      </c>
+      <c r="F10" s="19">
+        <v>0</v>
+      </c>
+      <c r="G10" s="19">
+        <v>0</v>
+      </c>
+      <c r="H10" s="16">
         <v>1</v>
       </c>
-      <c r="F10" s="21">
-        <v>0</v>
-      </c>
-      <c r="G10" s="21">
-        <v>1</v>
-      </c>
-      <c r="H10" s="16">
-        <v>3</v>
-      </c>
       <c r="I10" s="93">
-        <v>201503</v>
+        <v>518105</v>
       </c>
       <c r="J10" s="12">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="K10" s="12">
         <v>0</v>
       </c>
       <c r="L10" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M10" s="12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>318</v>
+        <v>386</v>
       </c>
       <c r="O10" t="s">
         <v>428</v>
@@ -15367,35 +15466,35 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
-        <v>10</v>
-      </c>
-      <c r="B11" s="12">
-        <v>5</v>
-      </c>
-      <c r="C11" s="21">
+        <v>6</v>
+      </c>
+      <c r="B11" s="121">
+        <v>7</v>
+      </c>
+      <c r="C11" s="67">
+        <v>3</v>
+      </c>
+      <c r="D11" s="67">
+        <v>2</v>
+      </c>
+      <c r="E11" s="67">
         <v>1</v>
       </c>
-      <c r="D11" s="21">
+      <c r="F11" s="67">
+        <v>0</v>
+      </c>
+      <c r="G11" s="67">
         <v>1</v>
       </c>
-      <c r="E11" s="21">
+      <c r="H11" s="16">
+        <v>4</v>
+      </c>
+      <c r="I11" s="93">
+        <v>35692</v>
+      </c>
+      <c r="J11" s="12">
         <v>3</v>
       </c>
-      <c r="F11" s="21">
-        <v>0</v>
-      </c>
-      <c r="G11" s="21">
-        <v>0</v>
-      </c>
-      <c r="H11" s="16">
-        <v>3</v>
-      </c>
-      <c r="I11" s="93">
-        <v>59325</v>
-      </c>
-      <c r="J11" s="12">
-        <v>5</v>
-      </c>
       <c r="K11" s="12">
         <v>0</v>
       </c>
@@ -15403,7 +15502,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>318</v>
@@ -15414,43 +15513,43 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="121">
         <v>5</v>
       </c>
       <c r="C12" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F12" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H12" s="16">
         <v>3</v>
       </c>
       <c r="I12" s="93">
-        <v>47647</v>
+        <v>59325</v>
       </c>
       <c r="J12" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K12" s="12">
         <v>0</v>
       </c>
       <c r="L12" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M12" s="12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>318</v>
@@ -15461,269 +15560,269 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
-        <v>12</v>
-      </c>
-      <c r="B13" s="12">
+        <v>11</v>
+      </c>
+      <c r="B13" s="121">
+        <v>5</v>
+      </c>
+      <c r="C13" s="21">
+        <v>0</v>
+      </c>
+      <c r="D13" s="21">
+        <v>2</v>
+      </c>
+      <c r="E13" s="21">
+        <v>0</v>
+      </c>
+      <c r="F13" s="21">
+        <v>1</v>
+      </c>
+      <c r="G13" s="21">
+        <v>2</v>
+      </c>
+      <c r="H13" s="16">
+        <v>3</v>
+      </c>
+      <c r="I13" s="93">
+        <v>47647</v>
+      </c>
+      <c r="J13" s="12">
         <v>4</v>
       </c>
-      <c r="C13" s="20">
+      <c r="K13" s="12">
+        <v>0</v>
+      </c>
+      <c r="L13" s="12">
+        <v>2</v>
+      </c>
+      <c r="M13" s="12">
         <v>3</v>
-      </c>
-      <c r="D13" s="20">
-        <v>1</v>
-      </c>
-      <c r="E13" s="20">
-        <v>0</v>
-      </c>
-      <c r="F13" s="20">
-        <v>0</v>
-      </c>
-      <c r="G13" s="20">
-        <v>0</v>
-      </c>
-      <c r="H13" s="16">
-        <v>2</v>
-      </c>
-      <c r="I13" s="93">
-        <v>70753</v>
-      </c>
-      <c r="J13" s="12">
-        <v>6</v>
-      </c>
-      <c r="K13" s="12">
-        <v>0</v>
-      </c>
-      <c r="L13" s="12">
-        <v>0</v>
-      </c>
-      <c r="M13" s="12">
-        <v>4</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O13" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
-        <v>13</v>
-      </c>
-      <c r="B14" s="12">
-        <v>4</v>
-      </c>
-      <c r="C14" s="20">
-        <v>2</v>
-      </c>
-      <c r="D14" s="20">
-        <v>0</v>
-      </c>
-      <c r="E14" s="20">
-        <v>0</v>
-      </c>
-      <c r="F14" s="20">
-        <v>2</v>
-      </c>
-      <c r="G14" s="20">
+        <v>17</v>
+      </c>
+      <c r="B14" s="121">
+        <v>3</v>
+      </c>
+      <c r="C14" s="19">
+        <v>0</v>
+      </c>
+      <c r="D14" s="19">
+        <v>3</v>
+      </c>
+      <c r="E14" s="19">
+        <v>0</v>
+      </c>
+      <c r="F14" s="19">
+        <v>0</v>
+      </c>
+      <c r="G14" s="19">
         <v>0</v>
       </c>
       <c r="H14" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" s="93">
-        <v>829390</v>
+        <v>36374</v>
       </c>
       <c r="J14" s="12">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="K14" s="12">
         <v>0</v>
       </c>
       <c r="L14" s="12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M14" s="12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>386</v>
+        <v>318</v>
       </c>
       <c r="O14" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
-        <v>14</v>
-      </c>
-      <c r="B15" s="12">
-        <v>4</v>
-      </c>
-      <c r="C15" s="19">
-        <v>0</v>
-      </c>
-      <c r="D15" s="19">
-        <v>0</v>
-      </c>
-      <c r="E15" s="19">
-        <v>4</v>
-      </c>
-      <c r="F15" s="19">
-        <v>0</v>
-      </c>
-      <c r="G15" s="19">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="B15" s="121">
+        <v>3</v>
+      </c>
+      <c r="C15" s="20">
+        <v>2</v>
+      </c>
+      <c r="D15" s="20">
+        <v>0</v>
+      </c>
+      <c r="E15" s="20">
+        <v>0</v>
+      </c>
+      <c r="F15" s="20">
+        <v>0</v>
+      </c>
+      <c r="G15" s="20">
+        <v>1</v>
       </c>
       <c r="H15" s="16">
+        <v>2</v>
+      </c>
+      <c r="I15" s="93">
+        <v>114447</v>
+      </c>
+      <c r="J15" s="12">
+        <v>10</v>
+      </c>
+      <c r="K15" s="12">
+        <v>0</v>
+      </c>
+      <c r="L15" s="12">
         <v>1</v>
       </c>
-      <c r="I15" s="93">
-        <v>518105</v>
-      </c>
-      <c r="J15" s="12">
-        <v>45</v>
-      </c>
-      <c r="K15" s="12">
-        <v>0</v>
-      </c>
-      <c r="L15" s="12">
-        <v>4</v>
-      </c>
       <c r="M15" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>386</v>
+        <v>318</v>
       </c>
       <c r="O15" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
-        <v>15</v>
-      </c>
-      <c r="B16" s="12">
-        <v>4</v>
+        <v>20</v>
+      </c>
+      <c r="B16" s="121">
+        <v>3</v>
       </c>
       <c r="C16" s="21">
         <v>1</v>
       </c>
       <c r="D16" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G16" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="16">
         <v>3</v>
       </c>
       <c r="I16" s="93">
-        <v>216523</v>
+        <v>73125</v>
       </c>
       <c r="J16" s="12">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="K16" s="12">
         <v>0</v>
       </c>
       <c r="L16" s="12">
+        <v>0</v>
+      </c>
+      <c r="M16" s="12">
         <v>3</v>
       </c>
-      <c r="M16" s="12">
-        <v>1</v>
-      </c>
       <c r="N16" s="1" t="s">
-        <v>386</v>
+        <v>318</v>
       </c>
       <c r="O16" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
-        <v>16</v>
-      </c>
-      <c r="B17" s="12">
-        <v>4</v>
-      </c>
-      <c r="C17" s="20">
+        <v>27</v>
+      </c>
+      <c r="B17" s="121">
+        <v>3</v>
+      </c>
+      <c r="C17" s="64">
+        <v>0</v>
+      </c>
+      <c r="D17" s="64">
+        <v>2</v>
+      </c>
+      <c r="E17" s="64">
+        <v>0</v>
+      </c>
+      <c r="F17" s="64">
+        <v>0</v>
+      </c>
+      <c r="G17" s="64">
         <v>1</v>
-      </c>
-      <c r="D17" s="20">
-        <v>3</v>
-      </c>
-      <c r="E17" s="20">
-        <v>0</v>
-      </c>
-      <c r="F17" s="20">
-        <v>0</v>
-      </c>
-      <c r="G17" s="20">
-        <v>0</v>
       </c>
       <c r="H17" s="16">
         <v>2</v>
       </c>
       <c r="I17" s="93">
-        <v>131575</v>
+        <v>119501</v>
       </c>
       <c r="J17" s="12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K17" s="12">
         <v>0</v>
       </c>
       <c r="L17" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O17" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="12">
         <v>3</v>
       </c>
-      <c r="C18" s="19">
-        <v>0</v>
-      </c>
-      <c r="D18" s="19">
-        <v>3</v>
-      </c>
-      <c r="E18" s="19">
-        <v>0</v>
-      </c>
-      <c r="F18" s="19">
-        <v>0</v>
-      </c>
-      <c r="G18" s="19">
+      <c r="C18" s="20">
+        <v>0</v>
+      </c>
+      <c r="D18" s="20">
+        <v>2</v>
+      </c>
+      <c r="E18" s="20">
+        <v>1</v>
+      </c>
+      <c r="F18" s="20">
+        <v>0</v>
+      </c>
+      <c r="G18" s="20">
         <v>0</v>
       </c>
       <c r="H18" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" s="93">
-        <v>36374</v>
+        <v>24175</v>
       </c>
       <c r="J18" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K18" s="12">
         <v>0</v>
@@ -15738,39 +15837,39 @@
         <v>318</v>
       </c>
       <c r="O18" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="19" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B19" s="12">
         <v>3</v>
       </c>
-      <c r="C19" s="20">
-        <v>0</v>
-      </c>
-      <c r="D19" s="20">
+      <c r="C19" s="64">
+        <v>0</v>
+      </c>
+      <c r="D19" s="64">
         <v>2</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="64">
         <v>1</v>
       </c>
       <c r="F19" s="20">
         <v>0</v>
       </c>
-      <c r="G19" s="20">
+      <c r="G19" s="64">
         <v>0</v>
       </c>
       <c r="H19" s="16">
         <v>2</v>
       </c>
       <c r="I19" s="93">
-        <v>24175</v>
+        <v>35952</v>
       </c>
       <c r="J19" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K19" s="12">
         <v>0</v>
@@ -15790,81 +15889,81 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
-        <v>19</v>
-      </c>
-      <c r="B20" s="12">
+        <v>1</v>
+      </c>
+      <c r="B20" s="122">
+        <v>39</v>
+      </c>
+      <c r="C20" s="18">
+        <v>21</v>
+      </c>
+      <c r="D20" s="18">
+        <v>6</v>
+      </c>
+      <c r="E20" s="18">
         <v>3</v>
       </c>
-      <c r="C20" s="20">
-        <v>2</v>
-      </c>
-      <c r="D20" s="20">
-        <v>0</v>
-      </c>
-      <c r="E20" s="20">
-        <v>0</v>
-      </c>
-      <c r="F20" s="20">
-        <v>0</v>
-      </c>
-      <c r="G20" s="20">
-        <v>1</v>
+      <c r="F20" s="18">
+        <v>5</v>
+      </c>
+      <c r="G20" s="18">
+        <v>4</v>
       </c>
       <c r="H20" s="16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I20" s="93">
-        <v>114447</v>
+        <v>280627</v>
       </c>
       <c r="J20" s="12">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="K20" s="12">
         <v>0</v>
       </c>
       <c r="L20" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M20" s="12">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O20" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
-        <v>20</v>
-      </c>
-      <c r="B21" s="12">
         <v>3</v>
       </c>
+      <c r="B21" s="122">
+        <v>13</v>
+      </c>
       <c r="C21" s="21">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D21" s="21">
         <v>1</v>
       </c>
       <c r="E21" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="21">
         <v>0</v>
       </c>
       <c r="G21" s="21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21" s="16">
         <v>3</v>
       </c>
       <c r="I21" s="93">
-        <v>73125</v>
+        <v>165633</v>
       </c>
       <c r="J21" s="12">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="K21" s="12">
         <v>0</v>
@@ -15873,33 +15972,33 @@
         <v>0</v>
       </c>
       <c r="M21" s="12">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O21" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
-        <v>21</v>
-      </c>
-      <c r="B22" s="12">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="B22" s="122">
+        <v>8</v>
       </c>
       <c r="C22" s="20">
+        <v>6</v>
+      </c>
+      <c r="D22" s="20">
+        <v>0</v>
+      </c>
+      <c r="E22" s="20">
         <v>2</v>
       </c>
-      <c r="D22" s="20">
-        <v>0</v>
-      </c>
-      <c r="E22" s="20">
-        <v>0</v>
-      </c>
       <c r="F22" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" s="20">
         <v>0</v>
@@ -15908,10 +16007,10 @@
         <v>2</v>
       </c>
       <c r="I22" s="93">
-        <v>128339</v>
+        <v>59753</v>
       </c>
       <c r="J22" s="12">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K22" s="12">
         <v>0</v>
@@ -15920,7 +16019,7 @@
         <v>1</v>
       </c>
       <c r="M22" s="12">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>318</v>
@@ -15931,137 +16030,137 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
-        <v>22</v>
-      </c>
-      <c r="B23" s="12">
+        <v>7</v>
+      </c>
+      <c r="B23" s="122">
+        <v>7</v>
+      </c>
+      <c r="C23" s="21">
+        <v>2</v>
+      </c>
+      <c r="D23" s="21">
+        <v>4</v>
+      </c>
+      <c r="E23" s="21">
+        <v>1</v>
+      </c>
+      <c r="F23" s="21">
+        <v>0</v>
+      </c>
+      <c r="G23" s="21">
+        <v>0</v>
+      </c>
+      <c r="H23" s="16">
         <v>3</v>
       </c>
-      <c r="C23" s="20">
-        <v>1</v>
-      </c>
-      <c r="D23" s="20">
-        <v>0</v>
-      </c>
-      <c r="E23" s="20">
-        <v>2</v>
-      </c>
-      <c r="F23" s="20">
-        <v>0</v>
-      </c>
-      <c r="G23" s="20">
-        <v>0</v>
-      </c>
-      <c r="H23" s="16">
-        <v>2</v>
-      </c>
       <c r="I23" s="93">
-        <v>535739</v>
+        <v>35850</v>
       </c>
       <c r="J23" s="12">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="K23" s="12">
         <v>0</v>
       </c>
       <c r="L23" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M23" s="12">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>386</v>
+        <v>318</v>
       </c>
       <c r="O23" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
-        <v>23</v>
-      </c>
-      <c r="B24" s="12">
-        <v>3</v>
-      </c>
-      <c r="C24" s="64">
+        <v>8</v>
+      </c>
+      <c r="B24" s="122">
+        <v>6</v>
+      </c>
+      <c r="C24" s="20">
+        <v>5</v>
+      </c>
+      <c r="D24" s="20">
         <v>1</v>
       </c>
-      <c r="D24" s="64">
-        <v>0</v>
-      </c>
-      <c r="E24" s="64">
-        <v>2</v>
+      <c r="E24" s="20">
+        <v>0</v>
       </c>
       <c r="F24" s="20">
         <v>0</v>
       </c>
-      <c r="G24" s="64">
+      <c r="G24" s="20">
         <v>0</v>
       </c>
       <c r="H24" s="16">
         <v>2</v>
       </c>
       <c r="I24" s="93">
-        <v>244318</v>
+        <v>69341</v>
       </c>
       <c r="J24" s="12">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="K24" s="12">
         <v>0</v>
       </c>
       <c r="L24" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M24" s="12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>386</v>
+        <v>318</v>
       </c>
       <c r="O24" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
-        <v>24</v>
-      </c>
-      <c r="B25" s="12">
+        <v>9</v>
+      </c>
+      <c r="B25" s="122">
+        <v>6</v>
+      </c>
+      <c r="C25" s="21">
+        <v>4</v>
+      </c>
+      <c r="D25" s="21">
+        <v>0</v>
+      </c>
+      <c r="E25" s="21">
+        <v>1</v>
+      </c>
+      <c r="F25" s="21">
+        <v>0</v>
+      </c>
+      <c r="G25" s="21">
+        <v>1</v>
+      </c>
+      <c r="H25" s="16">
         <v>3</v>
       </c>
-      <c r="C25" s="64">
+      <c r="I25" s="93">
+        <v>201503</v>
+      </c>
+      <c r="J25" s="12">
+        <v>17</v>
+      </c>
+      <c r="K25" s="12">
+        <v>0</v>
+      </c>
+      <c r="L25" s="12">
         <v>2</v>
       </c>
-      <c r="D25" s="64">
-        <v>0</v>
-      </c>
-      <c r="E25" s="64">
-        <v>0</v>
-      </c>
-      <c r="F25" s="20">
-        <v>0</v>
-      </c>
-      <c r="G25" s="64">
-        <v>1</v>
-      </c>
-      <c r="H25" s="16">
-        <v>2</v>
-      </c>
-      <c r="I25" s="93">
-        <v>22447</v>
-      </c>
-      <c r="J25" s="12">
-        <v>2</v>
-      </c>
-      <c r="K25" s="12">
-        <v>0</v>
-      </c>
-      <c r="L25" s="12">
-        <v>0</v>
-      </c>
       <c r="M25" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>318</v>
@@ -16072,34 +16171,34 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
-        <v>25</v>
-      </c>
-      <c r="B26" s="12">
+        <v>12</v>
+      </c>
+      <c r="B26" s="122">
+        <v>4</v>
+      </c>
+      <c r="C26" s="20">
         <v>3</v>
       </c>
-      <c r="C26" s="64">
-        <v>0</v>
-      </c>
-      <c r="D26" s="64">
-        <v>2</v>
-      </c>
-      <c r="E26" s="64">
+      <c r="D26" s="20">
         <v>1</v>
       </c>
+      <c r="E26" s="20">
+        <v>0</v>
+      </c>
       <c r="F26" s="20">
         <v>0</v>
       </c>
-      <c r="G26" s="64">
+      <c r="G26" s="20">
         <v>0</v>
       </c>
       <c r="H26" s="16">
         <v>2</v>
       </c>
       <c r="I26" s="93">
-        <v>35952</v>
+        <v>70753</v>
       </c>
       <c r="J26" s="12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K26" s="12">
         <v>0</v>
@@ -16108,92 +16207,92 @@
         <v>0</v>
       </c>
       <c r="M26" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O26" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
-        <v>26</v>
-      </c>
-      <c r="B27" s="12">
+        <v>16</v>
+      </c>
+      <c r="B27" s="122">
+        <v>4</v>
+      </c>
+      <c r="C27" s="20">
+        <v>1</v>
+      </c>
+      <c r="D27" s="20">
         <v>3</v>
       </c>
-      <c r="C27" s="64">
-        <v>2</v>
-      </c>
-      <c r="D27" s="64">
-        <v>0</v>
-      </c>
-      <c r="E27" s="64">
-        <v>0</v>
-      </c>
-      <c r="F27" s="64">
-        <v>1</v>
-      </c>
-      <c r="G27" s="64">
+      <c r="E27" s="20">
+        <v>0</v>
+      </c>
+      <c r="F27" s="20">
+        <v>0</v>
+      </c>
+      <c r="G27" s="20">
         <v>0</v>
       </c>
       <c r="H27" s="16">
         <v>2</v>
       </c>
       <c r="I27" s="93">
-        <v>589620</v>
+        <v>131575</v>
       </c>
       <c r="J27" s="12">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="K27" s="12">
         <v>0</v>
       </c>
       <c r="L27" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M27" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>386</v>
+        <v>318</v>
       </c>
       <c r="O27" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
-        <v>27</v>
-      </c>
-      <c r="B28" s="12">
+        <v>21</v>
+      </c>
+      <c r="B28" s="122">
         <v>3</v>
       </c>
-      <c r="C28" s="64">
-        <v>0</v>
-      </c>
-      <c r="D28" s="64">
+      <c r="C28" s="20">
         <v>2</v>
       </c>
-      <c r="E28" s="64">
-        <v>0</v>
-      </c>
-      <c r="F28" s="64">
-        <v>0</v>
-      </c>
-      <c r="G28" s="64">
+      <c r="D28" s="20">
+        <v>0</v>
+      </c>
+      <c r="E28" s="20">
+        <v>0</v>
+      </c>
+      <c r="F28" s="20">
         <v>1</v>
+      </c>
+      <c r="G28" s="20">
+        <v>0</v>
       </c>
       <c r="H28" s="16">
         <v>2</v>
       </c>
       <c r="I28" s="93">
-        <v>119501</v>
+        <v>128339</v>
       </c>
       <c r="J28" s="12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K28" s="12">
         <v>0</v>
@@ -16208,101 +16307,101 @@
         <v>318</v>
       </c>
       <c r="O28" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
-        <v>28</v>
-      </c>
-      <c r="B29" s="12">
+        <v>24</v>
+      </c>
+      <c r="B29" s="122">
         <v>3</v>
       </c>
-      <c r="C29" s="68">
+      <c r="C29" s="64">
+        <v>2</v>
+      </c>
+      <c r="D29" s="64">
+        <v>0</v>
+      </c>
+      <c r="E29" s="64">
+        <v>0</v>
+      </c>
+      <c r="F29" s="20">
+        <v>0</v>
+      </c>
+      <c r="G29" s="64">
+        <v>1</v>
+      </c>
+      <c r="H29" s="16">
+        <v>2</v>
+      </c>
+      <c r="I29" s="93">
+        <v>22447</v>
+      </c>
+      <c r="J29" s="12">
+        <v>2</v>
+      </c>
+      <c r="K29" s="12">
+        <v>0</v>
+      </c>
+      <c r="L29" s="12">
+        <v>0</v>
+      </c>
+      <c r="M29" s="12">
         <v>3</v>
       </c>
-      <c r="D29" s="68">
-        <v>0</v>
-      </c>
-      <c r="E29" s="68">
-        <v>0</v>
-      </c>
-      <c r="F29" s="68">
-        <v>0</v>
-      </c>
-      <c r="G29" s="68">
-        <v>0</v>
-      </c>
-      <c r="H29" s="16">
-        <v>1</v>
-      </c>
-      <c r="I29" s="93">
-        <v>433721</v>
-      </c>
-      <c r="J29" s="12">
-        <v>36</v>
-      </c>
-      <c r="K29" s="12">
-        <v>0</v>
-      </c>
-      <c r="L29" s="12">
-        <v>2</v>
-      </c>
-      <c r="M29" s="12">
-        <v>1</v>
-      </c>
       <c r="N29" s="1" t="s">
-        <v>386</v>
+        <v>318</v>
       </c>
       <c r="O29" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="12">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="B30" s="12">
+        <v>17</v>
+      </c>
+      <c r="C30" s="67">
         <v>3</v>
       </c>
-      <c r="C30" s="64">
+      <c r="D30" s="67">
+        <v>0</v>
+      </c>
+      <c r="E30" s="67">
+        <v>2</v>
+      </c>
+      <c r="F30" s="67">
+        <v>11</v>
+      </c>
+      <c r="G30" s="67">
         <v>1</v>
       </c>
-      <c r="D30" s="64">
-        <v>2</v>
-      </c>
-      <c r="E30" s="64">
-        <v>0</v>
-      </c>
-      <c r="F30" s="64">
-        <v>0</v>
-      </c>
-      <c r="G30" s="64">
-        <v>0</v>
-      </c>
       <c r="H30" s="16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I30" s="93">
-        <v>940438</v>
+        <v>2706500</v>
       </c>
       <c r="J30" s="12">
-        <v>79</v>
+        <v>229</v>
       </c>
       <c r="K30" s="12">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="L30" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M30" s="12">
         <v>0</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>386</v>
+        <v>317</v>
       </c>
       <c r="O30" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
@@ -16329,7 +16428,7 @@
   </sheetData>
   <autoFilter ref="A1:O23" xr:uid="{DE1A20C9-41D8-6D4F-99AC-E85332934F3C}">
     <sortState ref="A2:O30">
-      <sortCondition ref="A1:A30"/>
+      <sortCondition ref="N1:N30"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16340,8 +16439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19A69BF1-CCFD-6443-93E0-6139599E6807}">
   <dimension ref="A2:P40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16352,7 +16451,7 @@
     <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -16374,7 +16473,7 @@
       <c r="G3" s="78"/>
       <c r="H3" s="82"/>
       <c r="I3" s="71" t="s">
-        <v>402</v>
+        <v>452</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -16816,15 +16915,24 @@
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="114" t="s">
+      <c r="A18" s="119" t="s">
         <v>405</v>
       </c>
-      <c r="B18" s="114"/>
-      <c r="C18" s="114"/>
-      <c r="D18" s="114"/>
-      <c r="E18" s="114"/>
-      <c r="F18" s="114"/>
-      <c r="G18" s="114"/>
+      <c r="B18" s="119"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="119"/>
+      <c r="I18" s="123" t="s">
+        <v>402</v>
+      </c>
+      <c r="J18" s="123"/>
+      <c r="K18" s="123"/>
+      <c r="L18" s="123"/>
+      <c r="M18" s="123"/>
+      <c r="N18" s="123"/>
+      <c r="O18" s="123"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="90"/>
@@ -16846,6 +16954,27 @@
       <c r="G19" s="86" t="s">
         <v>309</v>
       </c>
+      <c r="I19" s="124" t="s">
+        <v>409</v>
+      </c>
+      <c r="J19" s="110" t="s">
+        <v>310</v>
+      </c>
+      <c r="K19" s="110" t="s">
+        <v>345</v>
+      </c>
+      <c r="L19" s="110" t="s">
+        <v>313</v>
+      </c>
+      <c r="M19" s="110" t="s">
+        <v>312</v>
+      </c>
+      <c r="N19" s="110" t="s">
+        <v>334</v>
+      </c>
+      <c r="O19" s="110" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="96" t="s">
@@ -16869,12 +16998,27 @@
       <c r="G20" s="82">
         <v>1</v>
       </c>
-      <c r="I20" s="71"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
+      <c r="I20" s="125" t="s">
+        <v>322</v>
+      </c>
+      <c r="J20" s="88" t="s">
+        <v>432</v>
+      </c>
+      <c r="K20" s="88" t="s">
+        <v>434</v>
+      </c>
+      <c r="L20" s="88" t="s">
+        <v>437</v>
+      </c>
+      <c r="M20" s="88" t="s">
+        <v>435</v>
+      </c>
+      <c r="N20" s="88" t="s">
+        <v>441</v>
+      </c>
+      <c r="O20" s="88" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="82" t="s">
@@ -16898,13 +17042,27 @@
       <c r="G21" s="82">
         <v>1</v>
       </c>
-      <c r="I21" s="71"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
+      <c r="I21" s="126" t="s">
+        <v>323</v>
+      </c>
+      <c r="J21" s="84" t="s">
+        <v>433</v>
+      </c>
+      <c r="K21" s="84" t="s">
+        <v>435</v>
+      </c>
+      <c r="L21" s="84" t="s">
+        <v>436</v>
+      </c>
+      <c r="M21" s="84" t="s">
+        <v>439</v>
+      </c>
+      <c r="N21" s="84" t="s">
+        <v>440</v>
+      </c>
+      <c r="O21" s="84" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="84" t="s">
@@ -16928,8 +17086,25 @@
       <c r="G22" s="84">
         <v>13</v>
       </c>
-      <c r="I22" s="71"/>
-      <c r="J22" s="7"/>
+      <c r="I22" s="127" t="s">
+        <v>421</v>
+      </c>
+      <c r="J22" s="127"/>
+      <c r="K22" s="128" t="s">
+        <v>442</v>
+      </c>
+      <c r="L22" s="128" t="s">
+        <v>444</v>
+      </c>
+      <c r="M22" s="129" t="s">
+        <v>446</v>
+      </c>
+      <c r="N22" s="129" t="s">
+        <v>448</v>
+      </c>
+      <c r="O22" s="128" t="s">
+        <v>450</v>
+      </c>
       <c r="P22" s="7"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
@@ -16957,7 +17132,25 @@
         <f>G20/15</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="I23" s="71"/>
+      <c r="I23" s="130" t="s">
+        <v>420</v>
+      </c>
+      <c r="J23" s="126"/>
+      <c r="K23" s="131" t="s">
+        <v>443</v>
+      </c>
+      <c r="L23" s="131" t="s">
+        <v>445</v>
+      </c>
+      <c r="M23" s="132" t="s">
+        <v>447</v>
+      </c>
+      <c r="N23" s="132" t="s">
+        <v>449</v>
+      </c>
+      <c r="O23" s="131" t="s">
+        <v>451</v>
+      </c>
       <c r="P23" s="7"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
@@ -17024,15 +17217,15 @@
       <c r="G26" s="8"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="115" t="s">
+      <c r="A27" s="120" t="s">
         <v>324</v>
       </c>
-      <c r="B27" s="115"/>
-      <c r="C27" s="115"/>
-      <c r="D27" s="115"/>
-      <c r="E27" s="115"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="115"/>
+      <c r="B27" s="120"/>
+      <c r="C27" s="120"/>
+      <c r="D27" s="120"/>
+      <c r="E27" s="120"/>
+      <c r="F27" s="120"/>
+      <c r="G27" s="120"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="86"/>
@@ -17302,7 +17495,7 @@
       <c r="B2" s="17" t="s">
         <v>386</v>
       </c>
-      <c r="C2" s="117" t="s">
+      <c r="C2" s="112" t="s">
         <v>428</v>
       </c>
       <c r="D2" s="17">
@@ -17340,7 +17533,7 @@
       <c r="B3" s="17" t="s">
         <v>386</v>
       </c>
-      <c r="C3" s="117" t="s">
+      <c r="C3" s="112" t="s">
         <v>428</v>
       </c>
       <c r="D3" s="17">
@@ -17378,7 +17571,7 @@
       <c r="B4" s="17" t="s">
         <v>386</v>
       </c>
-      <c r="C4" s="117" t="s">
+      <c r="C4" s="112" t="s">
         <v>428</v>
       </c>
       <c r="D4" s="17">
@@ -17416,7 +17609,7 @@
       <c r="B5" s="17" t="s">
         <v>386</v>
       </c>
-      <c r="C5" s="117" t="s">
+      <c r="C5" s="112" t="s">
         <v>428</v>
       </c>
       <c r="D5" s="17">
@@ -17454,7 +17647,7 @@
       <c r="B6" s="17" t="s">
         <v>386</v>
       </c>
-      <c r="C6" s="118" t="s">
+      <c r="C6" s="113" t="s">
         <v>429</v>
       </c>
       <c r="D6" s="17">
@@ -17492,7 +17685,7 @@
       <c r="B7" s="17" t="s">
         <v>386</v>
       </c>
-      <c r="C7" s="118" t="s">
+      <c r="C7" s="113" t="s">
         <v>430</v>
       </c>
       <c r="D7" s="17">
@@ -17530,7 +17723,7 @@
       <c r="B8" s="17" t="s">
         <v>386</v>
       </c>
-      <c r="C8" s="118" t="s">
+      <c r="C8" s="113" t="s">
         <v>430</v>
       </c>
       <c r="D8" s="17">
@@ -17568,7 +17761,7 @@
       <c r="B9" s="17" t="s">
         <v>386</v>
       </c>
-      <c r="C9" s="118" t="s">
+      <c r="C9" s="113" t="s">
         <v>430</v>
       </c>
       <c r="D9" s="17">
@@ -17606,7 +17799,7 @@
       <c r="B10" s="17" t="s">
         <v>386</v>
       </c>
-      <c r="C10" s="118" t="s">
+      <c r="C10" s="113" t="s">
         <v>430</v>
       </c>
       <c r="D10" s="17">
@@ -18366,7 +18559,7 @@
       <c r="B30" s="70" t="s">
         <v>317</v>
       </c>
-      <c r="C30" s="119" t="s">
+      <c r="C30" s="114" t="s">
         <v>429</v>
       </c>
       <c r="D30" s="70">
@@ -18381,19 +18574,19 @@
       <c r="G30" s="70">
         <v>0</v>
       </c>
-      <c r="H30" s="116">
+      <c r="H30" s="111">
         <v>3</v>
       </c>
-      <c r="I30" s="116">
-        <v>0</v>
-      </c>
-      <c r="J30" s="116">
+      <c r="I30" s="111">
+        <v>0</v>
+      </c>
+      <c r="J30" s="111">
         <v>2</v>
       </c>
-      <c r="K30" s="116">
+      <c r="K30" s="111">
         <v>11</v>
       </c>
-      <c r="L30" s="116">
+      <c r="L30" s="111">
         <v>1</v>
       </c>
     </row>

--- a/outputs/tables/Clustering.xlsx
+++ b/outputs/tables/Clustering.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Carreira Acadêmica/Doutorado/Tese - João Paulo Alencar/Analises/Elementos Bióticos/Resultados/BE_Cerrado/outputs/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82E5245-7B64-7542-AFD1-537C20BFB293}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A7ABE7-6B6F-2F4D-BBAF-8A92257C79DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="24160" windowHeight="14380" activeTab="4" xr2:uid="{8BE1F850-643F-754B-B438-8BDD7E09D5AB}"/>
+    <workbookView xWindow="5900" yWindow="-14400" windowWidth="25600" windowHeight="14360" activeTab="5" xr2:uid="{8BE1F850-643F-754B-B438-8BDD7E09D5AB}"/>
   </bookViews>
   <sheets>
     <sheet name="cdn" sheetId="2" r:id="rId1"/>
     <sheet name="combination" sheetId="12" r:id="rId2"/>
     <sheet name="units" sheetId="11" r:id="rId3"/>
     <sheet name="summary" sheetId="6" r:id="rId4"/>
-    <sheet name="tables" sheetId="10" r:id="rId5"/>
-    <sheet name="table 2" sheetId="8" r:id="rId6"/>
+    <sheet name="table 1" sheetId="8" r:id="rId5"/>
+    <sheet name="tables" sheetId="10" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">summary!$A$1:$O$23</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'table 2'!$A$1:$L$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'table 1'!$A$1:$L$30</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">units!$A$1:$D$997</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3013" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3019" uniqueCount="451">
   <si>
     <t>Cutdist</t>
   </si>
@@ -1075,30 +1075,12 @@
     <t>Anurans</t>
   </si>
   <si>
-    <t>51 (9)</t>
-  </si>
-  <si>
-    <t>8 (2)</t>
-  </si>
-  <si>
-    <t>5 (2)</t>
-  </si>
-  <si>
     <t>15 (6)</t>
   </si>
   <si>
     <t>12 (4)</t>
   </si>
   <si>
-    <t>10 (7)</t>
-  </si>
-  <si>
-    <t>2 (2)</t>
-  </si>
-  <si>
-    <t>7 (5)</t>
-  </si>
-  <si>
     <t>8 (4)</t>
   </si>
   <si>
@@ -1258,45 +1240,9 @@
     <t>Within units/Total</t>
   </si>
   <si>
-    <t>88 (9)</t>
-  </si>
-  <si>
-    <t>35 (6)</t>
-  </si>
-  <si>
     <t>N spp (N units)</t>
   </si>
   <si>
-    <t>0.864 (1)</t>
-  </si>
-  <si>
-    <t>0.135 (0.333)</t>
-  </si>
-  <si>
-    <t>0.555 (0.667)</t>
-  </si>
-  <si>
-    <t>0.444 (0.667)</t>
-  </si>
-  <si>
-    <t>0.467 (0.556)</t>
-  </si>
-  <si>
-    <t>0.533 (0.667)</t>
-  </si>
-  <si>
-    <t>0.5 (0.222)</t>
-  </si>
-  <si>
-    <t>0.5 (0.333)</t>
-  </si>
-  <si>
-    <t>0.833 (0.778)</t>
-  </si>
-  <si>
-    <t>0.167 (0.333)</t>
-  </si>
-  <si>
     <t>Relative D</t>
   </si>
   <si>
@@ -1330,9 +1276,6 @@
     <t>depression</t>
   </si>
   <si>
-    <t>TABLE 1</t>
-  </si>
-  <si>
     <t>93 (10)</t>
   </si>
   <si>
@@ -1393,7 +1336,58 @@
     <t>0.384 (0.571)</t>
   </si>
   <si>
-    <t>Elevation OLD</t>
+    <t>111 (13)</t>
+  </si>
+  <si>
+    <t>45 (12)</t>
+  </si>
+  <si>
+    <t>15 (9)</t>
+  </si>
+  <si>
+    <t>59 (12)</t>
+  </si>
+  <si>
+    <t>13 (7)</t>
+  </si>
+  <si>
+    <t>17 (7)</t>
+  </si>
+  <si>
+    <t>4 (3)</t>
+  </si>
+  <si>
+    <t>6 (4)</t>
+  </si>
+  <si>
+    <t>8 (5)</t>
+  </si>
+  <si>
+    <t>Elevation ALL</t>
+  </si>
+  <si>
+    <t>Elevation RR</t>
+  </si>
+  <si>
+    <t>19*</t>
+  </si>
+  <si>
+    <t>24*</t>
+  </si>
+  <si>
+    <t>27*</t>
+  </si>
+  <si>
+    <t>15*</t>
+  </si>
+  <si>
+    <t>TABLE 2</t>
+  </si>
+  <si>
+    <t>Support to results</t>
+  </si>
+  <si>
+    <t>TABLE 3 (choose)</t>
   </si>
 </sst>
 </file>
@@ -1747,7 +1741,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1870,12 +1864,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1923,63 +1911,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2011,6 +1961,31 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2342,7 +2317,7 @@
   <dimension ref="A2:K23"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="K23" sqref="A1:K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2381,7 +2356,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="117" t="s">
         <v>329</v>
       </c>
       <c r="B3" t="s">
@@ -2416,9 +2391,9 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="115"/>
+      <c r="A4" s="117"/>
       <c r="B4" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C4">
         <v>50</v>
@@ -2449,9 +2424,9 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="115"/>
+      <c r="A5" s="117"/>
       <c r="B5" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C5">
         <v>3.5</v>
@@ -2482,7 +2457,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="115" t="s">
+      <c r="A7" s="117" t="s">
         <v>330</v>
       </c>
       <c r="B7" t="s">
@@ -2491,7 +2466,7 @@
       <c r="C7" s="15">
         <v>233</v>
       </c>
-      <c r="D7" s="94">
+      <c r="D7" s="92">
         <v>158</v>
       </c>
       <c r="E7">
@@ -2517,14 +2492,14 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="115"/>
+      <c r="A8" s="117"/>
       <c r="B8" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C8" s="15">
         <v>21</v>
       </c>
-      <c r="D8" s="94">
+      <c r="D8" s="92">
         <v>29</v>
       </c>
       <c r="E8">
@@ -2550,14 +2525,14 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="115"/>
+      <c r="A9" s="117"/>
       <c r="B9" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C9" s="15">
         <v>11.1</v>
       </c>
-      <c r="D9" s="94">
+      <c r="D9" s="92">
         <v>5.45</v>
       </c>
       <c r="E9">
@@ -2583,7 +2558,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="115" t="s">
+      <c r="A11" s="117" t="s">
         <v>331</v>
       </c>
       <c r="B11" t="s">
@@ -2618,9 +2593,9 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="115"/>
+      <c r="A12" s="117"/>
       <c r="B12" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C12">
         <v>12</v>
@@ -2651,9 +2626,9 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="115"/>
+      <c r="A13" s="117"/>
       <c r="B13" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C13">
         <v>21.67</v>
@@ -2684,7 +2659,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="115" t="s">
+      <c r="A15" s="117" t="s">
         <v>332</v>
       </c>
       <c r="B15" t="s">
@@ -2719,9 +2694,9 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="115"/>
+      <c r="A16" s="117"/>
       <c r="B16" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -2752,9 +2727,9 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="115"/>
+      <c r="A17" s="117"/>
       <c r="B17" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C17">
         <v>40</v>
@@ -2785,7 +2760,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="116" t="s">
+      <c r="A19" s="118" t="s">
         <v>333</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -2820,9 +2795,9 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="116"/>
+      <c r="A20" s="118"/>
       <c r="B20" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -2853,9 +2828,9 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="117"/>
+      <c r="A21" s="119"/>
       <c r="B21" s="8" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C21" s="8">
         <v>58</v>
@@ -2887,7 +2862,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B23">
         <f>340/40</f>
@@ -2925,31 +2900,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="118"/>
+      <c r="B1" s="120"/>
       <c r="C1" s="25"/>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="120" t="s">
         <v>305</v>
       </c>
-      <c r="E1" s="118"/>
+      <c r="E1" s="120"/>
       <c r="G1" s="26" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G2" s="26" t="s">
         <v>304</v>
@@ -2997,14 +2972,14 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>92</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="27" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="E5" s="27" t="s">
         <v>93</v>
@@ -3044,7 +3019,7 @@
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="27" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="E7" s="27" t="s">
         <v>100</v>
@@ -3077,7 +3052,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B9" s="27" t="s">
         <v>100</v>
@@ -3411,7 +3386,7 @@
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="27" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="H25" s="7"/>
     </row>
@@ -3480,7 +3455,7 @@
         <v>112</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="27" t="s">
@@ -3520,7 +3495,7 @@
         <v>114</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="27" t="s">
@@ -3547,7 +3522,7 @@
         <v>117</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="27" t="s">
@@ -3557,7 +3532,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="27" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B33" s="27" t="s">
         <v>125</v>
@@ -3627,7 +3602,7 @@
         <v>120</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="27" t="s">
@@ -3664,7 +3639,7 @@
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="27" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="E38" s="27" t="s">
         <v>74</v>
@@ -3704,20 +3679,20 @@
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="27" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="E40" s="27" t="s">
         <v>158</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="27" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="H40" s="7"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="27" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B41" s="27" t="s">
         <v>137</v>
@@ -3740,7 +3715,7 @@
         <v>122</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="27" t="s">
@@ -3757,7 +3732,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="27" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B43" s="27" t="s">
         <v>144</v>
@@ -3767,7 +3742,7 @@
         <v>125</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="27" t="s">
@@ -3840,7 +3815,7 @@
         <v>22</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="27" t="s">
@@ -3871,7 +3846,7 @@
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="27" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="H48" s="7"/>
     </row>
@@ -3947,7 +3922,7 @@
         <v>134</v>
       </c>
       <c r="E52" s="27" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="F52" s="6"/>
       <c r="G52" s="27" t="s">
@@ -3987,7 +3962,7 @@
         <v>136</v>
       </c>
       <c r="E54" s="27" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F54" s="6"/>
       <c r="G54" s="27" t="s">
@@ -4011,7 +3986,7 @@
       </c>
       <c r="F55" s="6"/>
       <c r="G55" s="27" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="H55" s="7"/>
     </row>
@@ -4020,7 +3995,7 @@
         <v>133</v>
       </c>
       <c r="B56" s="27" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="27" t="s">
@@ -4040,7 +4015,7 @@
         <v>135</v>
       </c>
       <c r="B57" s="27" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="27" t="s">
@@ -4064,7 +4039,7 @@
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="27" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E58" s="27" t="s">
         <v>192</v>
@@ -4157,7 +4132,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="27" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B63" s="27" t="s">
         <v>172</v>
@@ -4187,7 +4162,7 @@
         <v>150</v>
       </c>
       <c r="E64" s="27" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="F64" s="6"/>
       <c r="G64" s="27" t="s">
@@ -4227,7 +4202,7 @@
         <v>151</v>
       </c>
       <c r="E66" s="27" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F66" s="6"/>
       <c r="G66" s="27" t="s">
@@ -4244,7 +4219,7 @@
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="27" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E67" s="27" t="s">
         <v>203</v>
@@ -4291,7 +4266,7 @@
       </c>
       <c r="F69" s="6"/>
       <c r="G69" s="27" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="H69" s="7"/>
     </row>
@@ -4331,7 +4306,7 @@
       </c>
       <c r="F71" s="6"/>
       <c r="G71" s="27" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="H71" s="7"/>
     </row>
@@ -4360,7 +4335,7 @@
         <v>151</v>
       </c>
       <c r="B73" s="27" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="27" t="s">
@@ -4377,7 +4352,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="27" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B74" s="27" t="s">
         <v>186</v>
@@ -4400,7 +4375,7 @@
         <v>152</v>
       </c>
       <c r="B75" s="27" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="27" t="s">
@@ -4444,7 +4419,7 @@
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="27" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="E77" s="27" t="s">
         <v>224</v>
@@ -4464,7 +4439,7 @@
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="27" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="E78" s="27" t="s">
         <v>227</v>
@@ -4551,7 +4526,7 @@
       </c>
       <c r="F82" s="6"/>
       <c r="G82" s="27" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="H82" s="7"/>
     </row>
@@ -4591,7 +4566,7 @@
       </c>
       <c r="F84" s="6"/>
       <c r="G84" s="27" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="H84" s="7"/>
     </row>
@@ -4627,7 +4602,7 @@
         <v>172</v>
       </c>
       <c r="E86" s="27" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="F86" s="6"/>
       <c r="G86" s="27" t="s">
@@ -4637,10 +4612,10 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="27" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B87" s="27" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="27" t="s">
@@ -4657,7 +4632,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="27" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B88" s="27" t="s">
         <v>199</v>
@@ -4700,7 +4675,7 @@
         <v>164</v>
       </c>
       <c r="B90" s="27" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="27" t="s">
@@ -4727,7 +4702,7 @@
         <v>177</v>
       </c>
       <c r="E91" s="27" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="F91" s="6"/>
       <c r="G91" s="27" t="s">
@@ -4747,7 +4722,7 @@
         <v>179</v>
       </c>
       <c r="E92" s="27" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F92" s="6"/>
       <c r="G92" s="27" t="s">
@@ -4787,7 +4762,7 @@
         <v>181</v>
       </c>
       <c r="E94" s="27" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="F94" s="6"/>
       <c r="G94" s="27" t="s">
@@ -4807,7 +4782,7 @@
         <v>182</v>
       </c>
       <c r="E95" s="27" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="F95" s="6"/>
       <c r="G95" s="27" t="s">
@@ -4844,7 +4819,7 @@
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="27" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="E97" s="27" t="s">
         <v>260</v>
@@ -4884,7 +4859,7 @@
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="27" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="E99" s="27" t="s">
         <v>266</v>
@@ -5007,7 +4982,7 @@
         <v>193</v>
       </c>
       <c r="E105" s="27" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="F105" s="6"/>
       <c r="G105" s="27" t="s">
@@ -5077,7 +5052,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="27" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B109" s="27" t="s">
         <v>228</v>
@@ -5117,21 +5092,21 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="27" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B111" s="27" t="s">
         <v>231</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="27" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="E111" s="27" t="s">
         <v>284</v>
       </c>
       <c r="F111" s="6"/>
       <c r="G111" s="27" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="H111" s="7"/>
     </row>
@@ -5184,14 +5159,14 @@
       </c>
       <c r="C114" s="7"/>
       <c r="D114" s="27" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="E114" s="27" t="s">
         <v>290</v>
       </c>
       <c r="F114" s="6"/>
       <c r="G114" s="27" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="H114" s="7"/>
     </row>
@@ -5265,7 +5240,7 @@
       </c>
       <c r="F118" s="6"/>
       <c r="G118" s="27" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="H118" s="7"/>
     </row>
@@ -5274,7 +5249,7 @@
         <v>195</v>
       </c>
       <c r="B119" s="27" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C119" s="7"/>
       <c r="D119" s="27" t="s">
@@ -5282,7 +5257,7 @@
       </c>
       <c r="F119" s="6"/>
       <c r="G119" s="27" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="H119" s="7"/>
     </row>
@@ -5316,7 +5291,7 @@
       </c>
       <c r="F121" s="6"/>
       <c r="G121" s="27" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="H121" s="7"/>
     </row>
@@ -5333,13 +5308,13 @@
       </c>
       <c r="F122" s="6"/>
       <c r="G122" s="27" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="H122" s="7"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="27" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B123" s="27" t="s">
         <v>247</v>
@@ -5390,7 +5365,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="27" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B126" s="27" t="s">
         <v>252</v>
@@ -5427,7 +5402,7 @@
         <v>202</v>
       </c>
       <c r="B128" s="27" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C128" s="7"/>
       <c r="D128" s="27" t="s">
@@ -5444,7 +5419,7 @@
         <v>203</v>
       </c>
       <c r="B129" s="27" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C129" s="7"/>
       <c r="D129" s="27" t="s">
@@ -5478,7 +5453,7 @@
         <v>205</v>
       </c>
       <c r="B131" s="27" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C131" s="7"/>
       <c r="D131" s="27" t="s">
@@ -5495,7 +5470,7 @@
         <v>206</v>
       </c>
       <c r="B132" s="27" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C132" s="7"/>
       <c r="D132" s="27" t="s">
@@ -5503,7 +5478,7 @@
       </c>
       <c r="F132" s="6"/>
       <c r="G132" s="27" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="H132" s="7"/>
     </row>
@@ -5748,7 +5723,7 @@
       </c>
       <c r="C147" s="7"/>
       <c r="D147" s="27" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="F147" s="6"/>
       <c r="H147" s="7"/>
@@ -5818,7 +5793,7 @@
       </c>
       <c r="C152" s="7"/>
       <c r="D152" s="27" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F152" s="6"/>
       <c r="H152" s="7"/>
@@ -5916,7 +5891,7 @@
       </c>
       <c r="C159" s="7"/>
       <c r="D159" s="27" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="F159" s="6"/>
       <c r="H159" s="7"/>
@@ -5930,7 +5905,7 @@
       </c>
       <c r="C160" s="7"/>
       <c r="D160" s="27" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F160" s="6"/>
       <c r="H160" s="7"/>
@@ -5952,7 +5927,7 @@
       </c>
       <c r="C162" s="7"/>
       <c r="D162" s="27" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="F162" s="6"/>
       <c r="H162" s="7"/>
@@ -5963,7 +5938,7 @@
       </c>
       <c r="C163" s="7"/>
       <c r="D163" s="27" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="F163" s="6"/>
       <c r="H163" s="7"/>
@@ -6014,7 +5989,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="27" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C168" s="7"/>
       <c r="D168" s="27" t="s">
@@ -6102,11 +6077,11 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="27" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C176" s="7"/>
       <c r="D176" s="27" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="F176" s="6"/>
       <c r="H176" s="7"/>
@@ -6201,7 +6176,7 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="27" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C185" s="7"/>
       <c r="D185" s="27" t="s">
@@ -6212,7 +6187,7 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="27" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C186" s="7"/>
       <c r="D186" s="27" t="s">
@@ -6234,7 +6209,7 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="27" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C188" s="7"/>
       <c r="D188" s="27" t="s">
@@ -6245,7 +6220,7 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="27" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C189" s="7"/>
       <c r="D189" s="27" t="s">
@@ -6458,7 +6433,7 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" s="27" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C213" s="7"/>
       <c r="H213" s="7"/>
@@ -6827,18 +6802,18 @@
         <v>52</v>
       </c>
       <c r="B247" s="28" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C247" s="7"/>
       <c r="D247" s="28" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E247" s="28" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="F247" s="6"/>
       <c r="G247" s="28" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H247" s="7"/>
     </row>
@@ -6964,7 +6939,7 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" s="29" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B254" s="28" t="s">
         <v>51</v>
@@ -7044,21 +7019,21 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" s="29" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B258" s="28" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C258" s="7"/>
       <c r="D258" s="28" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E258" s="28" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="F258" s="6"/>
       <c r="G258" s="28" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="H258" s="7"/>
     </row>
@@ -7124,7 +7099,7 @@
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" s="29" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B262" s="28" t="s">
         <v>28</v>
@@ -7164,7 +7139,7 @@
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" s="29" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B264" s="28" t="s">
         <v>53</v>
@@ -7187,18 +7162,18 @@
         <v>58</v>
       </c>
       <c r="B265" s="28" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C265" s="7"/>
       <c r="D265" s="28" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="E265" s="28" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="F265" s="6"/>
       <c r="G265" s="28" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="H265" s="7"/>
     </row>
@@ -7332,18 +7307,18 @@
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B273" s="28" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C273" s="7"/>
       <c r="D273" s="28" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="E273" s="28" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F273" s="6"/>
       <c r="G273" s="28" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H273" s="7"/>
     </row>
@@ -7697,11 +7672,11 @@
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B293" s="31" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C293" s="7"/>
       <c r="D293" s="31" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="E293" s="31" t="s">
         <v>68</v>
@@ -7760,11 +7735,11 @@
       <c r="C298" s="6"/>
       <c r="D298" s="4"/>
       <c r="E298" s="31" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F298" s="6"/>
       <c r="G298" s="31" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H298" s="7"/>
     </row>
@@ -8175,18 +8150,18 @@
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B322" s="36" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C322" s="7"/>
       <c r="D322" s="36" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="E322" s="36" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="F322" s="6"/>
       <c r="G322" s="36" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="H322" s="7"/>
     </row>
@@ -8647,13 +8622,13 @@
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A351" s="36" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B351" s="36" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="D351" s="36" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="E351" s="36" t="s">
         <v>20</v>
@@ -8683,11 +8658,11 @@
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E353" s="36" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="F353" s="6"/>
       <c r="G353" s="36" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.2">
@@ -8833,10 +8808,10 @@
         <v>217</v>
       </c>
       <c r="E364" s="39" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G364" s="39" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.2">
@@ -8952,7 +8927,7 @@
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A374" s="41" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B374" s="41" t="s">
         <v>45</v>
@@ -8972,33 +8947,33 @@
         <v>45</v>
       </c>
       <c r="B375" s="41" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D375" s="41" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E375" s="41" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="G375" s="41" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A376" s="42" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B376" s="41" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="D376" s="41" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="E376" s="41" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="G376" s="41" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.2">
@@ -9037,19 +9012,19 @@
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A380" s="43" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B380" s="43" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D380" s="43" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="E380" s="43" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="G380" s="43" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.2">
@@ -9063,10 +9038,10 @@
         <v>190</v>
       </c>
       <c r="E381" s="43" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="G381" s="43" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.2">
@@ -9172,7 +9147,7 @@
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A389" s="46" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B389" s="46" t="s">
         <v>246</v>
@@ -9190,10 +9165,10 @@
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B390" s="46" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D390" s="46" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E390" s="46" t="s">
         <v>246</v>
@@ -9214,11 +9189,11 @@
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E392" s="46" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="F392" s="6"/>
       <c r="G392" s="46" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.2">
@@ -9595,13 +9570,13 @@
     </row>
     <row r="427" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B427" s="47" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="E427" s="47" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="G427" s="47" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="428" spans="2:7" x14ac:dyDescent="0.2">
@@ -9757,13 +9732,13 @@
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B443" s="50" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="E443" s="50" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="G443" s="50" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.2">
@@ -9947,7 +9922,7 @@
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B467" s="45" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="E467" s="45" t="s">
         <v>229</v>
@@ -9956,7 +9931,7 @@
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E468" s="45" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="G468" s="4"/>
     </row>
@@ -10024,10 +9999,10 @@
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A477" s="56" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="B477" s="56" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="E477" s="54" t="s">
         <v>219</v>
@@ -10054,7 +10029,7 @@
         <v>146</v>
       </c>
       <c r="E480" s="55" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.2">
@@ -10189,16 +10164,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D1" s="61" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -10212,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -10226,7 +10201,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -10240,7 +10215,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -10254,7 +10229,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -10268,7 +10243,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -10282,7 +10257,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -10296,7 +10271,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -10304,13 +10279,13 @@
         <v>308</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -10324,7 +10299,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -10338,7 +10313,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -10352,7 +10327,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -10360,13 +10335,13 @@
         <v>308</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -10380,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -10394,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -10408,7 +10383,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -10422,7 +10397,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -10436,7 +10411,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -10450,7 +10425,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -10464,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -10472,13 +10447,13 @@
         <v>308</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -10492,7 +10467,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -10506,7 +10481,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -10520,7 +10495,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -10534,7 +10509,7 @@
         <v>0</v>
       </c>
       <c r="D25" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -10548,7 +10523,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -10562,7 +10537,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -10584,7 +10559,7 @@
         <v>308</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -10612,7 +10587,7 @@
         <v>308</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -10710,7 +10685,7 @@
         <v>308</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -10766,7 +10741,7 @@
         <v>308</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -10780,7 +10755,7 @@
         <v>308</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -10794,7 +10769,7 @@
         <v>308</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -10842,7 +10817,7 @@
         <v>0</v>
       </c>
       <c r="D47" s="62" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10856,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="D48" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10870,7 +10845,7 @@
         <v>0</v>
       </c>
       <c r="D49" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10884,7 +10859,7 @@
         <v>0</v>
       </c>
       <c r="D50" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10898,7 +10873,7 @@
         <v>0</v>
       </c>
       <c r="D51" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10912,7 +10887,7 @@
         <v>0</v>
       </c>
       <c r="D52" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10926,7 +10901,7 @@
         <v>0</v>
       </c>
       <c r="D53" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10940,7 +10915,7 @@
         <v>0</v>
       </c>
       <c r="D54" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10954,7 +10929,7 @@
         <v>0</v>
       </c>
       <c r="D55" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10968,7 +10943,7 @@
         <v>0</v>
       </c>
       <c r="D56" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10982,7 +10957,7 @@
         <v>0</v>
       </c>
       <c r="D57" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10996,7 +10971,7 @@
         <v>0</v>
       </c>
       <c r="D58" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -11010,7 +10985,7 @@
         <v>0</v>
       </c>
       <c r="D59" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -11024,7 +10999,7 @@
         <v>0</v>
       </c>
       <c r="D60" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -11038,7 +11013,7 @@
         <v>0</v>
       </c>
       <c r="D61" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -11080,7 +11055,7 @@
         <v>0</v>
       </c>
       <c r="D64" s="62" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -11094,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="D65" s="62" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -11108,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="D66" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -11122,7 +11097,7 @@
         <v>0</v>
       </c>
       <c r="D67" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -11136,7 +11111,7 @@
         <v>0</v>
       </c>
       <c r="D68" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -11150,7 +11125,7 @@
         <v>0</v>
       </c>
       <c r="D69" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -11164,7 +11139,7 @@
         <v>0</v>
       </c>
       <c r="D70" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -11178,7 +11153,7 @@
         <v>0</v>
       </c>
       <c r="D71" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -11192,7 +11167,7 @@
         <v>0</v>
       </c>
       <c r="D72" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -11206,7 +11181,7 @@
         <v>0</v>
       </c>
       <c r="D73" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -11220,7 +11195,7 @@
         <v>0</v>
       </c>
       <c r="D74" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -11234,7 +11209,7 @@
         <v>0</v>
       </c>
       <c r="D75" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -11248,7 +11223,7 @@
         <v>0</v>
       </c>
       <c r="D76" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -11262,7 +11237,7 @@
         <v>0</v>
       </c>
       <c r="D77" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -11276,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="D78" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -11290,7 +11265,7 @@
         <v>0</v>
       </c>
       <c r="D79" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -11304,7 +11279,7 @@
         <v>0</v>
       </c>
       <c r="D80" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -11318,7 +11293,7 @@
         <v>0</v>
       </c>
       <c r="D81" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -11332,7 +11307,7 @@
         <v>0</v>
       </c>
       <c r="D82" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -11542,7 +11517,7 @@
         <v>0</v>
       </c>
       <c r="D97" s="62" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -11556,7 +11531,7 @@
         <v>0</v>
       </c>
       <c r="D98" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -11570,7 +11545,7 @@
         <v>0</v>
       </c>
       <c r="D99" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -11584,7 +11559,7 @@
         <v>0</v>
       </c>
       <c r="D100" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -11598,7 +11573,7 @@
         <v>0</v>
       </c>
       <c r="D101" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -11612,7 +11587,7 @@
         <v>0</v>
       </c>
       <c r="D102" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -11620,13 +11595,13 @@
         <v>309</v>
       </c>
       <c r="B103" s="27" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C103">
         <v>0</v>
       </c>
       <c r="D103" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -11640,7 +11615,7 @@
         <v>0</v>
       </c>
       <c r="D104" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -11648,13 +11623,13 @@
         <v>309</v>
       </c>
       <c r="B105" s="27" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C105">
         <v>0</v>
       </c>
       <c r="D105" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -11668,7 +11643,7 @@
         <v>0</v>
       </c>
       <c r="D106" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -11682,7 +11657,7 @@
         <v>0</v>
       </c>
       <c r="D107" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -11696,7 +11671,7 @@
         <v>0</v>
       </c>
       <c r="D108" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -11710,7 +11685,7 @@
         <v>0</v>
       </c>
       <c r="D109" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -11724,7 +11699,7 @@
         <v>0</v>
       </c>
       <c r="D110" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -11738,7 +11713,7 @@
         <v>0</v>
       </c>
       <c r="D111" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -11752,7 +11727,7 @@
         <v>0</v>
       </c>
       <c r="D112" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -11766,7 +11741,7 @@
         <v>0</v>
       </c>
       <c r="D113" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -11780,7 +11755,7 @@
         <v>0</v>
       </c>
       <c r="D114" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -11794,7 +11769,7 @@
         <v>0</v>
       </c>
       <c r="D115" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -11808,7 +11783,7 @@
         <v>0</v>
       </c>
       <c r="D116" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -11816,7 +11791,7 @@
         <v>309</v>
       </c>
       <c r="B117" s="27" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -11892,7 +11867,7 @@
         <v>0</v>
       </c>
       <c r="D122" s="62" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -11906,7 +11881,7 @@
         <v>0</v>
       </c>
       <c r="D123" s="62" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -11920,7 +11895,7 @@
         <v>0</v>
       </c>
       <c r="D124" s="62" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -11934,7 +11909,7 @@
         <v>0</v>
       </c>
       <c r="D125" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -11948,7 +11923,7 @@
         <v>0</v>
       </c>
       <c r="D126" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -11962,7 +11937,7 @@
         <v>0</v>
       </c>
       <c r="D127" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -11976,7 +11951,7 @@
         <v>0</v>
       </c>
       <c r="D128" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -11990,7 +11965,7 @@
         <v>0</v>
       </c>
       <c r="D129" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -12004,7 +11979,7 @@
         <v>0</v>
       </c>
       <c r="D130" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -12012,13 +11987,13 @@
         <v>312</v>
       </c>
       <c r="B131" s="27" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C131">
         <v>0</v>
       </c>
       <c r="D131" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -12032,7 +12007,7 @@
         <v>0</v>
       </c>
       <c r="D132" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -12046,7 +12021,7 @@
         <v>0</v>
       </c>
       <c r="D133" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -12060,7 +12035,7 @@
         <v>0</v>
       </c>
       <c r="D134" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -12074,7 +12049,7 @@
         <v>0</v>
       </c>
       <c r="D135" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -12088,7 +12063,7 @@
         <v>0</v>
       </c>
       <c r="D136" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -12102,7 +12077,7 @@
         <v>0</v>
       </c>
       <c r="D137" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -12110,13 +12085,13 @@
         <v>312</v>
       </c>
       <c r="B138" s="27" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C138">
         <v>0</v>
       </c>
       <c r="D138" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -12130,7 +12105,7 @@
         <v>0</v>
       </c>
       <c r="D139" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -12144,7 +12119,7 @@
         <v>0</v>
       </c>
       <c r="D140" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -12158,7 +12133,7 @@
         <v>0</v>
       </c>
       <c r="D141" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -12172,7 +12147,7 @@
         <v>0</v>
       </c>
       <c r="D142" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -12186,7 +12161,7 @@
         <v>0</v>
       </c>
       <c r="D143" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -12200,7 +12175,7 @@
         <v>0</v>
       </c>
       <c r="D144" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -12214,7 +12189,7 @@
         <v>0</v>
       </c>
       <c r="D145" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -12228,7 +12203,7 @@
         <v>0</v>
       </c>
       <c r="D146" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -12242,7 +12217,7 @@
         <v>0</v>
       </c>
       <c r="D147" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -12292,7 +12267,7 @@
         <v>312</v>
       </c>
       <c r="B151" s="27" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -12382,7 +12357,7 @@
         <v>0</v>
       </c>
       <c r="D157" s="62" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -12396,7 +12371,7 @@
         <v>0</v>
       </c>
       <c r="D158" s="62" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -12410,7 +12385,7 @@
         <v>0</v>
       </c>
       <c r="D159" s="62" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
@@ -12558,7 +12533,7 @@
         <v>308</v>
       </c>
       <c r="B170" s="15" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C170" s="15">
         <v>1</v>
@@ -12628,7 +12603,7 @@
         <v>308</v>
       </c>
       <c r="B175" s="15" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C175" s="15">
         <v>1</v>
@@ -12718,7 +12693,7 @@
         <v>1</v>
       </c>
       <c r="D181" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -12732,7 +12707,7 @@
         <v>1</v>
       </c>
       <c r="D182" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -12768,7 +12743,7 @@
         <v>307</v>
       </c>
       <c r="B185" s="15" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C185" s="15">
         <v>1</v>
@@ -12788,7 +12763,7 @@
         <v>1</v>
       </c>
       <c r="D186" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
@@ -12908,7 +12883,7 @@
         <v>309</v>
       </c>
       <c r="B195" s="15" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C195" s="15">
         <v>1</v>
@@ -12970,7 +12945,7 @@
         <v>2</v>
       </c>
       <c r="D199" s="62" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
@@ -12984,7 +12959,7 @@
         <v>2</v>
       </c>
       <c r="D200" s="62" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
@@ -12998,7 +12973,7 @@
         <v>2</v>
       </c>
       <c r="D201" s="62" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -13012,7 +12987,7 @@
         <v>2</v>
       </c>
       <c r="D202" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -13026,7 +13001,7 @@
         <v>2</v>
       </c>
       <c r="D203" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -13034,13 +13009,13 @@
         <v>307</v>
       </c>
       <c r="B204" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C204">
         <v>2</v>
       </c>
       <c r="D204" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -13054,7 +13029,7 @@
         <v>2</v>
       </c>
       <c r="D205" s="62" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -13068,7 +13043,7 @@
         <v>2</v>
       </c>
       <c r="D206" s="62" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -13082,7 +13057,7 @@
         <v>2</v>
       </c>
       <c r="D207" s="62" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -13096,7 +13071,7 @@
         <v>2</v>
       </c>
       <c r="D208" s="62" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -13110,7 +13085,7 @@
         <v>2</v>
       </c>
       <c r="D209" s="62" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -13124,7 +13099,7 @@
         <v>2</v>
       </c>
       <c r="D210" s="62" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -13138,7 +13113,7 @@
         <v>2</v>
       </c>
       <c r="D211" s="62" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -13152,7 +13127,7 @@
         <v>2</v>
       </c>
       <c r="D212" s="62" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
@@ -13166,7 +13141,7 @@
         <v>2</v>
       </c>
       <c r="D213" s="62" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -13180,7 +13155,7 @@
         <v>2</v>
       </c>
       <c r="D214" s="62" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -13194,7 +13169,7 @@
         <v>2</v>
       </c>
       <c r="D215" s="62" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
@@ -13390,7 +13365,7 @@
         <v>4</v>
       </c>
       <c r="D229" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -13404,7 +13379,7 @@
         <v>4</v>
       </c>
       <c r="D230" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -13418,7 +13393,7 @@
         <v>4</v>
       </c>
       <c r="D231" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -13432,7 +13407,7 @@
         <v>4</v>
       </c>
       <c r="D232" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -13446,7 +13421,7 @@
         <v>4</v>
       </c>
       <c r="D233" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -13460,7 +13435,7 @@
         <v>4</v>
       </c>
       <c r="D234" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -13468,13 +13443,13 @@
         <v>312</v>
       </c>
       <c r="B235" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C235">
         <v>4</v>
       </c>
       <c r="D235" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -13488,7 +13463,7 @@
         <v>4</v>
       </c>
       <c r="D236" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -13502,7 +13477,7 @@
         <v>4</v>
       </c>
       <c r="D237" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -13516,7 +13491,7 @@
         <v>4</v>
       </c>
       <c r="D238" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
@@ -13530,7 +13505,7 @@
         <v>5</v>
       </c>
       <c r="D239" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
@@ -13706,7 +13681,7 @@
         <v>309</v>
       </c>
       <c r="B252" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C252">
         <v>6</v>
@@ -13734,7 +13709,7 @@
         <v>308</v>
       </c>
       <c r="B254" s="15" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C254" s="15">
         <v>7</v>
@@ -13818,7 +13793,7 @@
         <v>312</v>
       </c>
       <c r="B260" s="15" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C260" s="15">
         <v>7</v>
@@ -13922,7 +13897,7 @@
         <v>9</v>
       </c>
       <c r="D267" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
@@ -13936,7 +13911,7 @@
         <v>9</v>
       </c>
       <c r="D268" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
@@ -14076,7 +14051,7 @@
         <v>11</v>
       </c>
       <c r="D278" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="279" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -14112,13 +14087,13 @@
         <v>309</v>
       </c>
       <c r="B281" s="15" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C281" s="15">
         <v>11</v>
       </c>
       <c r="D281" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
@@ -14168,7 +14143,7 @@
         <v>308</v>
       </c>
       <c r="B285" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C285">
         <v>12</v>
@@ -14202,7 +14177,7 @@
         <v>13</v>
       </c>
       <c r="D287" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
@@ -14216,7 +14191,7 @@
         <v>13</v>
       </c>
       <c r="D288" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="289" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -14230,7 +14205,7 @@
         <v>13</v>
       </c>
       <c r="D289" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="290" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -14244,7 +14219,7 @@
         <v>13</v>
       </c>
       <c r="D290" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="291" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -14258,7 +14233,7 @@
         <v>14</v>
       </c>
       <c r="D291" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="292" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -14272,7 +14247,7 @@
         <v>14</v>
       </c>
       <c r="D292" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="293" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -14286,7 +14261,7 @@
         <v>14</v>
       </c>
       <c r="D293" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="294" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -14300,7 +14275,7 @@
         <v>14</v>
       </c>
       <c r="D294" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
@@ -14328,7 +14303,7 @@
         <v>15</v>
       </c>
       <c r="D296" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="297" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -14342,7 +14317,7 @@
         <v>15</v>
       </c>
       <c r="D297" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
@@ -14356,7 +14331,7 @@
         <v>15</v>
       </c>
       <c r="D298" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
@@ -14510,7 +14485,7 @@
         <v>19</v>
       </c>
       <c r="D309" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
@@ -14532,7 +14507,7 @@
         <v>309</v>
       </c>
       <c r="B311" s="15" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C311" s="15">
         <v>19</v>
@@ -14546,7 +14521,7 @@
         <v>308</v>
       </c>
       <c r="B312" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C312">
         <v>20</v>
@@ -14622,7 +14597,7 @@
         <v>21</v>
       </c>
       <c r="D317" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
@@ -14636,7 +14611,7 @@
         <v>22</v>
       </c>
       <c r="D318" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="319" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -14650,7 +14625,7 @@
         <v>22</v>
       </c>
       <c r="D319" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="320" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -14664,7 +14639,7 @@
         <v>22</v>
       </c>
       <c r="D320" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
@@ -14678,7 +14653,7 @@
         <v>23</v>
       </c>
       <c r="D321" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="322" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -14692,7 +14667,7 @@
         <v>23</v>
       </c>
       <c r="D322" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="323" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -14706,7 +14681,7 @@
         <v>23</v>
       </c>
       <c r="D323" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
@@ -14728,7 +14703,7 @@
         <v>308</v>
       </c>
       <c r="B325" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C325">
         <v>24</v>
@@ -14804,7 +14779,7 @@
         <v>26</v>
       </c>
       <c r="D330" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
@@ -14818,7 +14793,7 @@
         <v>26</v>
       </c>
       <c r="D331" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="332" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -14840,7 +14815,7 @@
         <v>313</v>
       </c>
       <c r="B333" s="15" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C333" s="15">
         <v>27</v>
@@ -14874,7 +14849,7 @@
         <v>27</v>
       </c>
       <c r="D335" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
@@ -14888,7 +14863,7 @@
         <v>28</v>
       </c>
       <c r="D336" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
@@ -14902,7 +14877,7 @@
         <v>28</v>
       </c>
       <c r="D337" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
@@ -14930,7 +14905,7 @@
         <v>29</v>
       </c>
       <c r="D339" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="340" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -14944,7 +14919,7 @@
         <v>29</v>
       </c>
       <c r="D340" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="341" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -14958,7 +14933,7 @@
         <v>29</v>
       </c>
       <c r="D341" s="62" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -14978,7 +14953,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11:F17"/>
+      <selection pane="bottomLeft" activeCell="G18" activeCellId="1" sqref="G2:G13 G18:G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14987,7 +14962,7 @@
     <col min="2" max="2" width="14" style="9" customWidth="1"/>
     <col min="3" max="7" width="10.83203125" style="9"/>
     <col min="8" max="8" width="10.83203125" style="3"/>
-    <col min="9" max="9" width="12.1640625" style="93" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" style="91" customWidth="1"/>
     <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
     <col min="11" max="12" width="10.83203125" style="12"/>
     <col min="15" max="15" width="11.33203125" customWidth="1"/>
@@ -15028,13 +15003,13 @@
         <v>317</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="M1" s="11" t="s">
         <v>318</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="O1" s="11" t="s">
         <v>319</v>
@@ -15042,128 +15017,128 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
-        <v>15</v>
-      </c>
-      <c r="B2" s="12">
+        <v>6</v>
+      </c>
+      <c r="B2" s="103">
+        <v>7</v>
+      </c>
+      <c r="C2" s="67">
+        <v>3</v>
+      </c>
+      <c r="D2" s="67">
+        <v>2</v>
+      </c>
+      <c r="E2" s="67">
+        <v>1</v>
+      </c>
+      <c r="F2" s="67">
+        <v>0</v>
+      </c>
+      <c r="G2" s="67">
+        <v>1</v>
+      </c>
+      <c r="H2" s="16">
         <v>4</v>
       </c>
-      <c r="C2" s="21">
-        <v>1</v>
-      </c>
-      <c r="D2" s="21">
-        <v>0</v>
-      </c>
-      <c r="E2" s="21">
-        <v>0</v>
-      </c>
-      <c r="F2" s="21">
-        <v>2</v>
-      </c>
-      <c r="G2" s="21">
-        <v>1</v>
-      </c>
-      <c r="H2" s="16">
+      <c r="I2" s="91">
+        <v>35692</v>
+      </c>
+      <c r="J2" s="12">
         <v>3</v>
       </c>
-      <c r="I2" s="93">
-        <v>216523</v>
-      </c>
-      <c r="J2" s="12">
-        <v>18</v>
-      </c>
       <c r="K2" s="12">
         <v>0</v>
       </c>
       <c r="L2" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M2" s="12">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>386</v>
+        <v>318</v>
       </c>
       <c r="O2" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
-        <v>23</v>
-      </c>
-      <c r="B3" s="12">
+        <v>10</v>
+      </c>
+      <c r="B3" s="103">
+        <v>5</v>
+      </c>
+      <c r="C3" s="21">
+        <v>1</v>
+      </c>
+      <c r="D3" s="21">
+        <v>1</v>
+      </c>
+      <c r="E3" s="21">
         <v>3</v>
       </c>
-      <c r="C3" s="64">
-        <v>1</v>
-      </c>
-      <c r="D3" s="64">
-        <v>0</v>
-      </c>
-      <c r="E3" s="64">
-        <v>2</v>
-      </c>
-      <c r="F3" s="20">
-        <v>0</v>
-      </c>
-      <c r="G3" s="64">
+      <c r="F3" s="21">
+        <v>0</v>
+      </c>
+      <c r="G3" s="21">
         <v>0</v>
       </c>
       <c r="H3" s="16">
-        <v>2</v>
-      </c>
-      <c r="I3" s="93">
-        <v>244318</v>
+        <v>3</v>
+      </c>
+      <c r="I3" s="91">
+        <v>59325</v>
       </c>
       <c r="J3" s="12">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="K3" s="12">
         <v>0</v>
       </c>
       <c r="L3" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M3" s="12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>386</v>
+        <v>318</v>
       </c>
       <c r="O3" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
-        <v>26</v>
-      </c>
-      <c r="B4" s="12">
+        <v>11</v>
+      </c>
+      <c r="B4" s="103">
+        <v>5</v>
+      </c>
+      <c r="C4" s="21">
+        <v>0</v>
+      </c>
+      <c r="D4" s="21">
+        <v>2</v>
+      </c>
+      <c r="E4" s="21">
+        <v>0</v>
+      </c>
+      <c r="F4" s="21">
+        <v>1</v>
+      </c>
+      <c r="G4" s="21">
+        <v>2</v>
+      </c>
+      <c r="H4" s="16">
         <v>3</v>
       </c>
-      <c r="C4" s="64">
-        <v>2</v>
-      </c>
-      <c r="D4" s="64">
-        <v>0</v>
-      </c>
-      <c r="E4" s="64">
-        <v>0</v>
-      </c>
-      <c r="F4" s="64">
-        <v>1</v>
-      </c>
-      <c r="G4" s="64">
-        <v>0</v>
-      </c>
-      <c r="H4" s="16">
-        <v>2</v>
-      </c>
-      <c r="I4" s="93">
-        <v>589620</v>
+      <c r="I4" s="91">
+        <v>47647</v>
       </c>
       <c r="J4" s="12">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="K4" s="12">
         <v>0</v>
@@ -15172,585 +15147,585 @@
         <v>2</v>
       </c>
       <c r="M4" s="12">
+        <v>3</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="O4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="B5" s="103">
+        <v>4</v>
+      </c>
+      <c r="C5" s="21">
         <v>1</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="O4" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="12">
-        <v>28</v>
-      </c>
-      <c r="B5" s="12">
+      <c r="D5" s="21">
+        <v>0</v>
+      </c>
+      <c r="E5" s="21">
+        <v>0</v>
+      </c>
+      <c r="F5" s="21">
+        <v>2</v>
+      </c>
+      <c r="G5" s="21">
+        <v>1</v>
+      </c>
+      <c r="H5" s="16">
         <v>3</v>
       </c>
-      <c r="C5" s="68">
+      <c r="I5" s="91">
+        <v>216523</v>
+      </c>
+      <c r="J5" s="12">
+        <v>18</v>
+      </c>
+      <c r="K5" s="12">
+        <v>0</v>
+      </c>
+      <c r="L5" s="12">
         <v>3</v>
-      </c>
-      <c r="D5" s="68">
-        <v>0</v>
-      </c>
-      <c r="E5" s="68">
-        <v>0</v>
-      </c>
-      <c r="F5" s="68">
-        <v>0</v>
-      </c>
-      <c r="G5" s="68">
-        <v>0</v>
-      </c>
-      <c r="H5" s="16">
-        <v>1</v>
-      </c>
-      <c r="I5" s="93">
-        <v>433721</v>
-      </c>
-      <c r="J5" s="12">
-        <v>36</v>
-      </c>
-      <c r="K5" s="12">
-        <v>0</v>
-      </c>
-      <c r="L5" s="12">
-        <v>2</v>
       </c>
       <c r="M5" s="12">
         <v>1</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="O5" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
-        <v>29</v>
-      </c>
-      <c r="B6" s="12">
+        <v>17</v>
+      </c>
+      <c r="B6" s="103">
         <v>3</v>
       </c>
-      <c r="C6" s="64">
+      <c r="C6" s="19">
+        <v>0</v>
+      </c>
+      <c r="D6" s="19">
+        <v>3</v>
+      </c>
+      <c r="E6" s="19">
+        <v>0</v>
+      </c>
+      <c r="F6" s="19">
+        <v>0</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0</v>
+      </c>
+      <c r="H6" s="16">
         <v>1</v>
       </c>
-      <c r="D6" s="64">
+      <c r="I6" s="91">
+        <v>36374</v>
+      </c>
+      <c r="J6" s="12">
+        <v>3</v>
+      </c>
+      <c r="K6" s="12">
+        <v>0</v>
+      </c>
+      <c r="L6" s="12">
+        <v>0</v>
+      </c>
+      <c r="M6" s="12">
+        <v>3</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="O6" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="B7" s="103">
+        <v>3</v>
+      </c>
+      <c r="C7" s="20">
         <v>2</v>
       </c>
-      <c r="E6" s="64">
-        <v>0</v>
-      </c>
-      <c r="F6" s="64">
-        <v>0</v>
-      </c>
-      <c r="G6" s="64">
-        <v>0</v>
-      </c>
-      <c r="H6" s="16">
-        <v>2</v>
-      </c>
-      <c r="I6" s="93">
-        <v>940438</v>
-      </c>
-      <c r="J6" s="12">
-        <v>79</v>
-      </c>
-      <c r="K6" s="12">
+      <c r="D7" s="20">
+        <v>0</v>
+      </c>
+      <c r="E7" s="20">
+        <v>0</v>
+      </c>
+      <c r="F7" s="20">
+        <v>0</v>
+      </c>
+      <c r="G7" s="20">
         <v>1</v>
-      </c>
-      <c r="L6" s="12">
-        <v>2</v>
-      </c>
-      <c r="M6" s="12">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="O6" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="12">
-        <v>22</v>
-      </c>
-      <c r="B7" s="12">
-        <v>3</v>
-      </c>
-      <c r="C7" s="20">
-        <v>1</v>
-      </c>
-      <c r="D7" s="20">
-        <v>0</v>
-      </c>
-      <c r="E7" s="20">
-        <v>2</v>
-      </c>
-      <c r="F7" s="20">
-        <v>0</v>
-      </c>
-      <c r="G7" s="20">
-        <v>0</v>
       </c>
       <c r="H7" s="16">
         <v>2</v>
       </c>
-      <c r="I7" s="93">
-        <v>535739</v>
+      <c r="I7" s="91">
+        <v>114447</v>
       </c>
       <c r="J7" s="12">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="K7" s="12">
         <v>0</v>
       </c>
       <c r="L7" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M7" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>386</v>
+        <v>318</v>
       </c>
       <c r="O7" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="Q7" s="9"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
-        <v>4</v>
-      </c>
-      <c r="B8" s="12">
-        <v>10</v>
-      </c>
-      <c r="C8" s="67">
+        <v>20</v>
+      </c>
+      <c r="B8" s="103">
+        <v>3</v>
+      </c>
+      <c r="C8" s="21">
         <v>1</v>
       </c>
-      <c r="D8" s="67">
+      <c r="D8" s="21">
         <v>1</v>
       </c>
-      <c r="E8" s="67">
-        <v>4</v>
-      </c>
-      <c r="F8" s="67">
-        <v>4</v>
-      </c>
-      <c r="G8" s="67">
+      <c r="E8" s="21">
+        <v>1</v>
+      </c>
+      <c r="F8" s="21">
+        <v>0</v>
+      </c>
+      <c r="G8" s="21">
         <v>0</v>
       </c>
       <c r="H8" s="16">
-        <v>4</v>
-      </c>
-      <c r="I8" s="93">
-        <v>1492437</v>
+        <v>3</v>
+      </c>
+      <c r="I8" s="91">
+        <v>73125</v>
       </c>
       <c r="J8" s="12">
-        <v>128</v>
+        <v>6</v>
       </c>
       <c r="K8" s="12">
         <v>0</v>
       </c>
       <c r="L8" s="12">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M8" s="12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>386</v>
+        <v>318</v>
       </c>
       <c r="O8" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
-        <v>13</v>
-      </c>
-      <c r="B9" s="12">
-        <v>4</v>
-      </c>
-      <c r="C9" s="20">
+        <v>23</v>
+      </c>
+      <c r="B9" s="103">
+        <v>3</v>
+      </c>
+      <c r="C9" s="64">
+        <v>1</v>
+      </c>
+      <c r="D9" s="64">
+        <v>0</v>
+      </c>
+      <c r="E9" s="64">
         <v>2</v>
       </c>
-      <c r="D9" s="20">
-        <v>0</v>
-      </c>
-      <c r="E9" s="20">
-        <v>0</v>
-      </c>
       <c r="F9" s="20">
-        <v>2</v>
-      </c>
-      <c r="G9" s="20">
+        <v>0</v>
+      </c>
+      <c r="G9" s="64">
         <v>0</v>
       </c>
       <c r="H9" s="16">
         <v>2</v>
       </c>
-      <c r="I9" s="93">
-        <v>829390</v>
+      <c r="I9" s="91">
+        <v>244318</v>
       </c>
       <c r="J9" s="12">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="K9" s="12">
         <v>0</v>
       </c>
       <c r="L9" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M9" s="12">
         <v>0</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="O9" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
-        <v>14</v>
-      </c>
-      <c r="B10" s="12">
-        <v>4</v>
-      </c>
-      <c r="C10" s="19">
-        <v>0</v>
-      </c>
-      <c r="D10" s="19">
-        <v>0</v>
-      </c>
-      <c r="E10" s="19">
-        <v>4</v>
-      </c>
-      <c r="F10" s="19">
-        <v>0</v>
-      </c>
-      <c r="G10" s="19">
+        <v>26</v>
+      </c>
+      <c r="B10" s="103">
+        <v>3</v>
+      </c>
+      <c r="C10" s="64">
+        <v>2</v>
+      </c>
+      <c r="D10" s="64">
+        <v>0</v>
+      </c>
+      <c r="E10" s="64">
+        <v>0</v>
+      </c>
+      <c r="F10" s="64">
+        <v>1</v>
+      </c>
+      <c r="G10" s="64">
         <v>0</v>
       </c>
       <c r="H10" s="16">
+        <v>2</v>
+      </c>
+      <c r="I10" s="91">
+        <v>589620</v>
+      </c>
+      <c r="J10" s="12">
+        <v>49</v>
+      </c>
+      <c r="K10" s="12">
+        <v>0</v>
+      </c>
+      <c r="L10" s="12">
+        <v>2</v>
+      </c>
+      <c r="M10" s="12">
         <v>1</v>
       </c>
-      <c r="I10" s="93">
-        <v>518105</v>
-      </c>
-      <c r="J10" s="12">
-        <v>45</v>
-      </c>
-      <c r="K10" s="12">
-        <v>0</v>
-      </c>
-      <c r="L10" s="12">
-        <v>4</v>
-      </c>
-      <c r="M10" s="12">
-        <v>0</v>
-      </c>
       <c r="N10" s="1" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="O10" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="12">
-        <v>6</v>
-      </c>
-      <c r="B11" s="121">
-        <v>7</v>
-      </c>
-      <c r="C11" s="67">
+      <c r="A11" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="B11" s="103">
         <v>3</v>
       </c>
-      <c r="D11" s="67">
+      <c r="C11" s="64">
+        <v>0</v>
+      </c>
+      <c r="D11" s="64">
         <v>2</v>
       </c>
-      <c r="E11" s="67">
+      <c r="E11" s="64">
+        <v>0</v>
+      </c>
+      <c r="F11" s="64">
+        <v>0</v>
+      </c>
+      <c r="G11" s="64">
         <v>1</v>
       </c>
-      <c r="F11" s="67">
-        <v>0</v>
-      </c>
-      <c r="G11" s="67">
+      <c r="H11" s="16">
+        <v>2</v>
+      </c>
+      <c r="I11" s="91">
+        <v>119501</v>
+      </c>
+      <c r="J11" s="12">
+        <v>10</v>
+      </c>
+      <c r="K11" s="12">
+        <v>0</v>
+      </c>
+      <c r="L11" s="12">
         <v>1</v>
       </c>
-      <c r="H11" s="16">
-        <v>4</v>
-      </c>
-      <c r="I11" s="93">
-        <v>35692</v>
-      </c>
-      <c r="J11" s="12">
-        <v>3</v>
-      </c>
-      <c r="K11" s="12">
-        <v>0</v>
-      </c>
-      <c r="L11" s="12">
-        <v>0</v>
-      </c>
       <c r="M11" s="12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O11" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
-        <v>10</v>
-      </c>
-      <c r="B12" s="121">
-        <v>5</v>
-      </c>
-      <c r="C12" s="21">
+        <v>28</v>
+      </c>
+      <c r="B12" s="103">
+        <v>3</v>
+      </c>
+      <c r="C12" s="68">
+        <v>3</v>
+      </c>
+      <c r="D12" s="68">
+        <v>0</v>
+      </c>
+      <c r="E12" s="68">
+        <v>0</v>
+      </c>
+      <c r="F12" s="68">
+        <v>0</v>
+      </c>
+      <c r="G12" s="68">
+        <v>0</v>
+      </c>
+      <c r="H12" s="16">
         <v>1</v>
       </c>
-      <c r="D12" s="21">
+      <c r="I12" s="91">
+        <v>433721</v>
+      </c>
+      <c r="J12" s="12">
+        <v>36</v>
+      </c>
+      <c r="K12" s="12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="12">
+        <v>2</v>
+      </c>
+      <c r="M12" s="12">
         <v>1</v>
       </c>
-      <c r="E12" s="21">
-        <v>3</v>
-      </c>
-      <c r="F12" s="21">
-        <v>0</v>
-      </c>
-      <c r="G12" s="21">
-        <v>0</v>
-      </c>
-      <c r="H12" s="16">
-        <v>3</v>
-      </c>
-      <c r="I12" s="93">
-        <v>59325</v>
-      </c>
-      <c r="J12" s="12">
-        <v>5</v>
-      </c>
-      <c r="K12" s="12">
-        <v>0</v>
-      </c>
-      <c r="L12" s="12">
-        <v>0</v>
-      </c>
-      <c r="M12" s="12">
-        <v>5</v>
-      </c>
       <c r="N12" s="1" t="s">
-        <v>318</v>
+        <v>380</v>
       </c>
       <c r="O12" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
-        <v>11</v>
-      </c>
-      <c r="B13" s="121">
-        <v>5</v>
-      </c>
-      <c r="C13" s="21">
-        <v>0</v>
-      </c>
-      <c r="D13" s="21">
+        <v>29</v>
+      </c>
+      <c r="B13" s="103">
+        <v>3</v>
+      </c>
+      <c r="C13" s="64">
+        <v>1</v>
+      </c>
+      <c r="D13" s="64">
         <v>2</v>
       </c>
-      <c r="E13" s="21">
-        <v>0</v>
-      </c>
-      <c r="F13" s="21">
+      <c r="E13" s="64">
+        <v>0</v>
+      </c>
+      <c r="F13" s="64">
+        <v>0</v>
+      </c>
+      <c r="G13" s="64">
+        <v>0</v>
+      </c>
+      <c r="H13" s="16">
+        <v>2</v>
+      </c>
+      <c r="I13" s="91">
+        <v>940438</v>
+      </c>
+      <c r="J13" s="12">
+        <v>79</v>
+      </c>
+      <c r="K13" s="12">
         <v>1</v>
-      </c>
-      <c r="G13" s="21">
-        <v>2</v>
-      </c>
-      <c r="H13" s="16">
-        <v>3</v>
-      </c>
-      <c r="I13" s="93">
-        <v>47647</v>
-      </c>
-      <c r="J13" s="12">
-        <v>4</v>
-      </c>
-      <c r="K13" s="12">
-        <v>0</v>
       </c>
       <c r="L13" s="12">
         <v>2</v>
       </c>
       <c r="M13" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>318</v>
+        <v>380</v>
       </c>
       <c r="O13" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
+        <v>2</v>
+      </c>
+      <c r="B14" s="12">
         <v>17</v>
       </c>
-      <c r="B14" s="121">
+      <c r="C14" s="67">
         <v>3</v>
       </c>
-      <c r="C14" s="19">
-        <v>0</v>
-      </c>
-      <c r="D14" s="19">
+      <c r="D14" s="67">
+        <v>0</v>
+      </c>
+      <c r="E14" s="67">
+        <v>2</v>
+      </c>
+      <c r="F14" s="67">
+        <v>11</v>
+      </c>
+      <c r="G14" s="67">
+        <v>1</v>
+      </c>
+      <c r="H14" s="16">
+        <v>4</v>
+      </c>
+      <c r="I14" s="91">
+        <v>2706500</v>
+      </c>
+      <c r="J14" s="12">
+        <v>229</v>
+      </c>
+      <c r="K14" s="12">
+        <v>14</v>
+      </c>
+      <c r="L14" s="12">
         <v>3</v>
       </c>
-      <c r="E14" s="19">
-        <v>0</v>
-      </c>
-      <c r="F14" s="19">
-        <v>0</v>
-      </c>
-      <c r="G14" s="19">
-        <v>0</v>
-      </c>
-      <c r="H14" s="16">
-        <v>1</v>
-      </c>
-      <c r="I14" s="93">
-        <v>36374</v>
-      </c>
-      <c r="J14" s="12">
-        <v>3</v>
-      </c>
-      <c r="K14" s="12">
-        <v>0</v>
-      </c>
-      <c r="L14" s="12">
-        <v>0</v>
-      </c>
       <c r="M14" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O14" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
-        <v>19</v>
-      </c>
-      <c r="B15" s="121">
+        <v>18</v>
+      </c>
+      <c r="B15" s="12">
         <v>3</v>
       </c>
       <c r="C15" s="20">
+        <v>0</v>
+      </c>
+      <c r="D15" s="20">
         <v>2</v>
       </c>
-      <c r="D15" s="20">
-        <v>0</v>
-      </c>
       <c r="E15" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="20">
         <v>0</v>
       </c>
       <c r="G15" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="16">
         <v>2</v>
       </c>
-      <c r="I15" s="93">
-        <v>114447</v>
+      <c r="I15" s="91">
+        <v>24175</v>
       </c>
       <c r="J15" s="12">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K15" s="12">
         <v>0</v>
       </c>
       <c r="L15" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O15" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
-        <v>20</v>
-      </c>
-      <c r="B16" s="121">
+        <v>22</v>
+      </c>
+      <c r="B16" s="12">
         <v>3</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="20">
         <v>1</v>
       </c>
-      <c r="D16" s="21">
-        <v>1</v>
-      </c>
-      <c r="E16" s="21">
-        <v>1</v>
-      </c>
-      <c r="F16" s="21">
-        <v>0</v>
-      </c>
-      <c r="G16" s="21">
+      <c r="D16" s="20">
+        <v>0</v>
+      </c>
+      <c r="E16" s="20">
+        <v>2</v>
+      </c>
+      <c r="F16" s="20">
+        <v>0</v>
+      </c>
+      <c r="G16" s="20">
         <v>0</v>
       </c>
       <c r="H16" s="16">
+        <v>2</v>
+      </c>
+      <c r="I16" s="91">
+        <v>535739</v>
+      </c>
+      <c r="J16" s="12">
+        <v>45</v>
+      </c>
+      <c r="K16" s="12">
+        <v>0</v>
+      </c>
+      <c r="L16" s="12">
         <v>3</v>
       </c>
-      <c r="I16" s="93">
-        <v>73125</v>
-      </c>
-      <c r="J16" s="12">
-        <v>6</v>
-      </c>
-      <c r="K16" s="12">
-        <v>0</v>
-      </c>
-      <c r="L16" s="12">
-        <v>0</v>
-      </c>
       <c r="M16" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>318</v>
+        <v>380</v>
       </c>
       <c r="O16" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
-        <v>27</v>
-      </c>
-      <c r="B17" s="121">
+        <v>25</v>
+      </c>
+      <c r="B17" s="12">
         <v>3</v>
       </c>
       <c r="C17" s="64">
@@ -15760,116 +15735,116 @@
         <v>2</v>
       </c>
       <c r="E17" s="64">
-        <v>0</v>
-      </c>
-      <c r="F17" s="64">
+        <v>1</v>
+      </c>
+      <c r="F17" s="20">
         <v>0</v>
       </c>
       <c r="G17" s="64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" s="16">
         <v>2</v>
       </c>
-      <c r="I17" s="93">
-        <v>119501</v>
+      <c r="I17" s="91">
+        <v>35952</v>
       </c>
       <c r="J17" s="12">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K17" s="12">
         <v>0</v>
       </c>
       <c r="L17" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O17" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
-        <v>18</v>
-      </c>
-      <c r="B18" s="12">
+        <v>1</v>
+      </c>
+      <c r="B18" s="104">
+        <v>39</v>
+      </c>
+      <c r="C18" s="18">
+        <v>21</v>
+      </c>
+      <c r="D18" s="18">
+        <v>6</v>
+      </c>
+      <c r="E18" s="18">
         <v>3</v>
       </c>
-      <c r="C18" s="20">
-        <v>0</v>
-      </c>
-      <c r="D18" s="20">
-        <v>2</v>
-      </c>
-      <c r="E18" s="20">
-        <v>1</v>
-      </c>
-      <c r="F18" s="20">
-        <v>0</v>
-      </c>
-      <c r="G18" s="20">
-        <v>0</v>
+      <c r="F18" s="18">
+        <v>5</v>
+      </c>
+      <c r="G18" s="18">
+        <v>4</v>
       </c>
       <c r="H18" s="16">
-        <v>2</v>
-      </c>
-      <c r="I18" s="93">
-        <v>24175</v>
+        <v>5</v>
+      </c>
+      <c r="I18" s="91">
+        <v>280627</v>
       </c>
       <c r="J18" s="12">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="K18" s="12">
         <v>0</v>
       </c>
       <c r="L18" s="12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M18" s="12">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O18" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
     </row>
     <row r="19" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
-        <v>25</v>
-      </c>
-      <c r="B19" s="12">
         <v>3</v>
       </c>
-      <c r="C19" s="64">
-        <v>0</v>
-      </c>
-      <c r="D19" s="64">
+      <c r="B19" s="104">
+        <v>13</v>
+      </c>
+      <c r="C19" s="21">
+        <v>10</v>
+      </c>
+      <c r="D19" s="21">
+        <v>1</v>
+      </c>
+      <c r="E19" s="21">
+        <v>0</v>
+      </c>
+      <c r="F19" s="21">
+        <v>0</v>
+      </c>
+      <c r="G19" s="21">
         <v>2</v>
       </c>
-      <c r="E19" s="64">
-        <v>1</v>
-      </c>
-      <c r="F19" s="20">
-        <v>0</v>
-      </c>
-      <c r="G19" s="64">
-        <v>0</v>
-      </c>
       <c r="H19" s="16">
-        <v>2</v>
-      </c>
-      <c r="I19" s="93">
-        <v>35952</v>
+        <v>3</v>
+      </c>
+      <c r="I19" s="91">
+        <v>165633</v>
       </c>
       <c r="J19" s="12">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="K19" s="12">
         <v>0</v>
@@ -15878,145 +15853,145 @@
         <v>0</v>
       </c>
       <c r="M19" s="12">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O19" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
+        <v>4</v>
+      </c>
+      <c r="B20" s="104">
+        <v>10</v>
+      </c>
+      <c r="C20" s="67">
         <v>1</v>
       </c>
-      <c r="B20" s="122">
-        <v>39</v>
-      </c>
-      <c r="C20" s="18">
-        <v>21</v>
-      </c>
-      <c r="D20" s="18">
-        <v>6</v>
-      </c>
-      <c r="E20" s="18">
-        <v>3</v>
-      </c>
-      <c r="F20" s="18">
-        <v>5</v>
-      </c>
-      <c r="G20" s="18">
+      <c r="D20" s="67">
+        <v>1</v>
+      </c>
+      <c r="E20" s="67">
         <v>4</v>
       </c>
+      <c r="F20" s="67">
+        <v>4</v>
+      </c>
+      <c r="G20" s="67">
+        <v>0</v>
+      </c>
       <c r="H20" s="16">
-        <v>5</v>
-      </c>
-      <c r="I20" s="93">
-        <v>280627</v>
+        <v>4</v>
+      </c>
+      <c r="I20" s="91">
+        <v>1492437</v>
       </c>
       <c r="J20" s="12">
-        <v>24</v>
+        <v>128</v>
       </c>
       <c r="K20" s="12">
         <v>0</v>
       </c>
       <c r="L20" s="12">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M20" s="12">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>318</v>
+        <v>380</v>
       </c>
       <c r="O20" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
-        <v>3</v>
-      </c>
-      <c r="B21" s="122">
-        <v>13</v>
-      </c>
-      <c r="C21" s="21">
-        <v>10</v>
-      </c>
-      <c r="D21" s="21">
+        <v>5</v>
+      </c>
+      <c r="B21" s="104">
+        <v>8</v>
+      </c>
+      <c r="C21" s="20">
+        <v>6</v>
+      </c>
+      <c r="D21" s="20">
+        <v>0</v>
+      </c>
+      <c r="E21" s="20">
+        <v>2</v>
+      </c>
+      <c r="F21" s="20">
+        <v>0</v>
+      </c>
+      <c r="G21" s="20">
+        <v>0</v>
+      </c>
+      <c r="H21" s="16">
+        <v>2</v>
+      </c>
+      <c r="I21" s="91">
+        <v>59753</v>
+      </c>
+      <c r="J21" s="12">
+        <v>5</v>
+      </c>
+      <c r="K21" s="12">
+        <v>0</v>
+      </c>
+      <c r="L21" s="12">
         <v>1</v>
       </c>
-      <c r="E21" s="21">
-        <v>0</v>
-      </c>
-      <c r="F21" s="21">
-        <v>0</v>
-      </c>
-      <c r="G21" s="21">
-        <v>2</v>
-      </c>
-      <c r="H21" s="16">
-        <v>3</v>
-      </c>
-      <c r="I21" s="93">
-        <v>165633</v>
-      </c>
-      <c r="J21" s="12">
-        <v>14</v>
-      </c>
-      <c r="K21" s="12">
-        <v>0</v>
-      </c>
-      <c r="L21" s="12">
-        <v>0</v>
-      </c>
       <c r="M21" s="12">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O21" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
-        <v>5</v>
-      </c>
-      <c r="B22" s="122">
-        <v>8</v>
-      </c>
-      <c r="C22" s="20">
-        <v>6</v>
-      </c>
-      <c r="D22" s="20">
-        <v>0</v>
-      </c>
-      <c r="E22" s="20">
+        <v>7</v>
+      </c>
+      <c r="B22" s="104">
+        <v>7</v>
+      </c>
+      <c r="C22" s="21">
         <v>2</v>
       </c>
-      <c r="F22" s="20">
-        <v>0</v>
-      </c>
-      <c r="G22" s="20">
+      <c r="D22" s="21">
+        <v>4</v>
+      </c>
+      <c r="E22" s="21">
+        <v>1</v>
+      </c>
+      <c r="F22" s="21">
+        <v>0</v>
+      </c>
+      <c r="G22" s="21">
         <v>0</v>
       </c>
       <c r="H22" s="16">
-        <v>2</v>
-      </c>
-      <c r="I22" s="93">
-        <v>59753</v>
+        <v>3</v>
+      </c>
+      <c r="I22" s="91">
+        <v>35850</v>
       </c>
       <c r="J22" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K22" s="12">
         <v>0</v>
       </c>
       <c r="L22" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" s="12">
         <v>7</v>
@@ -16025,39 +16000,39 @@
         <v>318</v>
       </c>
       <c r="O22" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
-        <v>7</v>
-      </c>
-      <c r="B23" s="122">
-        <v>7</v>
-      </c>
-      <c r="C23" s="21">
+        <v>8</v>
+      </c>
+      <c r="B23" s="104">
+        <v>6</v>
+      </c>
+      <c r="C23" s="20">
+        <v>5</v>
+      </c>
+      <c r="D23" s="20">
+        <v>1</v>
+      </c>
+      <c r="E23" s="20">
+        <v>0</v>
+      </c>
+      <c r="F23" s="20">
+        <v>0</v>
+      </c>
+      <c r="G23" s="20">
+        <v>0</v>
+      </c>
+      <c r="H23" s="16">
         <v>2</v>
       </c>
-      <c r="D23" s="21">
-        <v>4</v>
-      </c>
-      <c r="E23" s="21">
-        <v>1</v>
-      </c>
-      <c r="F23" s="21">
-        <v>0</v>
-      </c>
-      <c r="G23" s="21">
-        <v>0</v>
-      </c>
-      <c r="H23" s="16">
-        <v>3</v>
-      </c>
-      <c r="I23" s="93">
-        <v>35850</v>
+      <c r="I23" s="91">
+        <v>69341</v>
       </c>
       <c r="J23" s="12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K23" s="12">
         <v>0</v>
@@ -16066,98 +16041,98 @@
         <v>0</v>
       </c>
       <c r="M23" s="12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O23" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
-        <v>8</v>
-      </c>
-      <c r="B24" s="122">
+        <v>9</v>
+      </c>
+      <c r="B24" s="104">
         <v>6</v>
       </c>
-      <c r="C24" s="20">
-        <v>5</v>
-      </c>
-      <c r="D24" s="20">
+      <c r="C24" s="21">
+        <v>4</v>
+      </c>
+      <c r="D24" s="21">
+        <v>0</v>
+      </c>
+      <c r="E24" s="21">
         <v>1</v>
       </c>
-      <c r="E24" s="20">
-        <v>0</v>
-      </c>
-      <c r="F24" s="20">
-        <v>0</v>
-      </c>
-      <c r="G24" s="20">
-        <v>0</v>
+      <c r="F24" s="21">
+        <v>0</v>
+      </c>
+      <c r="G24" s="21">
+        <v>1</v>
       </c>
       <c r="H24" s="16">
+        <v>3</v>
+      </c>
+      <c r="I24" s="91">
+        <v>201503</v>
+      </c>
+      <c r="J24" s="12">
+        <v>17</v>
+      </c>
+      <c r="K24" s="12">
+        <v>0</v>
+      </c>
+      <c r="L24" s="12">
         <v>2</v>
       </c>
-      <c r="I24" s="93">
-        <v>69341</v>
-      </c>
-      <c r="J24" s="12">
-        <v>6</v>
-      </c>
-      <c r="K24" s="12">
-        <v>0</v>
-      </c>
-      <c r="L24" s="12">
-        <v>0</v>
-      </c>
       <c r="M24" s="12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O24" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
-        <v>9</v>
-      </c>
-      <c r="B25" s="122">
+        <v>12</v>
+      </c>
+      <c r="B25" s="104">
+        <v>4</v>
+      </c>
+      <c r="C25" s="20">
+        <v>3</v>
+      </c>
+      <c r="D25" s="20">
+        <v>1</v>
+      </c>
+      <c r="E25" s="20">
+        <v>0</v>
+      </c>
+      <c r="F25" s="20">
+        <v>0</v>
+      </c>
+      <c r="G25" s="20">
+        <v>0</v>
+      </c>
+      <c r="H25" s="16">
+        <v>2</v>
+      </c>
+      <c r="I25" s="91">
+        <v>70753</v>
+      </c>
+      <c r="J25" s="12">
         <v>6</v>
       </c>
-      <c r="C25" s="21">
-        <v>4</v>
-      </c>
-      <c r="D25" s="21">
-        <v>0</v>
-      </c>
-      <c r="E25" s="21">
-        <v>1</v>
-      </c>
-      <c r="F25" s="21">
-        <v>0</v>
-      </c>
-      <c r="G25" s="21">
-        <v>1</v>
-      </c>
-      <c r="H25" s="16">
-        <v>3</v>
-      </c>
-      <c r="I25" s="93">
-        <v>201503</v>
-      </c>
-      <c r="J25" s="12">
-        <v>17</v>
-      </c>
       <c r="K25" s="12">
         <v>0</v>
       </c>
       <c r="L25" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M25" s="12">
         <v>4</v>
@@ -16166,27 +16141,27 @@
         <v>318</v>
       </c>
       <c r="O25" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
-        <v>12</v>
-      </c>
-      <c r="B26" s="122">
+        <v>13</v>
+      </c>
+      <c r="B26" s="104">
         <v>4</v>
       </c>
       <c r="C26" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="20">
         <v>0</v>
       </c>
       <c r="F26" s="20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G26" s="20">
         <v>0</v>
@@ -16194,93 +16169,93 @@
       <c r="H26" s="16">
         <v>2</v>
       </c>
-      <c r="I26" s="93">
-        <v>70753</v>
+      <c r="I26" s="91">
+        <v>829390</v>
       </c>
       <c r="J26" s="12">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="K26" s="12">
         <v>0</v>
       </c>
       <c r="L26" s="12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M26" s="12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>318</v>
+        <v>380</v>
       </c>
       <c r="O26" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
-        <v>16</v>
-      </c>
-      <c r="B27" s="122">
+        <v>14</v>
+      </c>
+      <c r="B27" s="104">
         <v>4</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="19">
+        <v>0</v>
+      </c>
+      <c r="D27" s="19">
+        <v>0</v>
+      </c>
+      <c r="E27" s="19">
+        <v>4</v>
+      </c>
+      <c r="F27" s="19">
+        <v>0</v>
+      </c>
+      <c r="G27" s="19">
+        <v>0</v>
+      </c>
+      <c r="H27" s="16">
         <v>1</v>
       </c>
-      <c r="D27" s="20">
-        <v>3</v>
-      </c>
-      <c r="E27" s="20">
-        <v>0</v>
-      </c>
-      <c r="F27" s="20">
-        <v>0</v>
-      </c>
-      <c r="G27" s="20">
-        <v>0</v>
-      </c>
-      <c r="H27" s="16">
-        <v>2</v>
-      </c>
-      <c r="I27" s="93">
-        <v>131575</v>
+      <c r="I27" s="91">
+        <v>518105</v>
       </c>
       <c r="J27" s="12">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="K27" s="12">
         <v>0</v>
       </c>
       <c r="L27" s="12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M27" s="12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>318</v>
+        <v>380</v>
       </c>
       <c r="O27" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
-        <v>21</v>
-      </c>
-      <c r="B28" s="122">
+        <v>16</v>
+      </c>
+      <c r="B28" s="104">
+        <v>4</v>
+      </c>
+      <c r="C28" s="20">
+        <v>1</v>
+      </c>
+      <c r="D28" s="20">
         <v>3</v>
       </c>
-      <c r="C28" s="20">
-        <v>2</v>
-      </c>
-      <c r="D28" s="20">
-        <v>0</v>
-      </c>
       <c r="E28" s="20">
         <v>0</v>
       </c>
       <c r="F28" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" s="20">
         <v>0</v>
@@ -16288,8 +16263,8 @@
       <c r="H28" s="16">
         <v>2</v>
       </c>
-      <c r="I28" s="93">
-        <v>128339</v>
+      <c r="I28" s="91">
+        <v>131575</v>
       </c>
       <c r="J28" s="12">
         <v>11</v>
@@ -16298,110 +16273,110 @@
         <v>0</v>
       </c>
       <c r="L28" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O28" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
-        <v>24</v>
-      </c>
-      <c r="B29" s="122">
+        <v>21</v>
+      </c>
+      <c r="B29" s="104">
         <v>3</v>
       </c>
-      <c r="C29" s="64">
+      <c r="C29" s="20">
         <v>2</v>
       </c>
-      <c r="D29" s="64">
-        <v>0</v>
-      </c>
-      <c r="E29" s="64">
+      <c r="D29" s="20">
+        <v>0</v>
+      </c>
+      <c r="E29" s="20">
         <v>0</v>
       </c>
       <c r="F29" s="20">
-        <v>0</v>
-      </c>
-      <c r="G29" s="64">
         <v>1</v>
+      </c>
+      <c r="G29" s="20">
+        <v>0</v>
       </c>
       <c r="H29" s="16">
         <v>2</v>
       </c>
-      <c r="I29" s="93">
-        <v>22447</v>
+      <c r="I29" s="91">
+        <v>128339</v>
       </c>
       <c r="J29" s="12">
+        <v>11</v>
+      </c>
+      <c r="K29" s="12">
+        <v>0</v>
+      </c>
+      <c r="L29" s="12">
+        <v>1</v>
+      </c>
+      <c r="M29" s="12">
         <v>2</v>
-      </c>
-      <c r="K29" s="12">
-        <v>0</v>
-      </c>
-      <c r="L29" s="12">
-        <v>0</v>
-      </c>
-      <c r="M29" s="12">
-        <v>3</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O29" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="12">
+      <c r="A30" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="B30" s="104">
+        <v>3</v>
+      </c>
+      <c r="C30" s="64">
         <v>2</v>
       </c>
-      <c r="B30" s="12">
-        <v>17</v>
-      </c>
-      <c r="C30" s="67">
+      <c r="D30" s="64">
+        <v>0</v>
+      </c>
+      <c r="E30" s="64">
+        <v>0</v>
+      </c>
+      <c r="F30" s="20">
+        <v>0</v>
+      </c>
+      <c r="G30" s="64">
+        <v>1</v>
+      </c>
+      <c r="H30" s="16">
+        <v>2</v>
+      </c>
+      <c r="I30" s="91">
+        <v>22447</v>
+      </c>
+      <c r="J30" s="12">
+        <v>2</v>
+      </c>
+      <c r="K30" s="12">
+        <v>0</v>
+      </c>
+      <c r="L30" s="12">
+        <v>0</v>
+      </c>
+      <c r="M30" s="12">
         <v>3</v>
       </c>
-      <c r="D30" s="67">
-        <v>0</v>
-      </c>
-      <c r="E30" s="67">
-        <v>2</v>
-      </c>
-      <c r="F30" s="67">
-        <v>11</v>
-      </c>
-      <c r="G30" s="67">
-        <v>1</v>
-      </c>
-      <c r="H30" s="16">
-        <v>4</v>
-      </c>
-      <c r="I30" s="93">
-        <v>2706500</v>
-      </c>
-      <c r="J30" s="12">
-        <v>229</v>
-      </c>
-      <c r="K30" s="12">
-        <v>14</v>
-      </c>
-      <c r="L30" s="12">
-        <v>3</v>
-      </c>
-      <c r="M30" s="12">
-        <v>0</v>
-      </c>
       <c r="N30" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O30" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
@@ -16428,7 +16403,7 @@
   </sheetData>
   <autoFilter ref="A1:O23" xr:uid="{DE1A20C9-41D8-6D4F-99AC-E85332934F3C}">
     <sortState ref="A2:O30">
-      <sortCondition ref="N1:N30"/>
+      <sortCondition ref="O1:O30"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16436,11 +16411,1177 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD78233B-E478-774A-8E5D-0A41164AE470}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.83203125" style="2"/>
+    <col min="4" max="4" width="9" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="69" t="s">
+        <v>306</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>349</v>
+      </c>
+      <c r="C1" s="69" t="s">
+        <v>396</v>
+      </c>
+      <c r="D1" s="69" t="s">
+        <v>310</v>
+      </c>
+      <c r="E1" s="69" t="s">
+        <v>325</v>
+      </c>
+      <c r="F1" s="69" t="s">
+        <v>392</v>
+      </c>
+      <c r="G1" s="69" t="s">
+        <v>326</v>
+      </c>
+      <c r="H1" s="69" t="s">
+        <v>308</v>
+      </c>
+      <c r="I1" s="69" t="s">
+        <v>313</v>
+      </c>
+      <c r="J1" s="69" t="s">
+        <v>312</v>
+      </c>
+      <c r="K1" s="69" t="s">
+        <v>334</v>
+      </c>
+      <c r="L1" s="69" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="D2" s="17">
+        <v>39</v>
+      </c>
+      <c r="E2" s="17">
+        <v>0</v>
+      </c>
+      <c r="F2" s="17">
+        <v>3</v>
+      </c>
+      <c r="G2" s="17">
+        <v>36</v>
+      </c>
+      <c r="H2" s="22">
+        <v>21</v>
+      </c>
+      <c r="I2" s="22">
+        <v>6</v>
+      </c>
+      <c r="J2" s="22">
+        <v>3</v>
+      </c>
+      <c r="K2" s="22">
+        <v>5</v>
+      </c>
+      <c r="L2" s="22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="17">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>411</v>
+      </c>
+      <c r="D3" s="17">
+        <v>17</v>
+      </c>
+      <c r="E3" s="17">
+        <v>14</v>
+      </c>
+      <c r="F3" s="17">
+        <v>3</v>
+      </c>
+      <c r="G3" s="17">
+        <v>0</v>
+      </c>
+      <c r="H3" s="22">
+        <v>3</v>
+      </c>
+      <c r="I3" s="22">
+        <v>0</v>
+      </c>
+      <c r="J3" s="22">
+        <v>2</v>
+      </c>
+      <c r="K3" s="22">
+        <v>11</v>
+      </c>
+      <c r="L3" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="17">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="D4" s="17">
+        <v>13</v>
+      </c>
+      <c r="E4" s="17">
+        <v>0</v>
+      </c>
+      <c r="F4" s="17">
+        <v>0</v>
+      </c>
+      <c r="G4" s="17">
+        <v>13</v>
+      </c>
+      <c r="H4" s="22">
+        <v>10</v>
+      </c>
+      <c r="I4" s="22">
+        <v>1</v>
+      </c>
+      <c r="J4" s="22">
+        <v>0</v>
+      </c>
+      <c r="K4" s="22">
+        <v>0</v>
+      </c>
+      <c r="L4" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="17">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="D5" s="17">
+        <v>10</v>
+      </c>
+      <c r="E5" s="17">
+        <v>0</v>
+      </c>
+      <c r="F5" s="17">
+        <v>10</v>
+      </c>
+      <c r="G5" s="17">
+        <v>0</v>
+      </c>
+      <c r="H5" s="22">
+        <v>1</v>
+      </c>
+      <c r="I5" s="22">
+        <v>1</v>
+      </c>
+      <c r="J5" s="22">
+        <v>4</v>
+      </c>
+      <c r="K5" s="22">
+        <v>4</v>
+      </c>
+      <c r="L5" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="17">
+        <v>5</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="D6" s="17">
+        <v>8</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0</v>
+      </c>
+      <c r="F6" s="17">
+        <v>1</v>
+      </c>
+      <c r="G6" s="17">
+        <v>7</v>
+      </c>
+      <c r="H6" s="22">
+        <v>6</v>
+      </c>
+      <c r="I6" s="22">
+        <v>0</v>
+      </c>
+      <c r="J6" s="22">
+        <v>2</v>
+      </c>
+      <c r="K6" s="22">
+        <v>0</v>
+      </c>
+      <c r="L6" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="17">
+        <v>6</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>412</v>
+      </c>
+      <c r="D7" s="17">
+        <v>7</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0</v>
+      </c>
+      <c r="F7" s="17">
+        <v>0</v>
+      </c>
+      <c r="G7" s="17">
+        <v>7</v>
+      </c>
+      <c r="H7" s="22">
+        <v>3</v>
+      </c>
+      <c r="I7" s="22">
+        <v>2</v>
+      </c>
+      <c r="J7" s="22">
+        <v>1</v>
+      </c>
+      <c r="K7" s="22">
+        <v>0</v>
+      </c>
+      <c r="L7" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="17">
+        <v>7</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="D8" s="17">
+        <v>7</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0</v>
+      </c>
+      <c r="F8" s="17">
+        <v>0</v>
+      </c>
+      <c r="G8" s="17">
+        <v>7</v>
+      </c>
+      <c r="H8" s="22">
+        <v>2</v>
+      </c>
+      <c r="I8" s="22">
+        <v>4</v>
+      </c>
+      <c r="J8" s="22">
+        <v>1</v>
+      </c>
+      <c r="K8" s="22">
+        <v>0</v>
+      </c>
+      <c r="L8" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="17">
+        <v>8</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="D9" s="17">
+        <v>6</v>
+      </c>
+      <c r="E9" s="17">
+        <v>0</v>
+      </c>
+      <c r="F9" s="17">
+        <v>0</v>
+      </c>
+      <c r="G9" s="17">
+        <v>6</v>
+      </c>
+      <c r="H9" s="22">
+        <v>5</v>
+      </c>
+      <c r="I9" s="22">
+        <v>1</v>
+      </c>
+      <c r="J9" s="22">
+        <v>0</v>
+      </c>
+      <c r="K9" s="22">
+        <v>0</v>
+      </c>
+      <c r="L9" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="17">
+        <v>9</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="D10" s="17">
+        <v>6</v>
+      </c>
+      <c r="E10" s="17">
+        <v>0</v>
+      </c>
+      <c r="F10" s="17">
+        <v>2</v>
+      </c>
+      <c r="G10" s="17">
+        <v>4</v>
+      </c>
+      <c r="H10" s="22">
+        <v>4</v>
+      </c>
+      <c r="I10" s="22">
+        <v>0</v>
+      </c>
+      <c r="J10" s="22">
+        <v>1</v>
+      </c>
+      <c r="K10" s="22">
+        <v>0</v>
+      </c>
+      <c r="L10" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="17">
+        <v>10</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>412</v>
+      </c>
+      <c r="D11" s="17">
+        <v>5</v>
+      </c>
+      <c r="E11" s="17">
+        <v>0</v>
+      </c>
+      <c r="F11" s="17">
+        <v>0</v>
+      </c>
+      <c r="G11" s="17">
+        <v>5</v>
+      </c>
+      <c r="H11" s="22">
+        <v>1</v>
+      </c>
+      <c r="I11" s="22">
+        <v>1</v>
+      </c>
+      <c r="J11" s="22">
+        <v>3</v>
+      </c>
+      <c r="K11" s="22">
+        <v>0</v>
+      </c>
+      <c r="L11" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="17">
+        <v>11</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>412</v>
+      </c>
+      <c r="D12" s="17">
+        <v>5</v>
+      </c>
+      <c r="E12" s="17">
+        <v>0</v>
+      </c>
+      <c r="F12" s="17">
+        <v>2</v>
+      </c>
+      <c r="G12" s="17">
+        <v>3</v>
+      </c>
+      <c r="H12" s="22">
+        <v>0</v>
+      </c>
+      <c r="I12" s="22">
+        <v>2</v>
+      </c>
+      <c r="J12" s="22">
+        <v>0</v>
+      </c>
+      <c r="K12" s="22">
+        <v>1</v>
+      </c>
+      <c r="L12" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="17">
+        <v>12</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="D13" s="17">
+        <v>4</v>
+      </c>
+      <c r="E13" s="17">
+        <v>0</v>
+      </c>
+      <c r="F13" s="17">
+        <v>0</v>
+      </c>
+      <c r="G13" s="17">
+        <v>4</v>
+      </c>
+      <c r="H13" s="22">
+        <v>3</v>
+      </c>
+      <c r="I13" s="22">
+        <v>1</v>
+      </c>
+      <c r="J13" s="22">
+        <v>0</v>
+      </c>
+      <c r="K13" s="22">
+        <v>0</v>
+      </c>
+      <c r="L13" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="17">
+        <v>13</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="D14" s="17">
+        <v>4</v>
+      </c>
+      <c r="E14" s="17">
+        <v>0</v>
+      </c>
+      <c r="F14" s="17">
+        <v>4</v>
+      </c>
+      <c r="G14" s="17">
+        <v>0</v>
+      </c>
+      <c r="H14" s="22">
+        <v>2</v>
+      </c>
+      <c r="I14" s="22">
+        <v>0</v>
+      </c>
+      <c r="J14" s="22">
+        <v>0</v>
+      </c>
+      <c r="K14" s="22">
+        <v>2</v>
+      </c>
+      <c r="L14" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="17">
+        <v>14</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="D15" s="17">
+        <v>4</v>
+      </c>
+      <c r="E15" s="17">
+        <v>0</v>
+      </c>
+      <c r="F15" s="17">
+        <v>4</v>
+      </c>
+      <c r="G15" s="17">
+        <v>0</v>
+      </c>
+      <c r="H15" s="22">
+        <v>0</v>
+      </c>
+      <c r="I15" s="22">
+        <v>0</v>
+      </c>
+      <c r="J15" s="22">
+        <v>4</v>
+      </c>
+      <c r="K15" s="22">
+        <v>0</v>
+      </c>
+      <c r="L15" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="17">
+        <v>15</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="D16" s="17">
+        <v>4</v>
+      </c>
+      <c r="E16" s="17">
+        <v>0</v>
+      </c>
+      <c r="F16" s="17">
+        <v>3</v>
+      </c>
+      <c r="G16" s="17">
+        <v>1</v>
+      </c>
+      <c r="H16" s="22">
+        <v>1</v>
+      </c>
+      <c r="I16" s="22">
+        <v>0</v>
+      </c>
+      <c r="J16" s="22">
+        <v>0</v>
+      </c>
+      <c r="K16" s="22">
+        <v>2</v>
+      </c>
+      <c r="L16" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="D17" s="17">
+        <v>4</v>
+      </c>
+      <c r="E17" s="17">
+        <v>0</v>
+      </c>
+      <c r="F17" s="17">
+        <v>0</v>
+      </c>
+      <c r="G17" s="17">
+        <v>4</v>
+      </c>
+      <c r="H17" s="22">
+        <v>1</v>
+      </c>
+      <c r="I17" s="22">
+        <v>3</v>
+      </c>
+      <c r="J17" s="22">
+        <v>0</v>
+      </c>
+      <c r="K17" s="22">
+        <v>0</v>
+      </c>
+      <c r="L17" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="17">
+        <v>17</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>412</v>
+      </c>
+      <c r="D18" s="17">
+        <v>3</v>
+      </c>
+      <c r="E18" s="17">
+        <v>0</v>
+      </c>
+      <c r="F18" s="17">
+        <v>0</v>
+      </c>
+      <c r="G18" s="17">
+        <v>3</v>
+      </c>
+      <c r="H18" s="22">
+        <v>0</v>
+      </c>
+      <c r="I18" s="22">
+        <v>3</v>
+      </c>
+      <c r="J18" s="22">
+        <v>0</v>
+      </c>
+      <c r="K18" s="22">
+        <v>0</v>
+      </c>
+      <c r="L18" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="17">
+        <v>18</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>411</v>
+      </c>
+      <c r="D19" s="17">
+        <v>3</v>
+      </c>
+      <c r="E19" s="17">
+        <v>0</v>
+      </c>
+      <c r="F19" s="17">
+        <v>0</v>
+      </c>
+      <c r="G19" s="17">
+        <v>3</v>
+      </c>
+      <c r="H19" s="22">
+        <v>0</v>
+      </c>
+      <c r="I19" s="22">
+        <v>2</v>
+      </c>
+      <c r="J19" s="22">
+        <v>1</v>
+      </c>
+      <c r="K19" s="22">
+        <v>0</v>
+      </c>
+      <c r="L19" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="17">
+        <v>19</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>412</v>
+      </c>
+      <c r="D20" s="17">
+        <v>3</v>
+      </c>
+      <c r="E20" s="17">
+        <v>0</v>
+      </c>
+      <c r="F20" s="17">
+        <v>1</v>
+      </c>
+      <c r="G20" s="17">
+        <v>2</v>
+      </c>
+      <c r="H20" s="22">
+        <v>2</v>
+      </c>
+      <c r="I20" s="22">
+        <v>0</v>
+      </c>
+      <c r="J20" s="22">
+        <v>0</v>
+      </c>
+      <c r="K20" s="22">
+        <v>0</v>
+      </c>
+      <c r="L20" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="17">
+        <v>20</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>412</v>
+      </c>
+      <c r="D21" s="17">
+        <v>3</v>
+      </c>
+      <c r="E21" s="17">
+        <v>0</v>
+      </c>
+      <c r="F21" s="17">
+        <v>0</v>
+      </c>
+      <c r="G21" s="17">
+        <v>3</v>
+      </c>
+      <c r="H21" s="22">
+        <v>1</v>
+      </c>
+      <c r="I21" s="22">
+        <v>1</v>
+      </c>
+      <c r="J21" s="22">
+        <v>1</v>
+      </c>
+      <c r="K21" s="22">
+        <v>0</v>
+      </c>
+      <c r="L21" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="17">
+        <v>21</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="D22" s="17">
+        <v>3</v>
+      </c>
+      <c r="E22" s="17">
+        <v>0</v>
+      </c>
+      <c r="F22" s="17">
+        <v>1</v>
+      </c>
+      <c r="G22" s="17">
+        <v>2</v>
+      </c>
+      <c r="H22" s="22">
+        <v>2</v>
+      </c>
+      <c r="I22" s="22">
+        <v>0</v>
+      </c>
+      <c r="J22" s="22">
+        <v>0</v>
+      </c>
+      <c r="K22" s="22">
+        <v>1</v>
+      </c>
+      <c r="L22" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="17">
+        <v>22</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>411</v>
+      </c>
+      <c r="D23" s="17">
+        <v>3</v>
+      </c>
+      <c r="E23" s="17">
+        <v>0</v>
+      </c>
+      <c r="F23" s="17">
+        <v>3</v>
+      </c>
+      <c r="G23" s="17">
+        <v>0</v>
+      </c>
+      <c r="H23" s="25">
+        <v>1</v>
+      </c>
+      <c r="I23" s="25">
+        <v>0</v>
+      </c>
+      <c r="J23" s="25">
+        <v>2</v>
+      </c>
+      <c r="K23" s="25">
+        <v>0</v>
+      </c>
+      <c r="L23" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="17">
+        <v>23</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="D24" s="17">
+        <v>3</v>
+      </c>
+      <c r="E24" s="17">
+        <v>0</v>
+      </c>
+      <c r="F24" s="17">
+        <v>3</v>
+      </c>
+      <c r="G24" s="17">
+        <v>0</v>
+      </c>
+      <c r="H24" s="25">
+        <v>1</v>
+      </c>
+      <c r="I24" s="25">
+        <v>0</v>
+      </c>
+      <c r="J24" s="25">
+        <v>2</v>
+      </c>
+      <c r="K24" s="25">
+        <v>0</v>
+      </c>
+      <c r="L24" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="17">
+        <v>24</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>410</v>
+      </c>
+      <c r="D25" s="17">
+        <v>3</v>
+      </c>
+      <c r="E25" s="17">
+        <v>0</v>
+      </c>
+      <c r="F25" s="17">
+        <v>0</v>
+      </c>
+      <c r="G25" s="17">
+        <v>3</v>
+      </c>
+      <c r="H25" s="25">
+        <v>2</v>
+      </c>
+      <c r="I25" s="25">
+        <v>0</v>
+      </c>
+      <c r="J25" s="25">
+        <v>0</v>
+      </c>
+      <c r="K25" s="25">
+        <v>0</v>
+      </c>
+      <c r="L25" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="17">
+        <v>25</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>411</v>
+      </c>
+      <c r="D26" s="17">
+        <v>3</v>
+      </c>
+      <c r="E26" s="17">
+        <v>0</v>
+      </c>
+      <c r="F26" s="17">
+        <v>0</v>
+      </c>
+      <c r="G26" s="17">
+        <v>3</v>
+      </c>
+      <c r="H26" s="25">
+        <v>0</v>
+      </c>
+      <c r="I26" s="25">
+        <v>2</v>
+      </c>
+      <c r="J26" s="25">
+        <v>1</v>
+      </c>
+      <c r="K26" s="25">
+        <v>0</v>
+      </c>
+      <c r="L26" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="17">
+        <v>26</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="D27" s="17">
+        <v>3</v>
+      </c>
+      <c r="E27" s="17">
+        <v>0</v>
+      </c>
+      <c r="F27" s="17">
+        <v>2</v>
+      </c>
+      <c r="G27" s="17">
+        <v>1</v>
+      </c>
+      <c r="H27" s="25">
+        <v>2</v>
+      </c>
+      <c r="I27" s="25">
+        <v>0</v>
+      </c>
+      <c r="J27" s="25">
+        <v>0</v>
+      </c>
+      <c r="K27" s="25">
+        <v>1</v>
+      </c>
+      <c r="L27" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="17">
+        <v>27</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="D28" s="17">
+        <v>3</v>
+      </c>
+      <c r="E28" s="17">
+        <v>0</v>
+      </c>
+      <c r="F28" s="17">
+        <v>1</v>
+      </c>
+      <c r="G28" s="17">
+        <v>2</v>
+      </c>
+      <c r="H28" s="25">
+        <v>0</v>
+      </c>
+      <c r="I28" s="25">
+        <v>2</v>
+      </c>
+      <c r="J28" s="25">
+        <v>0</v>
+      </c>
+      <c r="K28" s="25">
+        <v>0</v>
+      </c>
+      <c r="L28" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="17">
+        <v>28</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="D29" s="17">
+        <v>3</v>
+      </c>
+      <c r="E29" s="17">
+        <v>0</v>
+      </c>
+      <c r="F29" s="17">
+        <v>2</v>
+      </c>
+      <c r="G29" s="17">
+        <v>1</v>
+      </c>
+      <c r="H29" s="25">
+        <v>3</v>
+      </c>
+      <c r="I29" s="25">
+        <v>0</v>
+      </c>
+      <c r="J29" s="25">
+        <v>0</v>
+      </c>
+      <c r="K29" s="25">
+        <v>0</v>
+      </c>
+      <c r="L29" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="70">
+        <v>29</v>
+      </c>
+      <c r="B30" s="70" t="s">
+        <v>380</v>
+      </c>
+      <c r="C30" s="115" t="s">
+        <v>412</v>
+      </c>
+      <c r="D30" s="70">
+        <v>3</v>
+      </c>
+      <c r="E30" s="70">
+        <v>1</v>
+      </c>
+      <c r="F30" s="70">
+        <v>2</v>
+      </c>
+      <c r="G30" s="70">
+        <v>0</v>
+      </c>
+      <c r="H30" s="115">
+        <v>1</v>
+      </c>
+      <c r="I30" s="115">
+        <v>2</v>
+      </c>
+      <c r="J30" s="115">
+        <v>0</v>
+      </c>
+      <c r="K30" s="115">
+        <v>0</v>
+      </c>
+      <c r="L30" s="115">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:L30" xr:uid="{1BB2B9B5-A8F6-1F48-A63B-3B99CE8C45C8}">
+    <sortState ref="A2:L30">
+      <sortCondition ref="A1:A30"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19A69BF1-CCFD-6443-93E0-6139599E6807}">
-  <dimension ref="A2:P40"/>
+  <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16456,756 +17597,816 @@
     <col min="16" max="16" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J1" s="123" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="76" t="s">
-        <v>400</v>
-      </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="71" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="79"/>
-      <c r="B4" s="80" t="s">
+        <v>449</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="105" t="s">
+        <v>443</v>
+      </c>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="105"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="74" t="s">
+        <v>394</v>
+      </c>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="106" t="s">
+        <v>401</v>
+      </c>
+      <c r="K3" s="101" t="s">
         <v>310</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="L3" s="101" t="s">
         <v>345</v>
       </c>
-      <c r="D4" s="80" t="s">
+      <c r="M3" s="101" t="s">
         <v>313</v>
       </c>
-      <c r="E4" s="80" t="s">
+      <c r="N3" s="101" t="s">
         <v>312</v>
       </c>
-      <c r="F4" s="80" t="s">
+      <c r="O3" s="101" t="s">
         <v>334</v>
       </c>
-      <c r="G4" s="80" t="s">
+      <c r="P3" s="101" t="s">
         <v>309</v>
       </c>
-      <c r="H4" s="78"/>
-      <c r="I4" s="102" t="s">
-        <v>409</v>
-      </c>
-      <c r="J4" s="74" t="s">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="77"/>
+      <c r="B4" s="78" t="s">
         <v>310</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="C4" s="78" t="s">
         <v>345</v>
       </c>
-      <c r="L4" s="74" t="s">
+      <c r="D4" s="78" t="s">
         <v>313</v>
       </c>
-      <c r="M4" s="74" t="s">
+      <c r="E4" s="78" t="s">
         <v>312</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="F4" s="78" t="s">
         <v>334</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="G4" s="78" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="81" t="s">
+      <c r="H4" s="76"/>
+      <c r="J4" s="107" t="s">
+        <v>322</v>
+      </c>
+      <c r="K4" s="86" t="s">
+        <v>413</v>
+      </c>
+      <c r="L4" s="86" t="s">
+        <v>415</v>
+      </c>
+      <c r="M4" s="86" t="s">
+        <v>418</v>
+      </c>
+      <c r="N4" s="86" t="s">
+        <v>416</v>
+      </c>
+      <c r="O4" s="86" t="s">
+        <v>422</v>
+      </c>
+      <c r="P4" s="86" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="79" t="s">
         <v>310</v>
       </c>
-      <c r="B5" s="82">
+      <c r="B5" s="80">
         <v>340</v>
       </c>
-      <c r="C5" s="82">
+      <c r="C5" s="80">
         <v>124</v>
       </c>
-      <c r="D5" s="82">
+      <c r="D5" s="80">
         <v>66</v>
       </c>
-      <c r="E5" s="82">
+      <c r="E5" s="80">
         <v>63</v>
       </c>
-      <c r="F5" s="82">
+      <c r="F5" s="80">
         <v>45</v>
       </c>
-      <c r="G5" s="82">
+      <c r="G5" s="80">
         <v>42</v>
       </c>
-      <c r="H5" s="78"/>
-      <c r="I5" s="98" t="s">
-        <v>322</v>
-      </c>
-      <c r="J5" s="95" t="s">
-        <v>407</v>
-      </c>
-      <c r="K5" s="95" t="s">
-        <v>346</v>
-      </c>
-      <c r="L5" s="95" t="s">
-        <v>349</v>
-      </c>
-      <c r="M5" s="95" t="s">
-        <v>353</v>
-      </c>
-      <c r="N5" s="95" t="s">
-        <v>348</v>
-      </c>
-      <c r="O5" s="95" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="83" t="s">
+      <c r="H5" s="76"/>
+      <c r="J5" s="108" t="s">
+        <v>323</v>
+      </c>
+      <c r="K5" s="82" t="s">
+        <v>414</v>
+      </c>
+      <c r="L5" s="82" t="s">
+        <v>416</v>
+      </c>
+      <c r="M5" s="82" t="s">
+        <v>417</v>
+      </c>
+      <c r="N5" s="82" t="s">
+        <v>420</v>
+      </c>
+      <c r="O5" s="82" t="s">
+        <v>421</v>
+      </c>
+      <c r="P5" s="82" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="81" t="s">
         <v>321</v>
       </c>
-      <c r="B6" s="84">
+      <c r="B6" s="82">
         <f>SUM(C6:G6)</f>
         <v>1</v>
       </c>
-      <c r="C6" s="84">
+      <c r="C6" s="82">
         <f>C5/B5</f>
         <v>0.36470588235294116</v>
       </c>
-      <c r="D6" s="84">
+      <c r="D6" s="82">
         <f>D5/B5</f>
         <v>0.19411764705882353</v>
       </c>
-      <c r="E6" s="84">
+      <c r="E6" s="82">
         <f>E5/B5</f>
         <v>0.18529411764705883</v>
       </c>
-      <c r="F6" s="84">
+      <c r="F6" s="82">
         <f>F5/B5</f>
         <v>0.13235294117647059</v>
       </c>
-      <c r="G6" s="84">
+      <c r="G6" s="82">
         <f>G5/B5</f>
         <v>0.12352941176470589</v>
       </c>
-      <c r="H6" s="78"/>
-      <c r="I6" s="99" t="s">
-        <v>323</v>
-      </c>
-      <c r="J6" s="75" t="s">
-        <v>408</v>
-      </c>
-      <c r="K6" s="75" t="s">
-        <v>347</v>
-      </c>
-      <c r="L6" s="75" t="s">
-        <v>350</v>
-      </c>
-      <c r="M6" s="75" t="s">
-        <v>354</v>
-      </c>
-      <c r="N6" s="75" t="s">
-        <v>348</v>
-      </c>
-      <c r="O6" s="75" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="85"/>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="100" t="s">
-        <v>421</v>
-      </c>
-      <c r="J7" s="100"/>
-      <c r="K7" s="97" t="s">
-        <v>410</v>
-      </c>
-      <c r="L7" s="97" t="s">
-        <v>412</v>
-      </c>
-      <c r="M7" s="101" t="s">
-        <v>414</v>
-      </c>
-      <c r="N7" s="101" t="s">
-        <v>416</v>
-      </c>
-      <c r="O7" s="97" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="81" t="s">
+      <c r="H6" s="76"/>
+      <c r="J6" s="109" t="s">
         <v>403</v>
       </c>
-      <c r="B8" s="82">
+      <c r="K6" s="109"/>
+      <c r="L6" s="110" t="s">
+        <v>423</v>
+      </c>
+      <c r="M6" s="110" t="s">
+        <v>425</v>
+      </c>
+      <c r="N6" s="111" t="s">
+        <v>427</v>
+      </c>
+      <c r="O6" s="111" t="s">
+        <v>429</v>
+      </c>
+      <c r="P6" s="110" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="83"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="76"/>
+      <c r="J7" s="112" t="s">
+        <v>402</v>
+      </c>
+      <c r="K7" s="108"/>
+      <c r="L7" s="113" t="s">
+        <v>424</v>
+      </c>
+      <c r="M7" s="113" t="s">
+        <v>426</v>
+      </c>
+      <c r="N7" s="114" t="s">
+        <v>428</v>
+      </c>
+      <c r="O7" s="114" t="s">
+        <v>430</v>
+      </c>
+      <c r="P7" s="113" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="79" t="s">
+        <v>397</v>
+      </c>
+      <c r="B8" s="80">
         <v>182</v>
       </c>
-      <c r="C8" s="87">
+      <c r="C8" s="85">
         <v>78</v>
       </c>
-      <c r="D8" s="82">
+      <c r="D8" s="80">
         <v>34</v>
       </c>
-      <c r="E8" s="82">
+      <c r="E8" s="80">
         <v>28</v>
       </c>
-      <c r="F8" s="82">
+      <c r="F8" s="80">
         <v>27</v>
       </c>
-      <c r="G8" s="82">
+      <c r="G8" s="80">
         <v>15</v>
       </c>
-      <c r="H8" s="78"/>
-      <c r="I8" s="104" t="s">
-        <v>420</v>
-      </c>
-      <c r="J8" s="106"/>
-      <c r="K8" s="105" t="s">
-        <v>411</v>
-      </c>
-      <c r="L8" s="105" t="s">
-        <v>413</v>
-      </c>
-      <c r="M8" s="103" t="s">
-        <v>415</v>
-      </c>
-      <c r="N8" s="103" t="s">
-        <v>417</v>
-      </c>
-      <c r="O8" s="105" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="81" t="s">
+      <c r="H8" s="76"/>
+      <c r="J8" s="72"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="79" t="s">
         <v>320</v>
       </c>
-      <c r="B9" s="78">
+      <c r="B9" s="76">
         <f>B8/B5</f>
         <v>0.53529411764705881</v>
       </c>
-      <c r="C9" s="82">
+      <c r="C9" s="80">
         <f>C8/B8</f>
         <v>0.42857142857142855</v>
       </c>
-      <c r="D9" s="82">
+      <c r="D9" s="80">
         <f>D8/B8</f>
         <v>0.18681318681318682</v>
       </c>
-      <c r="E9" s="82">
+      <c r="E9" s="80">
         <f>E8/B8</f>
         <v>0.15384615384615385</v>
       </c>
-      <c r="F9" s="82">
+      <c r="F9" s="80">
         <f>F8/B8</f>
         <v>0.14835164835164835</v>
       </c>
-      <c r="G9" s="82">
+      <c r="G9" s="80">
         <f>G8/B8</f>
         <v>8.2417582417582416E-2</v>
       </c>
-      <c r="H9" s="78"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="85"/>
-      <c r="B10" s="80"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="78"/>
-      <c r="J10" t="s">
-        <v>425</v>
-      </c>
-      <c r="K10" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="81" t="s">
+      <c r="H9" s="76"/>
+      <c r="J9" s="105" t="s">
+        <v>442</v>
+      </c>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="105"/>
+      <c r="O9" s="105"/>
+      <c r="P9" s="105"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="83"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="76"/>
+      <c r="J10" s="106" t="s">
+        <v>401</v>
+      </c>
+      <c r="K10" s="101" t="s">
+        <v>310</v>
+      </c>
+      <c r="L10" s="101" t="s">
+        <v>345</v>
+      </c>
+      <c r="M10" s="101" t="s">
+        <v>313</v>
+      </c>
+      <c r="N10" s="101" t="s">
+        <v>312</v>
+      </c>
+      <c r="O10" s="101" t="s">
+        <v>334</v>
+      </c>
+      <c r="P10" s="101" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="82">
+      <c r="B11" s="80">
         <v>158</v>
       </c>
-      <c r="C11" s="82">
+      <c r="C11" s="80">
         <v>46</v>
       </c>
-      <c r="D11" s="82">
+      <c r="D11" s="80">
         <v>32</v>
       </c>
-      <c r="E11" s="82">
+      <c r="E11" s="80">
         <v>35</v>
       </c>
-      <c r="F11" s="82">
+      <c r="F11" s="80">
         <v>18</v>
       </c>
-      <c r="G11" s="82">
+      <c r="G11" s="80">
         <v>27</v>
       </c>
-      <c r="H11" s="78"/>
-      <c r="I11" t="s">
-        <v>422</v>
-      </c>
-      <c r="J11" s="107">
-        <v>216</v>
-      </c>
-      <c r="K11">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="81" t="s">
+      <c r="H11" s="76"/>
+      <c r="J11" s="107" t="s">
+        <v>322</v>
+      </c>
+      <c r="K11" s="86" t="s">
+        <v>433</v>
+      </c>
+      <c r="L11" s="86" t="s">
+        <v>436</v>
+      </c>
+      <c r="M11" s="86" t="s">
+        <v>438</v>
+      </c>
+      <c r="N11" s="86" t="s">
+        <v>346</v>
+      </c>
+      <c r="O11" s="86" t="s">
+        <v>347</v>
+      </c>
+      <c r="P11" s="86" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="79" t="s">
         <v>315</v>
       </c>
-      <c r="B12" s="82">
+      <c r="B12" s="80">
         <f>B11/B5</f>
         <v>0.46470588235294119</v>
       </c>
-      <c r="C12" s="82">
+      <c r="C12" s="80">
         <f>C11/B11</f>
         <v>0.29113924050632911</v>
       </c>
-      <c r="D12" s="82">
+      <c r="D12" s="80">
         <f>D11/B11</f>
         <v>0.20253164556962025</v>
       </c>
-      <c r="E12" s="82">
+      <c r="E12" s="80">
         <f>E11/B11</f>
         <v>0.22151898734177214</v>
       </c>
-      <c r="F12" s="82">
+      <c r="F12" s="80">
         <f>F11/B11</f>
         <v>0.11392405063291139</v>
       </c>
-      <c r="G12" s="82">
+      <c r="G12" s="80">
         <f>G11/B11</f>
         <v>0.17088607594936708</v>
       </c>
-      <c r="H12" s="78"/>
-      <c r="I12" t="s">
+      <c r="H12" s="76"/>
+      <c r="J12" s="108" t="s">
+        <v>323</v>
+      </c>
+      <c r="K12" s="82" t="s">
+        <v>434</v>
+      </c>
+      <c r="L12" s="82" t="s">
+        <v>435</v>
+      </c>
+      <c r="M12" s="82" t="s">
+        <v>437</v>
+      </c>
+      <c r="N12" s="82" t="s">
+        <v>416</v>
+      </c>
+      <c r="O12" s="82" t="s">
+        <v>439</v>
+      </c>
+      <c r="P12" s="82" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="83"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="76"/>
+      <c r="J13" s="109" t="s">
+        <v>403</v>
+      </c>
+      <c r="K13" s="109"/>
+      <c r="L13" s="94" t="s">
         <v>423</v>
       </c>
-      <c r="J12" s="107">
-        <v>183</v>
-      </c>
-      <c r="K12">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="85"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="78"/>
-      <c r="I13" t="s">
+      <c r="M13" s="94" t="s">
+        <v>425</v>
+      </c>
+      <c r="N13" s="95" t="s">
         <v>427</v>
       </c>
-      <c r="J13" s="108">
-        <v>103</v>
-      </c>
-      <c r="K13">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="83" t="s">
-        <v>406</v>
-      </c>
-      <c r="B14" s="84">
+      <c r="O13" s="95" t="s">
+        <v>429</v>
+      </c>
+      <c r="P13" s="94" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="81" t="s">
+        <v>400</v>
+      </c>
+      <c r="B14" s="82">
         <f t="shared" ref="B14:G14" si="0">B8/B5</f>
         <v>0.53529411764705881</v>
       </c>
-      <c r="C14" s="84">
+      <c r="C14" s="82">
         <f t="shared" si="0"/>
         <v>0.62903225806451613</v>
       </c>
-      <c r="D14" s="84">
+      <c r="D14" s="82">
         <f t="shared" si="0"/>
         <v>0.51515151515151514</v>
       </c>
-      <c r="E14" s="84">
+      <c r="E14" s="82">
         <f t="shared" si="0"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="F14" s="84">
+      <c r="F14" s="82">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="G14" s="84">
+      <c r="G14" s="82">
         <f t="shared" si="0"/>
         <v>0.35714285714285715</v>
       </c>
-      <c r="H14" s="78"/>
-      <c r="I14" t="s">
+      <c r="H14" s="76"/>
+      <c r="J14" s="112" t="s">
+        <v>402</v>
+      </c>
+      <c r="K14" s="108"/>
+      <c r="L14" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="M14" s="97" t="s">
         <v>426</v>
       </c>
-      <c r="J14" s="109">
-        <f>J13/J12*100</f>
-        <v>56.284153005464475</v>
-      </c>
-      <c r="K14" s="109">
-        <f>K13/K12*100</f>
-        <v>43.678160919540232</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="83" t="s">
+      <c r="N14" s="96" t="s">
+        <v>428</v>
+      </c>
+      <c r="O14" s="96" t="s">
+        <v>430</v>
+      </c>
+      <c r="P14" s="97" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="81" t="s">
         <v>316</v>
       </c>
-      <c r="B15" s="84">
+      <c r="B15" s="82">
         <f t="shared" ref="B15:G15" si="1">B11/B5</f>
         <v>0.46470588235294119</v>
       </c>
-      <c r="C15" s="84">
+      <c r="C15" s="82">
         <f t="shared" si="1"/>
         <v>0.37096774193548387</v>
       </c>
-      <c r="D15" s="84">
+      <c r="D15" s="82">
         <f t="shared" si="1"/>
         <v>0.48484848484848486</v>
       </c>
-      <c r="E15" s="84">
+      <c r="E15" s="82">
         <f t="shared" si="1"/>
         <v>0.55555555555555558</v>
       </c>
-      <c r="F15" s="84">
+      <c r="F15" s="82">
         <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
-      <c r="G15" s="84">
+      <c r="G15" s="82">
         <f t="shared" si="1"/>
         <v>0.6428571428571429</v>
       </c>
-      <c r="H15" s="78"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="77"/>
-      <c r="B16" s="78"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="78"/>
+      <c r="H15" s="76"/>
+      <c r="L15">
+        <f>59/74</f>
+        <v>0.79729729729729726</v>
+      </c>
+      <c r="M15">
+        <f>17/30</f>
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="N15">
+        <f>15/22</f>
+        <v>0.68181818181818177</v>
+      </c>
+      <c r="O15">
+        <f>12/16</f>
+        <v>0.75</v>
+      </c>
+      <c r="P15">
+        <f>8/14</f>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="75"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="L16">
+        <f>15/74</f>
+        <v>0.20270270270270271</v>
+      </c>
+      <c r="M16">
+        <f>13/30</f>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="N16">
+        <f>7/22</f>
+        <v>0.31818181818181818</v>
+      </c>
+      <c r="O16">
+        <f>4/16</f>
+        <v>0.25</v>
+      </c>
+      <c r="P16">
+        <f>6/14</f>
+        <v>0.42857142857142855</v>
+      </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
+      <c r="A17" s="116" t="s">
+        <v>448</v>
+      </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
+      <c r="I17" s="73"/>
+      <c r="L17">
+        <f>12/13</f>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="M17">
+        <f>7/13</f>
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="N17">
+        <f>6/13</f>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="O17">
+        <f>4/13</f>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="P17">
+        <f>5/13</f>
+        <v>0.38461538461538464</v>
+      </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="119" t="s">
-        <v>405</v>
-      </c>
-      <c r="B18" s="119"/>
-      <c r="C18" s="119"/>
-      <c r="D18" s="119"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="119"/>
-      <c r="G18" s="119"/>
-      <c r="I18" s="123" t="s">
-        <v>402</v>
-      </c>
-      <c r="J18" s="123"/>
-      <c r="K18" s="123"/>
-      <c r="L18" s="123"/>
-      <c r="M18" s="123"/>
-      <c r="N18" s="123"/>
-      <c r="O18" s="123"/>
+      <c r="A18" s="121" t="s">
+        <v>399</v>
+      </c>
+      <c r="B18" s="121"/>
+      <c r="C18" s="121"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="121"/>
+      <c r="F18" s="121"/>
+      <c r="G18" s="121"/>
+      <c r="I18" s="73"/>
+      <c r="L18">
+        <f>9/13</f>
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="M18">
+        <f>7/12</f>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="N18">
+        <f>4/12</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O18">
+        <f>3/12</f>
+        <v>0.25</v>
+      </c>
+      <c r="P18">
+        <f>4/12</f>
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="90"/>
-      <c r="B19" s="86" t="s">
+      <c r="A19" s="88"/>
+      <c r="B19" s="84" t="s">
         <v>310</v>
       </c>
-      <c r="C19" s="96" t="s">
+      <c r="C19" s="93" t="s">
         <v>345</v>
       </c>
-      <c r="D19" s="96" t="s">
+      <c r="D19" s="93" t="s">
         <v>313</v>
       </c>
-      <c r="E19" s="96" t="s">
+      <c r="E19" s="93" t="s">
         <v>312</v>
       </c>
-      <c r="F19" s="96" t="s">
+      <c r="F19" s="93" t="s">
         <v>334</v>
       </c>
-      <c r="G19" s="86" t="s">
+      <c r="G19" s="84" t="s">
         <v>309</v>
       </c>
-      <c r="I19" s="124" t="s">
-        <v>409</v>
-      </c>
-      <c r="J19" s="110" t="s">
-        <v>310</v>
-      </c>
-      <c r="K19" s="110" t="s">
-        <v>345</v>
-      </c>
-      <c r="L19" s="110" t="s">
-        <v>313</v>
-      </c>
-      <c r="M19" s="110" t="s">
-        <v>312</v>
-      </c>
-      <c r="N19" s="110" t="s">
-        <v>334</v>
-      </c>
-      <c r="O19" s="110" t="s">
-        <v>309</v>
-      </c>
+      <c r="I19" s="73"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="96" t="s">
+      <c r="A20" s="93" t="s">
         <v>325</v>
       </c>
-      <c r="B20" s="88">
+      <c r="B20" s="86">
         <v>17</v>
       </c>
-      <c r="C20" s="96">
+      <c r="C20" s="93">
         <v>3</v>
       </c>
-      <c r="D20" s="96">
-        <v>0</v>
-      </c>
-      <c r="E20" s="96">
+      <c r="D20" s="93">
+        <v>0</v>
+      </c>
+      <c r="E20" s="93">
         <v>2</v>
       </c>
-      <c r="F20" s="96">
+      <c r="F20" s="93">
         <v>11</v>
       </c>
-      <c r="G20" s="82">
+      <c r="G20" s="80">
         <v>1</v>
       </c>
-      <c r="I20" s="125" t="s">
-        <v>322</v>
-      </c>
-      <c r="J20" s="88" t="s">
-        <v>432</v>
-      </c>
-      <c r="K20" s="88" t="s">
-        <v>434</v>
-      </c>
-      <c r="L20" s="88" t="s">
-        <v>437</v>
-      </c>
-      <c r="M20" s="88" t="s">
-        <v>435</v>
-      </c>
-      <c r="N20" s="88" t="s">
-        <v>441</v>
-      </c>
-      <c r="O20" s="88" t="s">
-        <v>354</v>
+      <c r="I20" s="73"/>
+      <c r="L20">
+        <f>13/16</f>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="82" t="s">
-        <v>398</v>
-      </c>
-      <c r="B21" s="88">
+      <c r="A21" s="80" t="s">
+        <v>392</v>
+      </c>
+      <c r="B21" s="86">
         <v>37</v>
       </c>
-      <c r="C21" s="82">
+      <c r="C21" s="80">
         <v>12</v>
       </c>
-      <c r="D21" s="82">
+      <c r="D21" s="80">
         <v>3</v>
       </c>
-      <c r="E21" s="82">
+      <c r="E21" s="80">
         <v>12</v>
       </c>
-      <c r="F21" s="82">
+      <c r="F21" s="80">
         <v>9</v>
       </c>
-      <c r="G21" s="82">
+      <c r="G21" s="80">
         <v>1</v>
       </c>
-      <c r="I21" s="126" t="s">
-        <v>323</v>
-      </c>
-      <c r="J21" s="84" t="s">
-        <v>433</v>
-      </c>
-      <c r="K21" s="84" t="s">
-        <v>435</v>
-      </c>
-      <c r="L21" s="84" t="s">
-        <v>436</v>
-      </c>
-      <c r="M21" s="84" t="s">
-        <v>439</v>
-      </c>
-      <c r="N21" s="84" t="s">
-        <v>440</v>
-      </c>
-      <c r="O21" s="84" t="s">
-        <v>438</v>
-      </c>
+      <c r="I21" s="73"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="84" t="s">
+      <c r="A22" s="82" t="s">
         <v>326</v>
       </c>
-      <c r="B22" s="84">
+      <c r="B22" s="82">
         <v>128</v>
       </c>
-      <c r="C22" s="84">
+      <c r="C22" s="82">
         <v>63</v>
       </c>
-      <c r="D22" s="84">
+      <c r="D22" s="82">
         <v>31</v>
       </c>
-      <c r="E22" s="84">
+      <c r="E22" s="82">
         <v>14</v>
       </c>
-      <c r="F22" s="84">
+      <c r="F22" s="82">
         <v>7</v>
       </c>
-      <c r="G22" s="84">
+      <c r="G22" s="82">
         <v>13</v>
       </c>
-      <c r="I22" s="127" t="s">
-        <v>421</v>
-      </c>
-      <c r="J22" s="127"/>
-      <c r="K22" s="128" t="s">
-        <v>442</v>
-      </c>
-      <c r="L22" s="128" t="s">
-        <v>444</v>
-      </c>
-      <c r="M22" s="129" t="s">
-        <v>446</v>
-      </c>
-      <c r="N22" s="129" t="s">
-        <v>448</v>
-      </c>
-      <c r="O22" s="128" t="s">
-        <v>450</v>
-      </c>
-      <c r="P22" s="7"/>
+      <c r="I22" s="73"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="82" t="s">
+      <c r="A23" s="80" t="s">
         <v>327</v>
       </c>
-      <c r="B23" s="88"/>
-      <c r="C23" s="92">
+      <c r="B23" s="86"/>
+      <c r="C23" s="90">
         <f>C20/78</f>
         <v>3.8461538461538464E-2</v>
       </c>
-      <c r="D23" s="92">
+      <c r="D23" s="90">
         <f>D20/34</f>
         <v>0</v>
       </c>
-      <c r="E23" s="92">
+      <c r="E23" s="90">
         <f>E20/28</f>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="F23" s="92">
+      <c r="F23" s="90">
         <f>F20/27</f>
         <v>0.40740740740740738</v>
       </c>
-      <c r="G23" s="92">
+      <c r="G23" s="90">
         <f>G20/15</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="I23" s="130" t="s">
-        <v>420</v>
-      </c>
-      <c r="J23" s="126"/>
-      <c r="K23" s="131" t="s">
-        <v>443</v>
-      </c>
-      <c r="L23" s="131" t="s">
-        <v>445</v>
-      </c>
-      <c r="M23" s="132" t="s">
-        <v>447</v>
-      </c>
-      <c r="N23" s="132" t="s">
-        <v>449</v>
-      </c>
-      <c r="O23" s="131" t="s">
-        <v>451</v>
-      </c>
-      <c r="P23" s="7"/>
+      <c r="I23" s="73"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="82" t="s">
-        <v>404</v>
-      </c>
-      <c r="B24" s="88"/>
-      <c r="C24" s="92">
+      <c r="A24" s="80" t="s">
+        <v>398</v>
+      </c>
+      <c r="B24" s="86"/>
+      <c r="C24" s="90">
         <f>C21/78</f>
         <v>0.15384615384615385</v>
       </c>
-      <c r="D24" s="92">
+      <c r="D24" s="90">
         <f>D21/34</f>
         <v>8.8235294117647065E-2</v>
       </c>
-      <c r="E24" s="92">
+      <c r="E24" s="90">
         <f>E21/28</f>
         <v>0.42857142857142855</v>
       </c>
-      <c r="F24" s="92">
+      <c r="F24" s="90">
         <f>F21/27</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G24" s="92">
+      <c r="G24" s="90">
         <f>G21/15</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="I24" s="72"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="84" t="s">
+      <c r="A25" s="82" t="s">
         <v>328</v>
       </c>
-      <c r="B25" s="84"/>
-      <c r="C25" s="91">
+      <c r="B25" s="82"/>
+      <c r="C25" s="89">
         <f>C22/78</f>
         <v>0.80769230769230771</v>
       </c>
-      <c r="D25" s="91">
+      <c r="D25" s="89">
         <f>D22/34</f>
         <v>0.91176470588235292</v>
       </c>
-      <c r="E25" s="91">
+      <c r="E25" s="89">
         <f>E22/28</f>
         <v>0.5</v>
       </c>
-      <c r="F25" s="91">
+      <c r="F25" s="89">
         <f>F22/27</f>
         <v>0.25925925925925924</v>
       </c>
-      <c r="G25" s="91">
+      <c r="G25" s="89">
         <f>G22/15</f>
         <v>0.8666666666666667</v>
       </c>
-      <c r="I25" s="72"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
@@ -17217,213 +18418,250 @@
       <c r="G26" s="8"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="120" t="s">
+      <c r="A27" s="122" t="s">
         <v>324</v>
       </c>
-      <c r="B27" s="120"/>
-      <c r="C27" s="120"/>
-      <c r="D27" s="120"/>
-      <c r="E27" s="120"/>
-      <c r="F27" s="120"/>
-      <c r="G27" s="120"/>
+      <c r="B27" s="122"/>
+      <c r="C27" s="122"/>
+      <c r="D27" s="122"/>
+      <c r="E27" s="122"/>
+      <c r="F27" s="122"/>
+      <c r="G27" s="122"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="86"/>
-      <c r="B28" s="86" t="s">
+      <c r="A28" s="102"/>
+      <c r="B28" s="102" t="s">
         <v>310</v>
       </c>
-      <c r="C28" s="86" t="s">
+      <c r="C28" s="102" t="s">
         <v>345</v>
       </c>
-      <c r="D28" s="86" t="s">
+      <c r="D28" s="102" t="s">
         <v>313</v>
       </c>
-      <c r="E28" s="86" t="s">
+      <c r="E28" s="102" t="s">
         <v>312</v>
       </c>
-      <c r="F28" s="86" t="s">
+      <c r="F28" s="102" t="s">
         <v>334</v>
       </c>
-      <c r="G28" s="86" t="s">
+      <c r="G28" s="102" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="88" t="s">
+      <c r="A29" s="86" t="s">
         <v>325</v>
       </c>
-      <c r="B29" s="88">
+      <c r="B29" s="86">
         <v>1</v>
       </c>
-      <c r="C29" s="88">
+      <c r="C29" s="86">
         <v>1</v>
       </c>
-      <c r="D29" s="88">
-        <v>0</v>
-      </c>
-      <c r="E29" s="88">
+      <c r="D29" s="86">
+        <v>0</v>
+      </c>
+      <c r="E29" s="86">
         <v>1</v>
       </c>
-      <c r="F29" s="88">
+      <c r="F29" s="86">
         <v>1</v>
       </c>
-      <c r="G29" s="88">
+      <c r="G29" s="86">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="88" t="s">
-        <v>398</v>
-      </c>
-      <c r="B30" s="88">
+      <c r="A30" s="86" t="s">
+        <v>392</v>
+      </c>
+      <c r="B30" s="86">
         <v>9</v>
       </c>
-      <c r="C30" s="88">
+      <c r="C30" s="86">
         <v>8</v>
       </c>
-      <c r="D30" s="88">
+      <c r="D30" s="86">
         <v>2</v>
       </c>
-      <c r="E30" s="88">
+      <c r="E30" s="86">
         <v>4</v>
       </c>
-      <c r="F30" s="88">
+      <c r="F30" s="86">
         <v>4</v>
       </c>
-      <c r="G30" s="88">
+      <c r="G30" s="86">
         <v>1</v>
       </c>
-      <c r="H30" s="73"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="84" t="s">
+      <c r="A31" s="82" t="s">
         <v>326</v>
       </c>
-      <c r="B31" s="84">
+      <c r="B31" s="82">
         <v>19</v>
       </c>
-      <c r="C31" s="84">
+      <c r="C31" s="82">
         <v>14</v>
       </c>
-      <c r="D31" s="84">
+      <c r="D31" s="82">
         <v>14</v>
       </c>
-      <c r="E31" s="84">
+      <c r="E31" s="82">
         <v>9</v>
       </c>
-      <c r="F31" s="84">
+      <c r="F31" s="82">
         <v>3</v>
       </c>
-      <c r="G31" s="84">
+      <c r="G31" s="82">
         <v>8</v>
       </c>
-      <c r="H31" s="73"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="88" t="s">
+      <c r="A32" s="86" t="s">
         <v>327</v>
       </c>
-      <c r="B32" s="89"/>
-      <c r="C32" s="89">
+      <c r="B32" s="87"/>
+      <c r="C32" s="87">
         <f>C29/B29</f>
         <v>1</v>
       </c>
-      <c r="D32" s="89">
+      <c r="D32" s="87">
         <f>D29/B29</f>
         <v>0</v>
       </c>
-      <c r="E32" s="89">
+      <c r="E32" s="87">
         <f>E29/B29</f>
         <v>1</v>
       </c>
-      <c r="F32" s="89">
+      <c r="F32" s="87">
         <f>F29/B29</f>
         <v>1</v>
       </c>
-      <c r="G32" s="89">
+      <c r="G32" s="87">
         <f>G29/B29</f>
         <v>1</v>
       </c>
-      <c r="H32" s="73"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="88" t="s">
-        <v>404</v>
-      </c>
-      <c r="B33" s="89"/>
-      <c r="C33" s="89">
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" s="86" t="s">
+        <v>398</v>
+      </c>
+      <c r="B33" s="87"/>
+      <c r="C33" s="87">
         <f>C30/B30</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="D33" s="89">
+      <c r="D33" s="87">
         <f>D30/B30</f>
         <v>0.22222222222222221</v>
       </c>
-      <c r="E33" s="89">
+      <c r="E33" s="87">
         <f>E30/B30</f>
         <v>0.44444444444444442</v>
       </c>
-      <c r="F33" s="89">
+      <c r="F33" s="87">
         <f>F30/B30</f>
         <v>0.44444444444444442</v>
       </c>
-      <c r="G33" s="89">
+      <c r="G33" s="87">
         <f>G30/B30</f>
         <v>0.1111111111111111</v>
       </c>
-      <c r="H33" s="73"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="84" t="s">
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" s="82" t="s">
         <v>328</v>
       </c>
-      <c r="B34" s="91"/>
-      <c r="C34" s="91">
+      <c r="B34" s="89"/>
+      <c r="C34" s="89">
         <f>C31/B31</f>
         <v>0.73684210526315785</v>
       </c>
-      <c r="D34" s="91">
+      <c r="D34" s="89">
         <f>D31/B31</f>
         <v>0.73684210526315785</v>
       </c>
-      <c r="E34" s="91">
+      <c r="E34" s="89">
         <f>E31/B31</f>
         <v>0.47368421052631576</v>
       </c>
-      <c r="F34" s="91">
+      <c r="F34" s="89">
         <f>F31/B31</f>
         <v>0.15789473684210525</v>
       </c>
-      <c r="G34" s="91">
+      <c r="G34" s="89">
         <f>G31/B31</f>
         <v>0.42105263157894735</v>
       </c>
-      <c r="H34" s="73"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H35" s="73"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H36" s="73"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="H37" s="73"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="H38" s="73"/>
       <c r="I38" s="14"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O38" t="s">
+        <v>407</v>
+      </c>
+      <c r="P38" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="H39" s="3"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="71"/>
-      <c r="B40" s="71"/>
-      <c r="C40" s="71"/>
-      <c r="D40" s="71"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="71"/>
-      <c r="G40" s="73"/>
+      <c r="N39" t="s">
+        <v>404</v>
+      </c>
+      <c r="O39" s="98">
+        <v>216</v>
+      </c>
+      <c r="P39">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N40" t="s">
+        <v>405</v>
+      </c>
+      <c r="O40" s="98">
+        <v>183</v>
+      </c>
+      <c r="P40">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A41" s="71"/>
+      <c r="B41" s="71"/>
+      <c r="C41" s="71"/>
+      <c r="D41" s="71"/>
+      <c r="E41" s="71"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="73"/>
+      <c r="N41" t="s">
+        <v>409</v>
+      </c>
+      <c r="O41" s="99">
+        <v>103</v>
+      </c>
+      <c r="P41">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N42" t="s">
+        <v>408</v>
+      </c>
+      <c r="O42" s="100">
+        <f>O41/O40*100</f>
+        <v>56.284153005464475</v>
+      </c>
+      <c r="P42" s="100">
+        <f>P41/P40*100</f>
+        <v>43.678160919540232</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -17432,1170 +18670,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD78233B-E478-774A-8E5D-0A41164AE470}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.83203125" style="2"/>
-    <col min="4" max="4" width="9" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
-        <v>306</v>
-      </c>
-      <c r="B1" s="69" t="s">
-        <v>355</v>
-      </c>
-      <c r="C1" s="69" t="s">
-        <v>402</v>
-      </c>
-      <c r="D1" s="69" t="s">
-        <v>310</v>
-      </c>
-      <c r="E1" s="69" t="s">
-        <v>325</v>
-      </c>
-      <c r="F1" s="69" t="s">
-        <v>398</v>
-      </c>
-      <c r="G1" s="69" t="s">
-        <v>326</v>
-      </c>
-      <c r="H1" s="69" t="s">
-        <v>308</v>
-      </c>
-      <c r="I1" s="69" t="s">
-        <v>313</v>
-      </c>
-      <c r="J1" s="69" t="s">
-        <v>312</v>
-      </c>
-      <c r="K1" s="69" t="s">
-        <v>334</v>
-      </c>
-      <c r="L1" s="69" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="17">
-        <v>4</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>386</v>
-      </c>
-      <c r="C2" s="112" t="s">
-        <v>428</v>
-      </c>
-      <c r="D2" s="17">
-        <v>10</v>
-      </c>
-      <c r="E2" s="17">
-        <v>0</v>
-      </c>
-      <c r="F2" s="17">
-        <v>10</v>
-      </c>
-      <c r="G2" s="17">
-        <v>0</v>
-      </c>
-      <c r="H2" s="22">
-        <v>1</v>
-      </c>
-      <c r="I2" s="22">
-        <v>1</v>
-      </c>
-      <c r="J2" s="22">
-        <v>4</v>
-      </c>
-      <c r="K2" s="22">
-        <v>4</v>
-      </c>
-      <c r="L2" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17">
-        <v>13</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>386</v>
-      </c>
-      <c r="C3" s="112" t="s">
-        <v>428</v>
-      </c>
-      <c r="D3" s="17">
-        <v>4</v>
-      </c>
-      <c r="E3" s="17">
-        <v>0</v>
-      </c>
-      <c r="F3" s="17">
-        <v>4</v>
-      </c>
-      <c r="G3" s="17">
-        <v>0</v>
-      </c>
-      <c r="H3" s="22">
-        <v>2</v>
-      </c>
-      <c r="I3" s="22">
-        <v>0</v>
-      </c>
-      <c r="J3" s="22">
-        <v>0</v>
-      </c>
-      <c r="K3" s="22">
-        <v>2</v>
-      </c>
-      <c r="L3" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="17">
-        <v>14</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>386</v>
-      </c>
-      <c r="C4" s="112" t="s">
-        <v>428</v>
-      </c>
-      <c r="D4" s="17">
-        <v>4</v>
-      </c>
-      <c r="E4" s="17">
-        <v>0</v>
-      </c>
-      <c r="F4" s="17">
-        <v>4</v>
-      </c>
-      <c r="G4" s="17">
-        <v>0</v>
-      </c>
-      <c r="H4" s="22">
-        <v>0</v>
-      </c>
-      <c r="I4" s="22">
-        <v>0</v>
-      </c>
-      <c r="J4" s="22">
-        <v>4</v>
-      </c>
-      <c r="K4" s="22">
-        <v>0</v>
-      </c>
-      <c r="L4" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="17">
-        <v>15</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>386</v>
-      </c>
-      <c r="C5" s="112" t="s">
-        <v>428</v>
-      </c>
-      <c r="D5" s="17">
-        <v>4</v>
-      </c>
-      <c r="E5" s="17">
-        <v>0</v>
-      </c>
-      <c r="F5" s="17">
-        <v>3</v>
-      </c>
-      <c r="G5" s="17">
-        <v>1</v>
-      </c>
-      <c r="H5" s="22">
-        <v>1</v>
-      </c>
-      <c r="I5" s="22">
-        <v>0</v>
-      </c>
-      <c r="J5" s="22">
-        <v>0</v>
-      </c>
-      <c r="K5" s="22">
-        <v>2</v>
-      </c>
-      <c r="L5" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="17">
-        <v>22</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>386</v>
-      </c>
-      <c r="C6" s="113" t="s">
-        <v>429</v>
-      </c>
-      <c r="D6" s="17">
-        <v>3</v>
-      </c>
-      <c r="E6" s="17">
-        <v>0</v>
-      </c>
-      <c r="F6" s="17">
-        <v>3</v>
-      </c>
-      <c r="G6" s="17">
-        <v>0</v>
-      </c>
-      <c r="H6" s="25">
-        <v>1</v>
-      </c>
-      <c r="I6" s="25">
-        <v>0</v>
-      </c>
-      <c r="J6" s="25">
-        <v>2</v>
-      </c>
-      <c r="K6" s="25">
-        <v>0</v>
-      </c>
-      <c r="L6" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="17">
-        <v>23</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>386</v>
-      </c>
-      <c r="C7" s="113" t="s">
-        <v>430</v>
-      </c>
-      <c r="D7" s="17">
-        <v>3</v>
-      </c>
-      <c r="E7" s="17">
-        <v>0</v>
-      </c>
-      <c r="F7" s="17">
-        <v>3</v>
-      </c>
-      <c r="G7" s="17">
-        <v>0</v>
-      </c>
-      <c r="H7" s="25">
-        <v>1</v>
-      </c>
-      <c r="I7" s="25">
-        <v>0</v>
-      </c>
-      <c r="J7" s="25">
-        <v>2</v>
-      </c>
-      <c r="K7" s="25">
-        <v>0</v>
-      </c>
-      <c r="L7" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="17">
-        <v>26</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>386</v>
-      </c>
-      <c r="C8" s="113" t="s">
-        <v>430</v>
-      </c>
-      <c r="D8" s="17">
-        <v>3</v>
-      </c>
-      <c r="E8" s="17">
-        <v>0</v>
-      </c>
-      <c r="F8" s="17">
-        <v>2</v>
-      </c>
-      <c r="G8" s="17">
-        <v>1</v>
-      </c>
-      <c r="H8" s="25">
-        <v>2</v>
-      </c>
-      <c r="I8" s="25">
-        <v>0</v>
-      </c>
-      <c r="J8" s="25">
-        <v>0</v>
-      </c>
-      <c r="K8" s="25">
-        <v>1</v>
-      </c>
-      <c r="L8" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="17">
-        <v>28</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>386</v>
-      </c>
-      <c r="C9" s="113" t="s">
-        <v>430</v>
-      </c>
-      <c r="D9" s="17">
-        <v>3</v>
-      </c>
-      <c r="E9" s="17">
-        <v>0</v>
-      </c>
-      <c r="F9" s="17">
-        <v>2</v>
-      </c>
-      <c r="G9" s="17">
-        <v>1</v>
-      </c>
-      <c r="H9" s="25">
-        <v>3</v>
-      </c>
-      <c r="I9" s="25">
-        <v>0</v>
-      </c>
-      <c r="J9" s="25">
-        <v>0</v>
-      </c>
-      <c r="K9" s="25">
-        <v>0</v>
-      </c>
-      <c r="L9" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="17">
-        <v>29</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>386</v>
-      </c>
-      <c r="C10" s="113" t="s">
-        <v>430</v>
-      </c>
-      <c r="D10" s="17">
-        <v>3</v>
-      </c>
-      <c r="E10" s="17">
-        <v>1</v>
-      </c>
-      <c r="F10" s="17">
-        <v>2</v>
-      </c>
-      <c r="G10" s="17">
-        <v>0</v>
-      </c>
-      <c r="H10" s="25">
-        <v>1</v>
-      </c>
-      <c r="I10" s="25">
-        <v>2</v>
-      </c>
-      <c r="J10" s="25">
-        <v>0</v>
-      </c>
-      <c r="K10" s="25">
-        <v>0</v>
-      </c>
-      <c r="L10" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="17">
-        <v>1</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>428</v>
-      </c>
-      <c r="D11" s="17">
-        <v>39</v>
-      </c>
-      <c r="E11" s="17">
-        <v>0</v>
-      </c>
-      <c r="F11" s="17">
-        <v>3</v>
-      </c>
-      <c r="G11" s="17">
-        <v>36</v>
-      </c>
-      <c r="H11" s="22">
-        <v>21</v>
-      </c>
-      <c r="I11" s="22">
-        <v>6</v>
-      </c>
-      <c r="J11" s="22">
-        <v>3</v>
-      </c>
-      <c r="K11" s="22">
-        <v>5</v>
-      </c>
-      <c r="L11" s="22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="17">
-        <v>3</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>428</v>
-      </c>
-      <c r="D12" s="17">
-        <v>13</v>
-      </c>
-      <c r="E12" s="17">
-        <v>0</v>
-      </c>
-      <c r="F12" s="17">
-        <v>0</v>
-      </c>
-      <c r="G12" s="17">
-        <v>13</v>
-      </c>
-      <c r="H12" s="22">
-        <v>10</v>
-      </c>
-      <c r="I12" s="22">
-        <v>1</v>
-      </c>
-      <c r="J12" s="22">
-        <v>0</v>
-      </c>
-      <c r="K12" s="22">
-        <v>0</v>
-      </c>
-      <c r="L12" s="22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="17">
-        <v>5</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>428</v>
-      </c>
-      <c r="D13" s="17">
-        <v>8</v>
-      </c>
-      <c r="E13" s="17">
-        <v>0</v>
-      </c>
-      <c r="F13" s="17">
-        <v>1</v>
-      </c>
-      <c r="G13" s="17">
-        <v>7</v>
-      </c>
-      <c r="H13" s="22">
-        <v>6</v>
-      </c>
-      <c r="I13" s="22">
-        <v>0</v>
-      </c>
-      <c r="J13" s="22">
-        <v>2</v>
-      </c>
-      <c r="K13" s="22">
-        <v>0</v>
-      </c>
-      <c r="L13" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="17">
-        <v>6</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>430</v>
-      </c>
-      <c r="D14" s="17">
-        <v>7</v>
-      </c>
-      <c r="E14" s="17">
-        <v>0</v>
-      </c>
-      <c r="F14" s="17">
-        <v>0</v>
-      </c>
-      <c r="G14" s="17">
-        <v>7</v>
-      </c>
-      <c r="H14" s="22">
-        <v>3</v>
-      </c>
-      <c r="I14" s="22">
-        <v>2</v>
-      </c>
-      <c r="J14" s="22">
-        <v>1</v>
-      </c>
-      <c r="K14" s="22">
-        <v>0</v>
-      </c>
-      <c r="L14" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="17">
-        <v>7</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>428</v>
-      </c>
-      <c r="D15" s="17">
-        <v>7</v>
-      </c>
-      <c r="E15" s="17">
-        <v>0</v>
-      </c>
-      <c r="F15" s="17">
-        <v>0</v>
-      </c>
-      <c r="G15" s="17">
-        <v>7</v>
-      </c>
-      <c r="H15" s="22">
-        <v>2</v>
-      </c>
-      <c r="I15" s="22">
-        <v>4</v>
-      </c>
-      <c r="J15" s="22">
-        <v>1</v>
-      </c>
-      <c r="K15" s="22">
-        <v>0</v>
-      </c>
-      <c r="L15" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="17">
-        <v>8</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>428</v>
-      </c>
-      <c r="D16" s="17">
-        <v>6</v>
-      </c>
-      <c r="E16" s="17">
-        <v>0</v>
-      </c>
-      <c r="F16" s="17">
-        <v>0</v>
-      </c>
-      <c r="G16" s="17">
-        <v>6</v>
-      </c>
-      <c r="H16" s="22">
-        <v>5</v>
-      </c>
-      <c r="I16" s="22">
-        <v>1</v>
-      </c>
-      <c r="J16" s="22">
-        <v>0</v>
-      </c>
-      <c r="K16" s="22">
-        <v>0</v>
-      </c>
-      <c r="L16" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="17">
-        <v>9</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>428</v>
-      </c>
-      <c r="D17" s="17">
-        <v>6</v>
-      </c>
-      <c r="E17" s="17">
-        <v>0</v>
-      </c>
-      <c r="F17" s="17">
-        <v>2</v>
-      </c>
-      <c r="G17" s="17">
-        <v>4</v>
-      </c>
-      <c r="H17" s="22">
-        <v>4</v>
-      </c>
-      <c r="I17" s="22">
-        <v>0</v>
-      </c>
-      <c r="J17" s="22">
-        <v>1</v>
-      </c>
-      <c r="K17" s="22">
-        <v>0</v>
-      </c>
-      <c r="L17" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="17">
-        <v>10</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>430</v>
-      </c>
-      <c r="D18" s="17">
-        <v>5</v>
-      </c>
-      <c r="E18" s="17">
-        <v>0</v>
-      </c>
-      <c r="F18" s="17">
-        <v>0</v>
-      </c>
-      <c r="G18" s="17">
-        <v>5</v>
-      </c>
-      <c r="H18" s="22">
-        <v>1</v>
-      </c>
-      <c r="I18" s="22">
-        <v>1</v>
-      </c>
-      <c r="J18" s="22">
-        <v>3</v>
-      </c>
-      <c r="K18" s="22">
-        <v>0</v>
-      </c>
-      <c r="L18" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="17">
-        <v>11</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>430</v>
-      </c>
-      <c r="D19" s="17">
-        <v>5</v>
-      </c>
-      <c r="E19" s="17">
-        <v>0</v>
-      </c>
-      <c r="F19" s="17">
-        <v>2</v>
-      </c>
-      <c r="G19" s="17">
-        <v>3</v>
-      </c>
-      <c r="H19" s="22">
-        <v>0</v>
-      </c>
-      <c r="I19" s="22">
-        <v>2</v>
-      </c>
-      <c r="J19" s="22">
-        <v>0</v>
-      </c>
-      <c r="K19" s="22">
-        <v>1</v>
-      </c>
-      <c r="L19" s="22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="17">
-        <v>12</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>428</v>
-      </c>
-      <c r="D20" s="17">
-        <v>4</v>
-      </c>
-      <c r="E20" s="17">
-        <v>0</v>
-      </c>
-      <c r="F20" s="17">
-        <v>0</v>
-      </c>
-      <c r="G20" s="17">
-        <v>4</v>
-      </c>
-      <c r="H20" s="22">
-        <v>3</v>
-      </c>
-      <c r="I20" s="22">
-        <v>1</v>
-      </c>
-      <c r="J20" s="22">
-        <v>0</v>
-      </c>
-      <c r="K20" s="22">
-        <v>0</v>
-      </c>
-      <c r="L20" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="17">
-        <v>16</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>428</v>
-      </c>
-      <c r="D21" s="17">
-        <v>4</v>
-      </c>
-      <c r="E21" s="17">
-        <v>0</v>
-      </c>
-      <c r="F21" s="17">
-        <v>0</v>
-      </c>
-      <c r="G21" s="17">
-        <v>4</v>
-      </c>
-      <c r="H21" s="22">
-        <v>1</v>
-      </c>
-      <c r="I21" s="22">
-        <v>3</v>
-      </c>
-      <c r="J21" s="22">
-        <v>0</v>
-      </c>
-      <c r="K21" s="22">
-        <v>0</v>
-      </c>
-      <c r="L21" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="17">
-        <v>17</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>430</v>
-      </c>
-      <c r="D22" s="17">
-        <v>3</v>
-      </c>
-      <c r="E22" s="17">
-        <v>0</v>
-      </c>
-      <c r="F22" s="17">
-        <v>0</v>
-      </c>
-      <c r="G22" s="17">
-        <v>3</v>
-      </c>
-      <c r="H22" s="22">
-        <v>0</v>
-      </c>
-      <c r="I22" s="22">
-        <v>3</v>
-      </c>
-      <c r="J22" s="22">
-        <v>0</v>
-      </c>
-      <c r="K22" s="22">
-        <v>0</v>
-      </c>
-      <c r="L22" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="17">
-        <v>18</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>429</v>
-      </c>
-      <c r="D23" s="17">
-        <v>3</v>
-      </c>
-      <c r="E23" s="17">
-        <v>0</v>
-      </c>
-      <c r="F23" s="17">
-        <v>0</v>
-      </c>
-      <c r="G23" s="17">
-        <v>3</v>
-      </c>
-      <c r="H23" s="22">
-        <v>0</v>
-      </c>
-      <c r="I23" s="22">
-        <v>2</v>
-      </c>
-      <c r="J23" s="22">
-        <v>1</v>
-      </c>
-      <c r="K23" s="22">
-        <v>0</v>
-      </c>
-      <c r="L23" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="17">
-        <v>19</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>430</v>
-      </c>
-      <c r="D24" s="17">
-        <v>3</v>
-      </c>
-      <c r="E24" s="17">
-        <v>0</v>
-      </c>
-      <c r="F24" s="17">
-        <v>1</v>
-      </c>
-      <c r="G24" s="17">
-        <v>2</v>
-      </c>
-      <c r="H24" s="22">
-        <v>2</v>
-      </c>
-      <c r="I24" s="22">
-        <v>0</v>
-      </c>
-      <c r="J24" s="22">
-        <v>0</v>
-      </c>
-      <c r="K24" s="22">
-        <v>0</v>
-      </c>
-      <c r="L24" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="17">
-        <v>20</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>430</v>
-      </c>
-      <c r="D25" s="17">
-        <v>3</v>
-      </c>
-      <c r="E25" s="17">
-        <v>0</v>
-      </c>
-      <c r="F25" s="17">
-        <v>0</v>
-      </c>
-      <c r="G25" s="17">
-        <v>3</v>
-      </c>
-      <c r="H25" s="22">
-        <v>1</v>
-      </c>
-      <c r="I25" s="22">
-        <v>1</v>
-      </c>
-      <c r="J25" s="22">
-        <v>1</v>
-      </c>
-      <c r="K25" s="22">
-        <v>0</v>
-      </c>
-      <c r="L25" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="17">
-        <v>21</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>428</v>
-      </c>
-      <c r="D26" s="17">
-        <v>3</v>
-      </c>
-      <c r="E26" s="17">
-        <v>0</v>
-      </c>
-      <c r="F26" s="17">
-        <v>1</v>
-      </c>
-      <c r="G26" s="17">
-        <v>2</v>
-      </c>
-      <c r="H26" s="22">
-        <v>2</v>
-      </c>
-      <c r="I26" s="22">
-        <v>0</v>
-      </c>
-      <c r="J26" s="22">
-        <v>0</v>
-      </c>
-      <c r="K26" s="22">
-        <v>1</v>
-      </c>
-      <c r="L26" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="17">
-        <v>24</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>428</v>
-      </c>
-      <c r="D27" s="17">
-        <v>3</v>
-      </c>
-      <c r="E27" s="17">
-        <v>0</v>
-      </c>
-      <c r="F27" s="17">
-        <v>0</v>
-      </c>
-      <c r="G27" s="17">
-        <v>3</v>
-      </c>
-      <c r="H27" s="25">
-        <v>2</v>
-      </c>
-      <c r="I27" s="25">
-        <v>0</v>
-      </c>
-      <c r="J27" s="25">
-        <v>0</v>
-      </c>
-      <c r="K27" s="25">
-        <v>0</v>
-      </c>
-      <c r="L27" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="17">
-        <v>25</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>429</v>
-      </c>
-      <c r="D28" s="17">
-        <v>3</v>
-      </c>
-      <c r="E28" s="17">
-        <v>0</v>
-      </c>
-      <c r="F28" s="17">
-        <v>0</v>
-      </c>
-      <c r="G28" s="17">
-        <v>3</v>
-      </c>
-      <c r="H28" s="25">
-        <v>0</v>
-      </c>
-      <c r="I28" s="25">
-        <v>2</v>
-      </c>
-      <c r="J28" s="25">
-        <v>1</v>
-      </c>
-      <c r="K28" s="25">
-        <v>0</v>
-      </c>
-      <c r="L28" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="17">
-        <v>27</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>430</v>
-      </c>
-      <c r="D29" s="17">
-        <v>3</v>
-      </c>
-      <c r="E29" s="17">
-        <v>0</v>
-      </c>
-      <c r="F29" s="17">
-        <v>1</v>
-      </c>
-      <c r="G29" s="17">
-        <v>2</v>
-      </c>
-      <c r="H29" s="25">
-        <v>0</v>
-      </c>
-      <c r="I29" s="25">
-        <v>2</v>
-      </c>
-      <c r="J29" s="25">
-        <v>0</v>
-      </c>
-      <c r="K29" s="25">
-        <v>0</v>
-      </c>
-      <c r="L29" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="70">
-        <v>2</v>
-      </c>
-      <c r="B30" s="70" t="s">
-        <v>317</v>
-      </c>
-      <c r="C30" s="114" t="s">
-        <v>429</v>
-      </c>
-      <c r="D30" s="70">
-        <v>17</v>
-      </c>
-      <c r="E30" s="70">
-        <v>14</v>
-      </c>
-      <c r="F30" s="70">
-        <v>3</v>
-      </c>
-      <c r="G30" s="70">
-        <v>0</v>
-      </c>
-      <c r="H30" s="111">
-        <v>3</v>
-      </c>
-      <c r="I30" s="111">
-        <v>0</v>
-      </c>
-      <c r="J30" s="111">
-        <v>2</v>
-      </c>
-      <c r="K30" s="111">
-        <v>11</v>
-      </c>
-      <c r="L30" s="111">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:L30" xr:uid="{1BB2B9B5-A8F6-1F48-A63B-3B99CE8C45C8}">
-    <sortState ref="A2:L30">
-      <sortCondition ref="B1:B30"/>
-    </sortState>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/outputs/tables/Clustering.xlsx
+++ b/outputs/tables/Clustering.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Carreira Acadêmica/Doutorado/Tese - João Paulo Alencar/Analises/Elementos Bióticos/Resultados/BE_Cerrado/outputs/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A7ABE7-6B6F-2F4D-BBAF-8A92257C79DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCECD6F5-8D60-BA49-97A8-BAD6957BDCAE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5900" yWindow="-14400" windowWidth="25600" windowHeight="14360" activeTab="5" xr2:uid="{8BE1F850-643F-754B-B438-8BDD7E09D5AB}"/>
+    <workbookView xWindow="2600" yWindow="-18820" windowWidth="25600" windowHeight="14360" activeTab="3" xr2:uid="{8BE1F850-643F-754B-B438-8BDD7E09D5AB}"/>
   </bookViews>
   <sheets>
     <sheet name="cdn" sheetId="2" r:id="rId1"/>
@@ -1967,6 +1967,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1985,7 +1986,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2356,7 +2356,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="118" t="s">
         <v>329</v>
       </c>
       <c r="B3" t="s">
@@ -2391,7 +2391,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="117"/>
+      <c r="A4" s="118"/>
       <c r="B4" t="s">
         <v>352</v>
       </c>
@@ -2424,7 +2424,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="117"/>
+      <c r="A5" s="118"/>
       <c r="B5" t="s">
         <v>351</v>
       </c>
@@ -2457,7 +2457,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="117" t="s">
+      <c r="A7" s="118" t="s">
         <v>330</v>
       </c>
       <c r="B7" t="s">
@@ -2492,7 +2492,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="117"/>
+      <c r="A8" s="118"/>
       <c r="B8" t="s">
         <v>352</v>
       </c>
@@ -2525,7 +2525,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="117"/>
+      <c r="A9" s="118"/>
       <c r="B9" t="s">
         <v>351</v>
       </c>
@@ -2558,7 +2558,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="117" t="s">
+      <c r="A11" s="118" t="s">
         <v>331</v>
       </c>
       <c r="B11" t="s">
@@ -2593,7 +2593,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="117"/>
+      <c r="A12" s="118"/>
       <c r="B12" t="s">
         <v>352</v>
       </c>
@@ -2626,7 +2626,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="117"/>
+      <c r="A13" s="118"/>
       <c r="B13" t="s">
         <v>351</v>
       </c>
@@ -2659,7 +2659,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="117" t="s">
+      <c r="A15" s="118" t="s">
         <v>332</v>
       </c>
       <c r="B15" t="s">
@@ -2694,7 +2694,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="117"/>
+      <c r="A16" s="118"/>
       <c r="B16" t="s">
         <v>352</v>
       </c>
@@ -2727,7 +2727,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="117"/>
+      <c r="A17" s="118"/>
       <c r="B17" t="s">
         <v>351</v>
       </c>
@@ -2760,7 +2760,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="118" t="s">
+      <c r="A19" s="119" t="s">
         <v>333</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -2795,7 +2795,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="118"/>
+      <c r="A20" s="119"/>
       <c r="B20" s="7" t="s">
         <v>352</v>
       </c>
@@ -2828,7 +2828,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="119"/>
+      <c r="A21" s="120"/>
       <c r="B21" s="8" t="s">
         <v>351</v>
       </c>
@@ -2900,15 +2900,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="120"/>
+      <c r="B1" s="121"/>
       <c r="C1" s="25"/>
-      <c r="D1" s="120" t="s">
+      <c r="D1" s="121" t="s">
         <v>305</v>
       </c>
-      <c r="E1" s="120"/>
+      <c r="E1" s="121"/>
       <c r="G1" s="26" t="s">
         <v>385</v>
       </c>
@@ -14951,9 +14951,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48956B19-CF25-1042-B320-1547212FD114}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" activeCellId="1" sqref="G2:G13 G18:G30"/>
+      <selection pane="bottomLeft" activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15016,47 +15016,47 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="12">
-        <v>6</v>
+      <c r="A2" s="12" t="s">
+        <v>447</v>
       </c>
       <c r="B2" s="103">
-        <v>7</v>
-      </c>
-      <c r="C2" s="67">
+        <v>4</v>
+      </c>
+      <c r="C2" s="21">
+        <v>1</v>
+      </c>
+      <c r="D2" s="21">
+        <v>0</v>
+      </c>
+      <c r="E2" s="21">
+        <v>0</v>
+      </c>
+      <c r="F2" s="21">
+        <v>2</v>
+      </c>
+      <c r="G2" s="21">
+        <v>1</v>
+      </c>
+      <c r="H2" s="16">
         <v>3</v>
       </c>
-      <c r="D2" s="67">
-        <v>2</v>
-      </c>
-      <c r="E2" s="67">
+      <c r="I2" s="91">
+        <v>216523</v>
+      </c>
+      <c r="J2" s="12">
+        <v>18</v>
+      </c>
+      <c r="K2" s="12">
+        <v>0</v>
+      </c>
+      <c r="L2" s="12">
+        <v>3</v>
+      </c>
+      <c r="M2" s="12">
         <v>1</v>
       </c>
-      <c r="F2" s="67">
-        <v>0</v>
-      </c>
-      <c r="G2" s="67">
-        <v>1</v>
-      </c>
-      <c r="H2" s="16">
-        <v>4</v>
-      </c>
-      <c r="I2" s="91">
-        <v>35692</v>
-      </c>
-      <c r="J2" s="12">
-        <v>3</v>
-      </c>
-      <c r="K2" s="12">
-        <v>0</v>
-      </c>
-      <c r="L2" s="12">
-        <v>0</v>
-      </c>
-      <c r="M2" s="12">
-        <v>7</v>
-      </c>
       <c r="N2" s="1" t="s">
-        <v>318</v>
+        <v>380</v>
       </c>
       <c r="O2" t="s">
         <v>412</v>
@@ -15064,46 +15064,46 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B3" s="103">
-        <v>5</v>
-      </c>
-      <c r="C3" s="21">
+        <v>3</v>
+      </c>
+      <c r="C3" s="64">
         <v>1</v>
       </c>
-      <c r="D3" s="21">
-        <v>1</v>
-      </c>
-      <c r="E3" s="21">
+      <c r="D3" s="64">
+        <v>0</v>
+      </c>
+      <c r="E3" s="64">
+        <v>2</v>
+      </c>
+      <c r="F3" s="20">
+        <v>0</v>
+      </c>
+      <c r="G3" s="64">
+        <v>0</v>
+      </c>
+      <c r="H3" s="16">
+        <v>2</v>
+      </c>
+      <c r="I3" s="91">
+        <v>244318</v>
+      </c>
+      <c r="J3" s="12">
+        <v>21</v>
+      </c>
+      <c r="K3" s="12">
+        <v>0</v>
+      </c>
+      <c r="L3" s="12">
         <v>3</v>
       </c>
-      <c r="F3" s="21">
-        <v>0</v>
-      </c>
-      <c r="G3" s="21">
-        <v>0</v>
-      </c>
-      <c r="H3" s="16">
-        <v>3</v>
-      </c>
-      <c r="I3" s="91">
-        <v>59325</v>
-      </c>
-      <c r="J3" s="12">
-        <v>5</v>
-      </c>
-      <c r="K3" s="12">
-        <v>0</v>
-      </c>
-      <c r="L3" s="12">
-        <v>0</v>
-      </c>
       <c r="M3" s="12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>318</v>
+        <v>380</v>
       </c>
       <c r="O3" t="s">
         <v>412</v>
@@ -15111,34 +15111,34 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B4" s="103">
-        <v>5</v>
-      </c>
-      <c r="C4" s="21">
-        <v>0</v>
-      </c>
-      <c r="D4" s="21">
+        <v>3</v>
+      </c>
+      <c r="C4" s="64">
         <v>2</v>
       </c>
-      <c r="E4" s="21">
-        <v>0</v>
-      </c>
-      <c r="F4" s="21">
+      <c r="D4" s="64">
+        <v>0</v>
+      </c>
+      <c r="E4" s="64">
+        <v>0</v>
+      </c>
+      <c r="F4" s="64">
         <v>1</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="64">
+        <v>0</v>
+      </c>
+      <c r="H4" s="16">
         <v>2</v>
       </c>
-      <c r="H4" s="16">
-        <v>3</v>
-      </c>
       <c r="I4" s="91">
-        <v>47647</v>
+        <v>589620</v>
       </c>
       <c r="J4" s="12">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="K4" s="12">
         <v>0</v>
@@ -15147,51 +15147,51 @@
         <v>2</v>
       </c>
       <c r="M4" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>318</v>
+        <v>380</v>
       </c>
       <c r="O4" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
-        <v>447</v>
+      <c r="A5" s="12">
+        <v>28</v>
       </c>
       <c r="B5" s="103">
-        <v>4</v>
-      </c>
-      <c r="C5" s="21">
+        <v>3</v>
+      </c>
+      <c r="C5" s="68">
+        <v>3</v>
+      </c>
+      <c r="D5" s="68">
+        <v>0</v>
+      </c>
+      <c r="E5" s="68">
+        <v>0</v>
+      </c>
+      <c r="F5" s="68">
+        <v>0</v>
+      </c>
+      <c r="G5" s="68">
+        <v>0</v>
+      </c>
+      <c r="H5" s="16">
         <v>1</v>
       </c>
-      <c r="D5" s="21">
-        <v>0</v>
-      </c>
-      <c r="E5" s="21">
-        <v>0</v>
-      </c>
-      <c r="F5" s="21">
+      <c r="I5" s="91">
+        <v>433721</v>
+      </c>
+      <c r="J5" s="12">
+        <v>36</v>
+      </c>
+      <c r="K5" s="12">
+        <v>0</v>
+      </c>
+      <c r="L5" s="12">
         <v>2</v>
-      </c>
-      <c r="G5" s="21">
-        <v>1</v>
-      </c>
-      <c r="H5" s="16">
-        <v>3</v>
-      </c>
-      <c r="I5" s="91">
-        <v>216523</v>
-      </c>
-      <c r="J5" s="12">
-        <v>18</v>
-      </c>
-      <c r="K5" s="12">
-        <v>0</v>
-      </c>
-      <c r="L5" s="12">
-        <v>3</v>
       </c>
       <c r="M5" s="12">
         <v>1</v>
@@ -15205,182 +15205,182 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B6" s="103">
         <v>3</v>
       </c>
-      <c r="C6" s="19">
-        <v>0</v>
-      </c>
-      <c r="D6" s="19">
-        <v>3</v>
-      </c>
-      <c r="E6" s="19">
-        <v>0</v>
-      </c>
-      <c r="F6" s="19">
-        <v>0</v>
-      </c>
-      <c r="G6" s="19">
+      <c r="C6" s="64">
+        <v>1</v>
+      </c>
+      <c r="D6" s="64">
+        <v>2</v>
+      </c>
+      <c r="E6" s="64">
+        <v>0</v>
+      </c>
+      <c r="F6" s="64">
+        <v>0</v>
+      </c>
+      <c r="G6" s="64">
         <v>0</v>
       </c>
       <c r="H6" s="16">
+        <v>2</v>
+      </c>
+      <c r="I6" s="91">
+        <v>940438</v>
+      </c>
+      <c r="J6" s="12">
+        <v>79</v>
+      </c>
+      <c r="K6" s="12">
         <v>1</v>
       </c>
-      <c r="I6" s="91">
-        <v>36374</v>
-      </c>
-      <c r="J6" s="12">
-        <v>3</v>
-      </c>
-      <c r="K6" s="12">
-        <v>0</v>
-      </c>
       <c r="L6" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M6" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>318</v>
+        <v>380</v>
       </c>
       <c r="O6" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
-        <v>444</v>
-      </c>
-      <c r="B7" s="103">
+      <c r="A7" s="12">
+        <v>22</v>
+      </c>
+      <c r="B7" s="12">
         <v>3</v>
       </c>
       <c r="C7" s="20">
+        <v>1</v>
+      </c>
+      <c r="D7" s="20">
+        <v>0</v>
+      </c>
+      <c r="E7" s="20">
         <v>2</v>
       </c>
-      <c r="D7" s="20">
-        <v>0</v>
-      </c>
-      <c r="E7" s="20">
-        <v>0</v>
-      </c>
       <c r="F7" s="20">
         <v>0</v>
       </c>
       <c r="G7" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="16">
         <v>2</v>
       </c>
       <c r="I7" s="91">
-        <v>114447</v>
+        <v>535739</v>
       </c>
       <c r="J7" s="12">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="K7" s="12">
         <v>0</v>
       </c>
       <c r="L7" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M7" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>318</v>
+        <v>380</v>
       </c>
       <c r="O7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Q7" s="9"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
-        <v>20</v>
-      </c>
-      <c r="B8" s="103">
-        <v>3</v>
-      </c>
-      <c r="C8" s="21">
+        <v>4</v>
+      </c>
+      <c r="B8" s="104">
+        <v>10</v>
+      </c>
+      <c r="C8" s="67">
         <v>1</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="67">
         <v>1</v>
       </c>
-      <c r="E8" s="21">
-        <v>1</v>
-      </c>
-      <c r="F8" s="21">
-        <v>0</v>
-      </c>
-      <c r="G8" s="21">
+      <c r="E8" s="67">
+        <v>4</v>
+      </c>
+      <c r="F8" s="67">
+        <v>4</v>
+      </c>
+      <c r="G8" s="67">
         <v>0</v>
       </c>
       <c r="H8" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I8" s="91">
-        <v>73125</v>
+        <v>1492437</v>
       </c>
       <c r="J8" s="12">
-        <v>6</v>
+        <v>128</v>
       </c>
       <c r="K8" s="12">
         <v>0</v>
       </c>
       <c r="L8" s="12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M8" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>318</v>
+        <v>380</v>
       </c>
       <c r="O8" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
-        <v>23</v>
-      </c>
-      <c r="B9" s="103">
-        <v>3</v>
-      </c>
-      <c r="C9" s="64">
-        <v>1</v>
-      </c>
-      <c r="D9" s="64">
-        <v>0</v>
-      </c>
-      <c r="E9" s="64">
+        <v>13</v>
+      </c>
+      <c r="B9" s="104">
+        <v>4</v>
+      </c>
+      <c r="C9" s="20">
         <v>2</v>
       </c>
+      <c r="D9" s="20">
+        <v>0</v>
+      </c>
+      <c r="E9" s="20">
+        <v>0</v>
+      </c>
       <c r="F9" s="20">
-        <v>0</v>
-      </c>
-      <c r="G9" s="64">
+        <v>2</v>
+      </c>
+      <c r="G9" s="20">
         <v>0</v>
       </c>
       <c r="H9" s="16">
         <v>2</v>
       </c>
       <c r="I9" s="91">
-        <v>244318</v>
+        <v>829390</v>
       </c>
       <c r="J9" s="12">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="K9" s="12">
         <v>0</v>
       </c>
       <c r="L9" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M9" s="12">
         <v>0</v>
@@ -15389,95 +15389,95 @@
         <v>380</v>
       </c>
       <c r="O9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
-        <v>26</v>
-      </c>
-      <c r="B10" s="103">
-        <v>3</v>
-      </c>
-      <c r="C10" s="64">
-        <v>2</v>
-      </c>
-      <c r="D10" s="64">
-        <v>0</v>
-      </c>
-      <c r="E10" s="64">
-        <v>0</v>
-      </c>
-      <c r="F10" s="64">
+        <v>14</v>
+      </c>
+      <c r="B10" s="104">
+        <v>4</v>
+      </c>
+      <c r="C10" s="19">
+        <v>0</v>
+      </c>
+      <c r="D10" s="19">
+        <v>0</v>
+      </c>
+      <c r="E10" s="19">
+        <v>4</v>
+      </c>
+      <c r="F10" s="19">
+        <v>0</v>
+      </c>
+      <c r="G10" s="19">
+        <v>0</v>
+      </c>
+      <c r="H10" s="16">
         <v>1</v>
       </c>
-      <c r="G10" s="64">
-        <v>0</v>
-      </c>
-      <c r="H10" s="16">
-        <v>2</v>
-      </c>
       <c r="I10" s="91">
-        <v>589620</v>
+        <v>518105</v>
       </c>
       <c r="J10" s="12">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K10" s="12">
         <v>0</v>
       </c>
       <c r="L10" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M10" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>380</v>
       </c>
       <c r="O10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
-        <v>446</v>
+      <c r="A11" s="12">
+        <v>6</v>
       </c>
       <c r="B11" s="103">
+        <v>7</v>
+      </c>
+      <c r="C11" s="67">
         <v>3</v>
       </c>
-      <c r="C11" s="64">
-        <v>0</v>
-      </c>
-      <c r="D11" s="64">
+      <c r="D11" s="67">
         <v>2</v>
       </c>
-      <c r="E11" s="64">
-        <v>0</v>
-      </c>
-      <c r="F11" s="64">
-        <v>0</v>
-      </c>
-      <c r="G11" s="64">
+      <c r="E11" s="67">
         <v>1</v>
       </c>
+      <c r="F11" s="67">
+        <v>0</v>
+      </c>
+      <c r="G11" s="67">
+        <v>1</v>
+      </c>
       <c r="H11" s="16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I11" s="91">
-        <v>119501</v>
+        <v>35692</v>
       </c>
       <c r="J11" s="12">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K11" s="12">
         <v>0</v>
       </c>
       <c r="L11" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="12">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>318</v>
@@ -15488,46 +15488,46 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B12" s="103">
+        <v>5</v>
+      </c>
+      <c r="C12" s="21">
+        <v>1</v>
+      </c>
+      <c r="D12" s="21">
+        <v>1</v>
+      </c>
+      <c r="E12" s="21">
         <v>3</v>
       </c>
-      <c r="C12" s="68">
+      <c r="F12" s="21">
+        <v>0</v>
+      </c>
+      <c r="G12" s="21">
+        <v>0</v>
+      </c>
+      <c r="H12" s="16">
         <v>3</v>
       </c>
-      <c r="D12" s="68">
-        <v>0</v>
-      </c>
-      <c r="E12" s="68">
-        <v>0</v>
-      </c>
-      <c r="F12" s="68">
-        <v>0</v>
-      </c>
-      <c r="G12" s="68">
-        <v>0</v>
-      </c>
-      <c r="H12" s="16">
-        <v>1</v>
-      </c>
       <c r="I12" s="91">
-        <v>433721</v>
+        <v>59325</v>
       </c>
       <c r="J12" s="12">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="K12" s="12">
         <v>0</v>
       </c>
       <c r="L12" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M12" s="12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>380</v>
+        <v>318</v>
       </c>
       <c r="O12" t="s">
         <v>412</v>
@@ -15535,46 +15535,46 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B13" s="103">
+        <v>5</v>
+      </c>
+      <c r="C13" s="21">
+        <v>0</v>
+      </c>
+      <c r="D13" s="21">
+        <v>2</v>
+      </c>
+      <c r="E13" s="21">
+        <v>0</v>
+      </c>
+      <c r="F13" s="21">
+        <v>1</v>
+      </c>
+      <c r="G13" s="21">
+        <v>2</v>
+      </c>
+      <c r="H13" s="16">
         <v>3</v>
       </c>
-      <c r="C13" s="64">
-        <v>1</v>
-      </c>
-      <c r="D13" s="64">
-        <v>2</v>
-      </c>
-      <c r="E13" s="64">
-        <v>0</v>
-      </c>
-      <c r="F13" s="64">
-        <v>0</v>
-      </c>
-      <c r="G13" s="64">
-        <v>0</v>
-      </c>
-      <c r="H13" s="16">
-        <v>2</v>
-      </c>
       <c r="I13" s="91">
-        <v>940438</v>
+        <v>47647</v>
       </c>
       <c r="J13" s="12">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="K13" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="12">
         <v>2</v>
       </c>
       <c r="M13" s="12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>380</v>
+        <v>318</v>
       </c>
       <c r="O13" t="s">
         <v>412</v>
@@ -15582,150 +15582,150 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
+        <v>17</v>
+      </c>
+      <c r="B14" s="103">
+        <v>3</v>
+      </c>
+      <c r="C14" s="19">
+        <v>0</v>
+      </c>
+      <c r="D14" s="19">
+        <v>3</v>
+      </c>
+      <c r="E14" s="19">
+        <v>0</v>
+      </c>
+      <c r="F14" s="19">
+        <v>0</v>
+      </c>
+      <c r="G14" s="19">
+        <v>0</v>
+      </c>
+      <c r="H14" s="16">
+        <v>1</v>
+      </c>
+      <c r="I14" s="91">
+        <v>36374</v>
+      </c>
+      <c r="J14" s="12">
+        <v>3</v>
+      </c>
+      <c r="K14" s="12">
+        <v>0</v>
+      </c>
+      <c r="L14" s="12">
+        <v>0</v>
+      </c>
+      <c r="M14" s="12">
+        <v>3</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="O14" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="B15" s="103">
+        <v>3</v>
+      </c>
+      <c r="C15" s="20">
         <v>2</v>
       </c>
-      <c r="B14" s="12">
-        <v>17</v>
-      </c>
-      <c r="C14" s="67">
-        <v>3</v>
-      </c>
-      <c r="D14" s="67">
-        <v>0</v>
-      </c>
-      <c r="E14" s="67">
-        <v>2</v>
-      </c>
-      <c r="F14" s="67">
-        <v>11</v>
-      </c>
-      <c r="G14" s="67">
+      <c r="D15" s="20">
+        <v>0</v>
+      </c>
+      <c r="E15" s="20">
+        <v>0</v>
+      </c>
+      <c r="F15" s="20">
+        <v>0</v>
+      </c>
+      <c r="G15" s="20">
         <v>1</v>
-      </c>
-      <c r="H14" s="16">
-        <v>4</v>
-      </c>
-      <c r="I14" s="91">
-        <v>2706500</v>
-      </c>
-      <c r="J14" s="12">
-        <v>229</v>
-      </c>
-      <c r="K14" s="12">
-        <v>14</v>
-      </c>
-      <c r="L14" s="12">
-        <v>3</v>
-      </c>
-      <c r="M14" s="12">
-        <v>0</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="O14" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="12">
-        <v>18</v>
-      </c>
-      <c r="B15" s="12">
-        <v>3</v>
-      </c>
-      <c r="C15" s="20">
-        <v>0</v>
-      </c>
-      <c r="D15" s="20">
-        <v>2</v>
-      </c>
-      <c r="E15" s="20">
-        <v>1</v>
-      </c>
-      <c r="F15" s="20">
-        <v>0</v>
-      </c>
-      <c r="G15" s="20">
-        <v>0</v>
       </c>
       <c r="H15" s="16">
         <v>2</v>
       </c>
       <c r="I15" s="91">
-        <v>24175</v>
+        <v>114447</v>
       </c>
       <c r="J15" s="12">
+        <v>10</v>
+      </c>
+      <c r="K15" s="12">
+        <v>0</v>
+      </c>
+      <c r="L15" s="12">
+        <v>1</v>
+      </c>
+      <c r="M15" s="12">
         <v>2</v>
-      </c>
-      <c r="K15" s="12">
-        <v>0</v>
-      </c>
-      <c r="L15" s="12">
-        <v>0</v>
-      </c>
-      <c r="M15" s="12">
-        <v>3</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O15" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
-        <v>22</v>
-      </c>
-      <c r="B16" s="12">
+        <v>20</v>
+      </c>
+      <c r="B16" s="103">
         <v>3</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="21">
         <v>1</v>
       </c>
-      <c r="D16" s="20">
-        <v>0</v>
-      </c>
-      <c r="E16" s="20">
-        <v>2</v>
-      </c>
-      <c r="F16" s="20">
-        <v>0</v>
-      </c>
-      <c r="G16" s="20">
+      <c r="D16" s="21">
+        <v>1</v>
+      </c>
+      <c r="E16" s="21">
+        <v>1</v>
+      </c>
+      <c r="F16" s="21">
+        <v>0</v>
+      </c>
+      <c r="G16" s="21">
         <v>0</v>
       </c>
       <c r="H16" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16" s="91">
-        <v>535739</v>
+        <v>73125</v>
       </c>
       <c r="J16" s="12">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="K16" s="12">
         <v>0</v>
       </c>
       <c r="L16" s="12">
+        <v>0</v>
+      </c>
+      <c r="M16" s="12">
         <v>3</v>
       </c>
-      <c r="M16" s="12">
-        <v>0</v>
-      </c>
       <c r="N16" s="1" t="s">
-        <v>380</v>
+        <v>318</v>
       </c>
       <c r="O16" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12">
-        <v>25</v>
-      </c>
-      <c r="B17" s="12">
+      <c r="A17" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="B17" s="103">
         <v>3</v>
       </c>
       <c r="C17" s="64">
@@ -15735,117 +15735,117 @@
         <v>2</v>
       </c>
       <c r="E17" s="64">
+        <v>0</v>
+      </c>
+      <c r="F17" s="64">
+        <v>0</v>
+      </c>
+      <c r="G17" s="64">
         <v>1</v>
-      </c>
-      <c r="F17" s="20">
-        <v>0</v>
-      </c>
-      <c r="G17" s="64">
-        <v>0</v>
       </c>
       <c r="H17" s="16">
         <v>2</v>
       </c>
       <c r="I17" s="91">
-        <v>35952</v>
+        <v>119501</v>
       </c>
       <c r="J17" s="12">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K17" s="12">
         <v>0</v>
       </c>
       <c r="L17" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O17" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
+        <v>18</v>
+      </c>
+      <c r="B18" s="12">
+        <v>3</v>
+      </c>
+      <c r="C18" s="20">
+        <v>0</v>
+      </c>
+      <c r="D18" s="20">
+        <v>2</v>
+      </c>
+      <c r="E18" s="20">
         <v>1</v>
       </c>
-      <c r="B18" s="104">
-        <v>39</v>
-      </c>
-      <c r="C18" s="18">
-        <v>21</v>
-      </c>
-      <c r="D18" s="18">
-        <v>6</v>
-      </c>
-      <c r="E18" s="18">
+      <c r="F18" s="20">
+        <v>0</v>
+      </c>
+      <c r="G18" s="20">
+        <v>0</v>
+      </c>
+      <c r="H18" s="16">
+        <v>2</v>
+      </c>
+      <c r="I18" s="91">
+        <v>24175</v>
+      </c>
+      <c r="J18" s="12">
+        <v>2</v>
+      </c>
+      <c r="K18" s="12">
+        <v>0</v>
+      </c>
+      <c r="L18" s="12">
+        <v>0</v>
+      </c>
+      <c r="M18" s="12">
         <v>3</v>
-      </c>
-      <c r="F18" s="18">
-        <v>5</v>
-      </c>
-      <c r="G18" s="18">
-        <v>4</v>
-      </c>
-      <c r="H18" s="16">
-        <v>5</v>
-      </c>
-      <c r="I18" s="91">
-        <v>280627</v>
-      </c>
-      <c r="J18" s="12">
-        <v>24</v>
-      </c>
-      <c r="K18" s="12">
-        <v>0</v>
-      </c>
-      <c r="L18" s="12">
-        <v>3</v>
-      </c>
-      <c r="M18" s="12">
-        <v>36</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O18" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="19" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
+        <v>25</v>
+      </c>
+      <c r="B19" s="12">
         <v>3</v>
       </c>
-      <c r="B19" s="104">
-        <v>13</v>
-      </c>
-      <c r="C19" s="21">
-        <v>10</v>
-      </c>
-      <c r="D19" s="21">
+      <c r="C19" s="64">
+        <v>0</v>
+      </c>
+      <c r="D19" s="64">
+        <v>2</v>
+      </c>
+      <c r="E19" s="64">
         <v>1</v>
       </c>
-      <c r="E19" s="21">
-        <v>0</v>
-      </c>
-      <c r="F19" s="21">
-        <v>0</v>
-      </c>
-      <c r="G19" s="21">
+      <c r="F19" s="20">
+        <v>0</v>
+      </c>
+      <c r="G19" s="64">
+        <v>0</v>
+      </c>
+      <c r="H19" s="16">
         <v>2</v>
       </c>
-      <c r="H19" s="16">
+      <c r="I19" s="91">
+        <v>35952</v>
+      </c>
+      <c r="J19" s="12">
         <v>3</v>
       </c>
-      <c r="I19" s="91">
-        <v>165633</v>
-      </c>
-      <c r="J19" s="12">
-        <v>14</v>
-      </c>
       <c r="K19" s="12">
         <v>0</v>
       </c>
@@ -15853,57 +15853,57 @@
         <v>0</v>
       </c>
       <c r="M19" s="12">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O19" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
+        <v>1</v>
+      </c>
+      <c r="B20" s="104">
+        <v>39</v>
+      </c>
+      <c r="C20" s="18">
+        <v>21</v>
+      </c>
+      <c r="D20" s="18">
+        <v>6</v>
+      </c>
+      <c r="E20" s="18">
+        <v>3</v>
+      </c>
+      <c r="F20" s="18">
+        <v>5</v>
+      </c>
+      <c r="G20" s="18">
         <v>4</v>
       </c>
-      <c r="B20" s="104">
-        <v>10</v>
-      </c>
-      <c r="C20" s="67">
-        <v>1</v>
-      </c>
-      <c r="D20" s="67">
-        <v>1</v>
-      </c>
-      <c r="E20" s="67">
-        <v>4</v>
-      </c>
-      <c r="F20" s="67">
-        <v>4</v>
-      </c>
-      <c r="G20" s="67">
-        <v>0</v>
-      </c>
       <c r="H20" s="16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I20" s="91">
-        <v>1492437</v>
+        <v>280627</v>
       </c>
       <c r="J20" s="12">
-        <v>128</v>
+        <v>24</v>
       </c>
       <c r="K20" s="12">
         <v>0</v>
       </c>
       <c r="L20" s="12">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M20" s="12">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>380</v>
+        <v>318</v>
       </c>
       <c r="O20" t="s">
         <v>410</v>
@@ -15911,43 +15911,43 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B21" s="104">
-        <v>8</v>
-      </c>
-      <c r="C21" s="20">
-        <v>6</v>
-      </c>
-      <c r="D21" s="20">
-        <v>0</v>
-      </c>
-      <c r="E21" s="20">
+        <v>13</v>
+      </c>
+      <c r="C21" s="21">
+        <v>10</v>
+      </c>
+      <c r="D21" s="21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="21">
+        <v>0</v>
+      </c>
+      <c r="F21" s="21">
+        <v>0</v>
+      </c>
+      <c r="G21" s="21">
         <v>2</v>
       </c>
-      <c r="F21" s="20">
-        <v>0</v>
-      </c>
-      <c r="G21" s="20">
-        <v>0</v>
-      </c>
       <c r="H21" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I21" s="91">
-        <v>59753</v>
+        <v>165633</v>
       </c>
       <c r="J21" s="12">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="K21" s="12">
         <v>0</v>
       </c>
       <c r="L21" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" s="12">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>318</v>
@@ -15958,40 +15958,40 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B22" s="104">
-        <v>7</v>
-      </c>
-      <c r="C22" s="21">
+        <v>8</v>
+      </c>
+      <c r="C22" s="20">
+        <v>6</v>
+      </c>
+      <c r="D22" s="20">
+        <v>0</v>
+      </c>
+      <c r="E22" s="20">
         <v>2</v>
       </c>
-      <c r="D22" s="21">
-        <v>4</v>
-      </c>
-      <c r="E22" s="21">
+      <c r="F22" s="20">
+        <v>0</v>
+      </c>
+      <c r="G22" s="20">
+        <v>0</v>
+      </c>
+      <c r="H22" s="16">
+        <v>2</v>
+      </c>
+      <c r="I22" s="91">
+        <v>59753</v>
+      </c>
+      <c r="J22" s="12">
+        <v>5</v>
+      </c>
+      <c r="K22" s="12">
+        <v>0</v>
+      </c>
+      <c r="L22" s="12">
         <v>1</v>
-      </c>
-      <c r="F22" s="21">
-        <v>0</v>
-      </c>
-      <c r="G22" s="21">
-        <v>0</v>
-      </c>
-      <c r="H22" s="16">
-        <v>3</v>
-      </c>
-      <c r="I22" s="91">
-        <v>35850</v>
-      </c>
-      <c r="J22" s="12">
-        <v>3</v>
-      </c>
-      <c r="K22" s="12">
-        <v>0</v>
-      </c>
-      <c r="L22" s="12">
-        <v>0</v>
       </c>
       <c r="M22" s="12">
         <v>7</v>
@@ -16005,34 +16005,34 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23" s="104">
-        <v>6</v>
-      </c>
-      <c r="C23" s="20">
-        <v>5</v>
-      </c>
-      <c r="D23" s="20">
+        <v>7</v>
+      </c>
+      <c r="C23" s="21">
+        <v>2</v>
+      </c>
+      <c r="D23" s="21">
+        <v>4</v>
+      </c>
+      <c r="E23" s="21">
         <v>1</v>
       </c>
-      <c r="E23" s="20">
-        <v>0</v>
-      </c>
-      <c r="F23" s="20">
-        <v>0</v>
-      </c>
-      <c r="G23" s="20">
+      <c r="F23" s="21">
+        <v>0</v>
+      </c>
+      <c r="G23" s="21">
         <v>0</v>
       </c>
       <c r="H23" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I23" s="91">
-        <v>69341</v>
+        <v>35850</v>
       </c>
       <c r="J23" s="12">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K23" s="12">
         <v>0</v>
@@ -16041,7 +16041,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>318</v>
@@ -16052,43 +16052,43 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B24" s="104">
         <v>6</v>
       </c>
-      <c r="C24" s="21">
-        <v>4</v>
-      </c>
-      <c r="D24" s="21">
-        <v>0</v>
-      </c>
-      <c r="E24" s="21">
+      <c r="C24" s="20">
+        <v>5</v>
+      </c>
+      <c r="D24" s="20">
         <v>1</v>
       </c>
-      <c r="F24" s="21">
-        <v>0</v>
-      </c>
-      <c r="G24" s="21">
-        <v>1</v>
+      <c r="E24" s="20">
+        <v>0</v>
+      </c>
+      <c r="F24" s="20">
+        <v>0</v>
+      </c>
+      <c r="G24" s="20">
+        <v>0</v>
       </c>
       <c r="H24" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" s="91">
-        <v>201503</v>
+        <v>69341</v>
       </c>
       <c r="J24" s="12">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="K24" s="12">
         <v>0</v>
       </c>
       <c r="L24" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M24" s="12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>318</v>
@@ -16099,40 +16099,40 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B25" s="104">
+        <v>6</v>
+      </c>
+      <c r="C25" s="21">
         <v>4</v>
       </c>
-      <c r="C25" s="20">
+      <c r="D25" s="21">
+        <v>0</v>
+      </c>
+      <c r="E25" s="21">
+        <v>1</v>
+      </c>
+      <c r="F25" s="21">
+        <v>0</v>
+      </c>
+      <c r="G25" s="21">
+        <v>1</v>
+      </c>
+      <c r="H25" s="16">
         <v>3</v>
       </c>
-      <c r="D25" s="20">
-        <v>1</v>
-      </c>
-      <c r="E25" s="20">
-        <v>0</v>
-      </c>
-      <c r="F25" s="20">
-        <v>0</v>
-      </c>
-      <c r="G25" s="20">
-        <v>0</v>
-      </c>
-      <c r="H25" s="16">
+      <c r="I25" s="91">
+        <v>201503</v>
+      </c>
+      <c r="J25" s="12">
+        <v>17</v>
+      </c>
+      <c r="K25" s="12">
+        <v>0</v>
+      </c>
+      <c r="L25" s="12">
         <v>2</v>
-      </c>
-      <c r="I25" s="91">
-        <v>70753</v>
-      </c>
-      <c r="J25" s="12">
-        <v>6</v>
-      </c>
-      <c r="K25" s="12">
-        <v>0</v>
-      </c>
-      <c r="L25" s="12">
-        <v>0</v>
       </c>
       <c r="M25" s="12">
         <v>4</v>
@@ -16146,22 +16146,22 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B26" s="104">
         <v>4</v>
       </c>
       <c r="C26" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="20">
         <v>0</v>
       </c>
       <c r="F26" s="20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G26" s="20">
         <v>0</v>
@@ -16170,22 +16170,22 @@
         <v>2</v>
       </c>
       <c r="I26" s="91">
-        <v>829390</v>
+        <v>70753</v>
       </c>
       <c r="J26" s="12">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="K26" s="12">
         <v>0</v>
       </c>
       <c r="L26" s="12">
+        <v>0</v>
+      </c>
+      <c r="M26" s="12">
         <v>4</v>
       </c>
-      <c r="M26" s="12">
-        <v>0</v>
-      </c>
       <c r="N26" s="1" t="s">
-        <v>380</v>
+        <v>318</v>
       </c>
       <c r="O26" t="s">
         <v>410</v>
@@ -16193,46 +16193,46 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B27" s="104">
         <v>4</v>
       </c>
-      <c r="C27" s="19">
-        <v>0</v>
-      </c>
-      <c r="D27" s="19">
-        <v>0</v>
-      </c>
-      <c r="E27" s="19">
+      <c r="C27" s="20">
+        <v>1</v>
+      </c>
+      <c r="D27" s="20">
+        <v>3</v>
+      </c>
+      <c r="E27" s="20">
+        <v>0</v>
+      </c>
+      <c r="F27" s="20">
+        <v>0</v>
+      </c>
+      <c r="G27" s="20">
+        <v>0</v>
+      </c>
+      <c r="H27" s="16">
+        <v>2</v>
+      </c>
+      <c r="I27" s="91">
+        <v>131575</v>
+      </c>
+      <c r="J27" s="12">
+        <v>11</v>
+      </c>
+      <c r="K27" s="12">
+        <v>0</v>
+      </c>
+      <c r="L27" s="12">
+        <v>0</v>
+      </c>
+      <c r="M27" s="12">
         <v>4</v>
       </c>
-      <c r="F27" s="19">
-        <v>0</v>
-      </c>
-      <c r="G27" s="19">
-        <v>0</v>
-      </c>
-      <c r="H27" s="16">
-        <v>1</v>
-      </c>
-      <c r="I27" s="91">
-        <v>518105</v>
-      </c>
-      <c r="J27" s="12">
-        <v>45</v>
-      </c>
-      <c r="K27" s="12">
-        <v>0</v>
-      </c>
-      <c r="L27" s="12">
-        <v>4</v>
-      </c>
-      <c r="M27" s="12">
-        <v>0</v>
-      </c>
       <c r="N27" s="1" t="s">
-        <v>380</v>
+        <v>318</v>
       </c>
       <c r="O27" t="s">
         <v>410</v>
@@ -16240,22 +16240,22 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B28" s="104">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28" s="20">
+        <v>2</v>
+      </c>
+      <c r="D28" s="20">
+        <v>0</v>
+      </c>
+      <c r="E28" s="20">
+        <v>0</v>
+      </c>
+      <c r="F28" s="20">
         <v>1</v>
-      </c>
-      <c r="D28" s="20">
-        <v>3</v>
-      </c>
-      <c r="E28" s="20">
-        <v>0</v>
-      </c>
-      <c r="F28" s="20">
-        <v>0</v>
       </c>
       <c r="G28" s="20">
         <v>0</v>
@@ -16264,7 +16264,7 @@
         <v>2</v>
       </c>
       <c r="I28" s="91">
-        <v>131575</v>
+        <v>128339</v>
       </c>
       <c r="J28" s="12">
         <v>11</v>
@@ -16273,10 +16273,10 @@
         <v>0</v>
       </c>
       <c r="L28" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>318</v>
@@ -16286,44 +16286,44 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="12">
-        <v>21</v>
+      <c r="A29" s="12" t="s">
+        <v>445</v>
       </c>
       <c r="B29" s="104">
         <v>3</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C29" s="64">
         <v>2</v>
       </c>
-      <c r="D29" s="20">
-        <v>0</v>
-      </c>
-      <c r="E29" s="20">
+      <c r="D29" s="64">
+        <v>0</v>
+      </c>
+      <c r="E29" s="64">
         <v>0</v>
       </c>
       <c r="F29" s="20">
+        <v>0</v>
+      </c>
+      <c r="G29" s="64">
         <v>1</v>
-      </c>
-      <c r="G29" s="20">
-        <v>0</v>
       </c>
       <c r="H29" s="16">
         <v>2</v>
       </c>
       <c r="I29" s="91">
-        <v>128339</v>
+        <v>22447</v>
       </c>
       <c r="J29" s="12">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="K29" s="12">
         <v>0</v>
       </c>
       <c r="L29" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>318</v>
@@ -16333,50 +16333,50 @@
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="B30" s="104">
+      <c r="A30" s="12">
+        <v>2</v>
+      </c>
+      <c r="B30" s="12">
+        <v>17</v>
+      </c>
+      <c r="C30" s="67">
         <v>3</v>
       </c>
-      <c r="C30" s="64">
+      <c r="D30" s="67">
+        <v>0</v>
+      </c>
+      <c r="E30" s="67">
         <v>2</v>
       </c>
-      <c r="D30" s="64">
-        <v>0</v>
-      </c>
-      <c r="E30" s="64">
-        <v>0</v>
-      </c>
-      <c r="F30" s="20">
-        <v>0</v>
-      </c>
-      <c r="G30" s="64">
+      <c r="F30" s="67">
+        <v>11</v>
+      </c>
+      <c r="G30" s="67">
         <v>1</v>
       </c>
       <c r="H30" s="16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I30" s="91">
-        <v>22447</v>
+        <v>2706500</v>
       </c>
       <c r="J30" s="12">
-        <v>2</v>
+        <v>229</v>
       </c>
       <c r="K30" s="12">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L30" s="12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M30" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O30" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
@@ -16403,7 +16403,7 @@
   </sheetData>
   <autoFilter ref="A1:O23" xr:uid="{DE1A20C9-41D8-6D4F-99AC-E85332934F3C}">
     <sortState ref="A2:O30">
-      <sortCondition ref="O1:O30"/>
+      <sortCondition ref="N1:N30"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16414,7 +16414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD78233B-E478-774A-8E5D-0A41164AE470}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -17580,7 +17580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19A69BF1-CCFD-6443-93E0-6139599E6807}">
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -17598,7 +17598,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="J1" s="123" t="s">
+      <c r="J1" s="117" t="s">
         <v>450</v>
       </c>
     </row>
@@ -18200,15 +18200,15 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="121" t="s">
+      <c r="A18" s="122" t="s">
         <v>399</v>
       </c>
-      <c r="B18" s="121"/>
-      <c r="C18" s="121"/>
-      <c r="D18" s="121"/>
-      <c r="E18" s="121"/>
-      <c r="F18" s="121"/>
-      <c r="G18" s="121"/>
+      <c r="B18" s="122"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="122"/>
+      <c r="E18" s="122"/>
+      <c r="F18" s="122"/>
+      <c r="G18" s="122"/>
       <c r="I18" s="73"/>
       <c r="L18">
         <f>9/13</f>
@@ -18418,15 +18418,15 @@
       <c r="G26" s="8"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="122" t="s">
+      <c r="A27" s="123" t="s">
         <v>324</v>
       </c>
-      <c r="B27" s="122"/>
-      <c r="C27" s="122"/>
-      <c r="D27" s="122"/>
-      <c r="E27" s="122"/>
-      <c r="F27" s="122"/>
-      <c r="G27" s="122"/>
+      <c r="B27" s="123"/>
+      <c r="C27" s="123"/>
+      <c r="D27" s="123"/>
+      <c r="E27" s="123"/>
+      <c r="F27" s="123"/>
+      <c r="G27" s="123"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="102"/>
